--- a/10_Management/Exam_PMP_TangToc_07032019.xlsx
+++ b/10_Management/Exam_PMP_TangToc_07032019.xlsx
@@ -5,37 +5,38 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Working\EBill\10_Management\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\EBill\10_Management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CA5B447-09DC-4759-AFAF-1632B71D978E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A319BC2-23B7-486B-823E-90815430E218}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12000" windowHeight="6405" firstSheet="15" activeTab="1" xr2:uid="{957D22A2-4D54-4148-9DDE-7A2AF7FA87D7}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12000" windowHeight="6405" activeTab="2" xr2:uid="{957D22A2-4D54-4148-9DDE-7A2AF7FA87D7}"/>
   </bookViews>
   <sheets>
     <sheet name="study plan" sheetId="22" r:id="rId1"/>
-    <sheet name="Planning 4" sheetId="24" r:id="rId2"/>
-    <sheet name="monitoring 3" sheetId="23" r:id="rId3"/>
-    <sheet name="Stakeholder" sheetId="1" r:id="rId4"/>
-    <sheet name="Procurement" sheetId="2" r:id="rId5"/>
-    <sheet name="Closing 1" sheetId="20" r:id="rId6"/>
-    <sheet name="Initiating 1" sheetId="7" r:id="rId7"/>
-    <sheet name="scope" sheetId="10" r:id="rId8"/>
-    <sheet name="Planning5" sheetId="3" r:id="rId9"/>
-    <sheet name="Planning1" sheetId="11" r:id="rId10"/>
-    <sheet name="Planning3" sheetId="16" r:id="rId11"/>
-    <sheet name="Executing1" sheetId="15" r:id="rId12"/>
-    <sheet name="Executing 2" sheetId="17" r:id="rId13"/>
-    <sheet name="Domain-Initiating" sheetId="18" r:id="rId14"/>
-    <sheet name="Domain-Planning" sheetId="12" r:id="rId15"/>
-    <sheet name="Domain-Executing" sheetId="13" r:id="rId16"/>
-    <sheet name="Domain-Monitoring &amp; Controlling" sheetId="14" r:id="rId17"/>
-    <sheet name="Domain-Closing" sheetId="19" r:id="rId18"/>
-    <sheet name="Executing" sheetId="4" r:id="rId19"/>
-    <sheet name="Monitoring" sheetId="5" r:id="rId20"/>
-    <sheet name="Closing" sheetId="6" r:id="rId21"/>
-    <sheet name="Mock" sheetId="8" r:id="rId22"/>
-    <sheet name="Full Test" sheetId="9" r:id="rId23"/>
+    <sheet name="Mock Exam 1" sheetId="25" r:id="rId2"/>
+    <sheet name="Planning 4" sheetId="24" r:id="rId3"/>
+    <sheet name="monitoring 3" sheetId="23" r:id="rId4"/>
+    <sheet name="Stakeholder" sheetId="1" r:id="rId5"/>
+    <sheet name="Procurement" sheetId="2" r:id="rId6"/>
+    <sheet name="Closing 1" sheetId="20" r:id="rId7"/>
+    <sheet name="Initiating 1" sheetId="7" r:id="rId8"/>
+    <sheet name="scope" sheetId="10" r:id="rId9"/>
+    <sheet name="Planning5" sheetId="3" r:id="rId10"/>
+    <sheet name="Planning1" sheetId="11" r:id="rId11"/>
+    <sheet name="Planning3" sheetId="16" r:id="rId12"/>
+    <sheet name="Executing1" sheetId="15" r:id="rId13"/>
+    <sheet name="Executing 2" sheetId="17" r:id="rId14"/>
+    <sheet name="Domain-Initiating" sheetId="18" r:id="rId15"/>
+    <sheet name="Domain-Planning" sheetId="12" r:id="rId16"/>
+    <sheet name="Domain-Executing" sheetId="13" r:id="rId17"/>
+    <sheet name="Domain-Monitoring &amp; Controlling" sheetId="14" r:id="rId18"/>
+    <sheet name="Domain-Closing" sheetId="19" r:id="rId19"/>
+    <sheet name="Executing" sheetId="4" r:id="rId20"/>
+    <sheet name="Monitoring" sheetId="5" r:id="rId21"/>
+    <sheet name="Closing" sheetId="6" r:id="rId22"/>
+    <sheet name="Mock" sheetId="8" r:id="rId23"/>
+    <sheet name="Full Test" sheetId="9" r:id="rId24"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -76,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="865" uniqueCount="457">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="874" uniqueCount="460">
   <si>
     <t>No</t>
   </si>
@@ -1566,6 +1567,15 @@
   </si>
   <si>
     <t>Note: Criteria for developing and controlling the project schedule are included in the schedule management plan. How, when???</t>
+  </si>
+  <si>
+    <t>Hỏi input quan trọng nhất cho phần develop schedule nó chính là output của sequence activity: network diagram. Phải có cái này mới build được schedule</t>
+  </si>
+  <si>
+    <t>Note: cần đọc lại phần develop schedule gồm một số công đoạn: compress schedule, gain approval</t>
+  </si>
+  <si>
+    <t>Note: Milestone list là output của define activity, estimate activity durations là process nằm trc develop schedules, việc compress the schedules và completed a monte carlo analysis là 1 phần nằm trong develop schedule. Recommend correct actions nó nằm trong phần control schedule</t>
   </si>
 </sst>
 </file>
@@ -2141,28 +2151,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="14" fillId="6" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -2201,10 +2189,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="14" fillId="6" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2527,7 +2537,7 @@
   <dimension ref="A1:Z1003"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:E19"/>
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -2975,20 +2985,20 @@
       <c r="Z12" s="56"/>
     </row>
     <row r="13" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A13" s="96" t="s">
+      <c r="A13" s="88" t="s">
         <v>396</v>
       </c>
-      <c r="B13" s="84">
+      <c r="B13" s="76">
         <v>43455</v>
       </c>
-      <c r="C13" s="84" t="str">
+      <c r="C13" s="76" t="str">
         <f>IF(WEEKDAY(B13,1)=1,"Monday","Thứ "&amp;WEEKDAY(B13,1))</f>
         <v>Thứ 6</v>
       </c>
-      <c r="D13" s="85">
+      <c r="D13" s="77">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="E13" s="86" t="s">
+      <c r="E13" s="78" t="s">
         <v>395</v>
       </c>
       <c r="F13" s="55"/>
@@ -3014,20 +3024,20 @@
       <c r="Z13" s="56"/>
     </row>
     <row r="14" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A14" s="96" t="s">
+      <c r="A14" s="88" t="s">
         <v>397</v>
       </c>
-      <c r="B14" s="84">
+      <c r="B14" s="76">
         <v>43455</v>
       </c>
-      <c r="C14" s="84" t="str">
+      <c r="C14" s="76" t="str">
         <f t="shared" ref="C14:C15" si="1">IF(WEEKDAY(B14,1)=1,"Chủ nhật","Thứ "&amp;WEEKDAY(B14,1))</f>
         <v>Thứ 6</v>
       </c>
-      <c r="D14" s="85">
+      <c r="D14" s="77">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="E14" s="86" t="s">
+      <c r="E14" s="78" t="s">
         <v>395</v>
       </c>
       <c r="F14" s="55"/>
@@ -3053,21 +3063,21 @@
       <c r="Z14" s="56"/>
     </row>
     <row r="15" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A15" s="96" t="s">
+      <c r="A15" s="88" t="s">
         <v>372</v>
       </c>
-      <c r="B15" s="98">
+      <c r="B15" s="92">
         <f>B14+1</f>
         <v>43456</v>
       </c>
-      <c r="C15" s="98" t="str">
+      <c r="C15" s="92" t="str">
         <f t="shared" si="1"/>
         <v>Thứ 7</v>
       </c>
-      <c r="D15" s="85">
+      <c r="D15" s="77">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="E15" s="86" t="s">
+      <c r="E15" s="78" t="s">
         <v>395</v>
       </c>
       <c r="F15" s="55"/>
@@ -3093,15 +3103,15 @@
       <c r="Z15" s="56"/>
     </row>
     <row r="16" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A16" s="96" t="s">
+      <c r="A16" s="88" t="s">
         <v>360</v>
       </c>
-      <c r="B16" s="99"/>
-      <c r="C16" s="99"/>
-      <c r="D16" s="85">
+      <c r="B16" s="93"/>
+      <c r="C16" s="93"/>
+      <c r="D16" s="77">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="E16" s="86" t="s">
+      <c r="E16" s="78" t="s">
         <v>395</v>
       </c>
       <c r="F16" s="55"/>
@@ -3127,15 +3137,15 @@
       <c r="Z16" s="56"/>
     </row>
     <row r="17" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A17" s="96" t="s">
+      <c r="A17" s="88" t="s">
         <v>361</v>
       </c>
-      <c r="B17" s="99"/>
-      <c r="C17" s="99"/>
-      <c r="D17" s="85">
+      <c r="B17" s="93"/>
+      <c r="C17" s="93"/>
+      <c r="D17" s="77">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="E17" s="86" t="s">
+      <c r="E17" s="78" t="s">
         <v>395</v>
       </c>
       <c r="F17" s="55"/>
@@ -3161,21 +3171,21 @@
       <c r="Z17" s="56"/>
     </row>
     <row r="18" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A18" s="96" t="s">
+      <c r="A18" s="88" t="s">
         <v>398</v>
       </c>
-      <c r="B18" s="84">
+      <c r="B18" s="76">
         <f>B13 + 2</f>
         <v>43457</v>
       </c>
-      <c r="C18" s="84" t="str">
+      <c r="C18" s="76" t="str">
         <f t="shared" ref="C18:C20" si="2">IF(WEEKDAY(B18,1)=1,"Chủ nhật","Thứ "&amp;WEEKDAY(B18,1))</f>
         <v>Chủ nhật</v>
       </c>
-      <c r="D18" s="85">
+      <c r="D18" s="77">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="E18" s="86" t="s">
+      <c r="E18" s="78" t="s">
         <v>395</v>
       </c>
       <c r="F18" s="55"/>
@@ -3201,21 +3211,21 @@
       <c r="Z18" s="56"/>
     </row>
     <row r="19" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A19" s="96" t="s">
+      <c r="A19" s="88" t="s">
         <v>399</v>
       </c>
-      <c r="B19" s="84">
+      <c r="B19" s="76">
         <f>B14 + 2</f>
         <v>43457</v>
       </c>
-      <c r="C19" s="84" t="str">
+      <c r="C19" s="76" t="str">
         <f t="shared" si="2"/>
         <v>Chủ nhật</v>
       </c>
-      <c r="D19" s="85">
+      <c r="D19" s="77">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="E19" s="86" t="s">
+      <c r="E19" s="78" t="s">
         <v>395</v>
       </c>
       <c r="F19" s="55"/>
@@ -3244,11 +3254,11 @@
       <c r="A20" s="73" t="s">
         <v>373</v>
       </c>
-      <c r="B20" s="76">
+      <c r="B20" s="90">
         <f>B19+1</f>
         <v>43458</v>
       </c>
-      <c r="C20" s="76" t="str">
+      <c r="C20" s="90" t="str">
         <f t="shared" si="2"/>
         <v>Thứ 2</v>
       </c>
@@ -3282,8 +3292,8 @@
       <c r="A21" s="74" t="s">
         <v>362</v>
       </c>
-      <c r="B21" s="77"/>
-      <c r="C21" s="77"/>
+      <c r="B21" s="91"/>
+      <c r="C21" s="91"/>
       <c r="D21" s="70">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -3314,8 +3324,8 @@
       <c r="A22" s="73" t="s">
         <v>363</v>
       </c>
-      <c r="B22" s="77"/>
-      <c r="C22" s="77"/>
+      <c r="B22" s="91"/>
+      <c r="C22" s="91"/>
       <c r="D22" s="70">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -3422,11 +3432,11 @@
       <c r="A25" s="73" t="s">
         <v>374</v>
       </c>
-      <c r="B25" s="76">
+      <c r="B25" s="90">
         <f>B24+1</f>
         <v>43460</v>
       </c>
-      <c r="C25" s="76" t="str">
+      <c r="C25" s="90" t="str">
         <f t="shared" si="3"/>
         <v>Thứ 4</v>
       </c>
@@ -3460,8 +3470,8 @@
       <c r="A26" s="73" t="s">
         <v>364</v>
       </c>
-      <c r="B26" s="77"/>
-      <c r="C26" s="77"/>
+      <c r="B26" s="91"/>
+      <c r="C26" s="91"/>
       <c r="D26" s="70">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -3492,8 +3502,8 @@
       <c r="A27" s="73" t="s">
         <v>365</v>
       </c>
-      <c r="B27" s="77"/>
-      <c r="C27" s="77"/>
+      <c r="B27" s="91"/>
+      <c r="C27" s="91"/>
       <c r="D27" s="70">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -3676,11 +3686,11 @@
       <c r="A32" s="73" t="s">
         <v>367</v>
       </c>
-      <c r="B32" s="76">
+      <c r="B32" s="90">
         <f>B31+1</f>
         <v>43463</v>
       </c>
-      <c r="C32" s="76" t="str">
+      <c r="C32" s="90" t="str">
         <f t="shared" si="4"/>
         <v>Thứ 7</v>
       </c>
@@ -3714,8 +3724,8 @@
       <c r="A33" s="73" t="s">
         <v>404</v>
       </c>
-      <c r="B33" s="77"/>
-      <c r="C33" s="77"/>
+      <c r="B33" s="91"/>
+      <c r="C33" s="91"/>
       <c r="D33" s="70">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -3746,8 +3756,8 @@
       <c r="A34" s="73" t="s">
         <v>405</v>
       </c>
-      <c r="B34" s="77"/>
-      <c r="C34" s="77"/>
+      <c r="B34" s="91"/>
+      <c r="C34" s="91"/>
       <c r="D34" s="70">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -3854,11 +3864,11 @@
       <c r="A37" s="73" t="s">
         <v>369</v>
       </c>
-      <c r="B37" s="76">
+      <c r="B37" s="90">
         <f>B36+1</f>
         <v>43465</v>
       </c>
-      <c r="C37" s="76" t="str">
+      <c r="C37" s="90" t="str">
         <f t="shared" si="6"/>
         <v>Thứ 2</v>
       </c>
@@ -3892,8 +3902,8 @@
       <c r="A38" s="73" t="s">
         <v>406</v>
       </c>
-      <c r="B38" s="77"/>
-      <c r="C38" s="77"/>
+      <c r="B38" s="91"/>
+      <c r="C38" s="91"/>
       <c r="D38" s="70">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -3924,8 +3934,8 @@
       <c r="A39" s="73" t="s">
         <v>407</v>
       </c>
-      <c r="B39" s="77"/>
-      <c r="C39" s="77"/>
+      <c r="B39" s="91"/>
+      <c r="C39" s="91"/>
       <c r="D39" s="70">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -4032,11 +4042,11 @@
       <c r="A42" s="73" t="s">
         <v>371</v>
       </c>
-      <c r="B42" s="76">
+      <c r="B42" s="90">
         <f>B36+3</f>
         <v>43467</v>
       </c>
-      <c r="C42" s="76" t="str">
+      <c r="C42" s="90" t="str">
         <f t="shared" si="7"/>
         <v>Thứ 4</v>
       </c>
@@ -4070,8 +4080,8 @@
       <c r="A43" s="73" t="s">
         <v>408</v>
       </c>
-      <c r="B43" s="77"/>
-      <c r="C43" s="77"/>
+      <c r="B43" s="91"/>
+      <c r="C43" s="91"/>
       <c r="D43" s="70">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -4102,8 +4112,8 @@
       <c r="A44" s="73" t="s">
         <v>409</v>
       </c>
-      <c r="B44" s="77"/>
-      <c r="C44" s="77"/>
+      <c r="B44" s="91"/>
+      <c r="C44" s="91"/>
       <c r="D44" s="70">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -31204,18 +31214,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="C42:C44"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="C37:C39"/>
     <mergeCell ref="B20:B22"/>
     <mergeCell ref="C20:C22"/>
     <mergeCell ref="B25:B27"/>
     <mergeCell ref="C25:C27"/>
     <mergeCell ref="B15:B17"/>
     <mergeCell ref="C15:C17"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="C42:C44"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="C32:C34"/>
-    <mergeCell ref="B37:B39"/>
-    <mergeCell ref="C37:C39"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E66" xr:uid="{D8B43D4D-3767-4D7F-B59B-D7BBE30CC025}">
@@ -31235,6 +31245,349 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C982353-CA8A-4388-8859-7413C89A9E50}">
+  <sheetPr codeName="Sheet5"/>
+  <dimension ref="A1:E26"/>
+  <sheetViews>
+    <sheetView topLeftCell="A19" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="M33" sqref="M33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="7"/>
+    <col min="2" max="2" width="65.85546875" style="7" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" style="7" customWidth="1"/>
+    <col min="4" max="4" width="38.85546875" style="7" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="7" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="25.5">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="8">
+        <v>1</v>
+      </c>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+    </row>
+    <row r="3" spans="1:5" ht="409.5">
+      <c r="A3" s="8">
+        <v>2</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="8"/>
+    </row>
+    <row r="4" spans="1:5" ht="60">
+      <c r="A4" s="8">
+        <v>3</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="8"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="8">
+        <v>4</v>
+      </c>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="8">
+        <v>5</v>
+      </c>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="8">
+        <v>6</v>
+      </c>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+    </row>
+    <row r="8" spans="1:5" ht="45">
+      <c r="A8" s="8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="93" customHeight="1">
+      <c r="A9" s="8">
+        <v>8</v>
+      </c>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="8">
+        <v>9</v>
+      </c>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+    </row>
+    <row r="11" spans="1:5" ht="165">
+      <c r="A11" s="8">
+        <v>10</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="8">
+        <v>11</v>
+      </c>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+    </row>
+    <row r="13" spans="1:5" ht="30">
+      <c r="A13" s="8">
+        <v>12</v>
+      </c>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="8"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="8">
+        <v>13</v>
+      </c>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+    </row>
+    <row r="15" spans="1:5" ht="30">
+      <c r="A15" s="8">
+        <v>14</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" s="8"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="8">
+        <v>15</v>
+      </c>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="8">
+        <v>16</v>
+      </c>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+    </row>
+    <row r="18" spans="1:5" ht="90">
+      <c r="A18" s="8">
+        <v>17</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E18" s="8"/>
+    </row>
+    <row r="19" spans="1:5" ht="30">
+      <c r="A19" s="8">
+        <v>18</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E19" s="8"/>
+    </row>
+    <row r="20" spans="1:5" ht="75">
+      <c r="A20" s="8">
+        <v>19</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="E20" s="8"/>
+    </row>
+    <row r="21" spans="1:5" ht="30">
+      <c r="A21" s="8">
+        <v>20</v>
+      </c>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="90">
+      <c r="A22" s="8">
+        <v>21</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="E22" s="8"/>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="8">
+        <v>22</v>
+      </c>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+    </row>
+    <row r="24" spans="1:5" ht="75">
+      <c r="A24" s="8">
+        <v>23</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="8">
+        <v>24</v>
+      </c>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="8">
+        <v>25</v>
+      </c>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C28" xr:uid="{527BEA14-3279-4F17-AA9E-BD8564CDD3E5}">
+      <formula1>"English,Knowledge Gaps,Emotion,Techniques"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB3E4B6E-32AB-4F9F-9656-4C5398F92691}">
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:L52"/>
@@ -32213,7 +32566,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAAC2793-45B1-4029-830E-35CE2386D9D1}">
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:J51"/>
@@ -33252,7 +33605,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0762741B-203C-43CC-95E6-55D0B96E24E3}">
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:F51"/>
@@ -33956,7 +34309,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66FFD739-AF93-4AA7-A2F1-3E80882A8922}">
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:F51"/>
@@ -34655,7 +35008,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{475F131D-CBCC-4B8F-BDF4-B1E2E34C7098}">
   <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:K9"/>
@@ -34670,152 +35023,152 @@
       <c r="A1" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="B1" s="78" t="s">
+      <c r="B1" s="94" t="s">
         <v>215</v>
       </c>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="80"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="95"/>
+      <c r="G1" s="95"/>
+      <c r="H1" s="95"/>
+      <c r="I1" s="95"/>
+      <c r="J1" s="95"/>
+      <c r="K1" s="96"/>
     </row>
     <row r="2" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A2" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="B2" s="78" t="s">
+      <c r="B2" s="94" t="s">
         <v>216</v>
       </c>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79"/>
-      <c r="H2" s="79"/>
-      <c r="I2" s="79"/>
-      <c r="J2" s="79"/>
-      <c r="K2" s="80"/>
+      <c r="C2" s="95"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="95"/>
+      <c r="F2" s="95"/>
+      <c r="G2" s="95"/>
+      <c r="H2" s="95"/>
+      <c r="I2" s="95"/>
+      <c r="J2" s="95"/>
+      <c r="K2" s="96"/>
     </row>
     <row r="3" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A3" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="B3" s="78" t="s">
+      <c r="B3" s="94" t="s">
         <v>217</v>
       </c>
-      <c r="C3" s="79"/>
-      <c r="D3" s="79"/>
-      <c r="E3" s="79"/>
-      <c r="F3" s="79"/>
-      <c r="G3" s="79"/>
-      <c r="H3" s="79"/>
-      <c r="I3" s="79"/>
-      <c r="J3" s="79"/>
-      <c r="K3" s="80"/>
+      <c r="C3" s="95"/>
+      <c r="D3" s="95"/>
+      <c r="E3" s="95"/>
+      <c r="F3" s="95"/>
+      <c r="G3" s="95"/>
+      <c r="H3" s="95"/>
+      <c r="I3" s="95"/>
+      <c r="J3" s="95"/>
+      <c r="K3" s="96"/>
     </row>
     <row r="4" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A4" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="B4" s="78" t="s">
+      <c r="B4" s="94" t="s">
         <v>218</v>
       </c>
-      <c r="C4" s="79"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="79"/>
-      <c r="G4" s="79"/>
-      <c r="H4" s="79"/>
-      <c r="I4" s="79"/>
-      <c r="J4" s="79"/>
-      <c r="K4" s="80"/>
+      <c r="C4" s="95"/>
+      <c r="D4" s="95"/>
+      <c r="E4" s="95"/>
+      <c r="F4" s="95"/>
+      <c r="G4" s="95"/>
+      <c r="H4" s="95"/>
+      <c r="I4" s="95"/>
+      <c r="J4" s="95"/>
+      <c r="K4" s="96"/>
     </row>
     <row r="5" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A5" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="B5" s="78" t="s">
+      <c r="B5" s="94" t="s">
         <v>219</v>
       </c>
-      <c r="C5" s="79"/>
-      <c r="D5" s="79"/>
-      <c r="E5" s="79"/>
-      <c r="F5" s="79"/>
-      <c r="G5" s="79"/>
-      <c r="H5" s="79"/>
-      <c r="I5" s="79"/>
-      <c r="J5" s="79"/>
-      <c r="K5" s="80"/>
+      <c r="C5" s="95"/>
+      <c r="D5" s="95"/>
+      <c r="E5" s="95"/>
+      <c r="F5" s="95"/>
+      <c r="G5" s="95"/>
+      <c r="H5" s="95"/>
+      <c r="I5" s="95"/>
+      <c r="J5" s="95"/>
+      <c r="K5" s="96"/>
     </row>
     <row r="6" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A6" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="B6" s="78" t="s">
+      <c r="B6" s="94" t="s">
         <v>220</v>
       </c>
-      <c r="C6" s="79"/>
-      <c r="D6" s="79"/>
-      <c r="E6" s="79"/>
-      <c r="F6" s="79"/>
-      <c r="G6" s="79"/>
-      <c r="H6" s="79"/>
-      <c r="I6" s="79"/>
-      <c r="J6" s="79"/>
-      <c r="K6" s="80"/>
+      <c r="C6" s="95"/>
+      <c r="D6" s="95"/>
+      <c r="E6" s="95"/>
+      <c r="F6" s="95"/>
+      <c r="G6" s="95"/>
+      <c r="H6" s="95"/>
+      <c r="I6" s="95"/>
+      <c r="J6" s="95"/>
+      <c r="K6" s="96"/>
     </row>
     <row r="7" spans="1:11" ht="30" customHeight="1" thickBot="1">
       <c r="A7" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="B7" s="78" t="s">
+      <c r="B7" s="94" t="s">
         <v>221</v>
       </c>
-      <c r="C7" s="79"/>
-      <c r="D7" s="79"/>
-      <c r="E7" s="79"/>
-      <c r="F7" s="79"/>
-      <c r="G7" s="79"/>
-      <c r="H7" s="79"/>
-      <c r="I7" s="79"/>
-      <c r="J7" s="79"/>
-      <c r="K7" s="80"/>
+      <c r="C7" s="95"/>
+      <c r="D7" s="95"/>
+      <c r="E7" s="95"/>
+      <c r="F7" s="95"/>
+      <c r="G7" s="95"/>
+      <c r="H7" s="95"/>
+      <c r="I7" s="95"/>
+      <c r="J7" s="95"/>
+      <c r="K7" s="96"/>
     </row>
     <row r="8" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A8" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="B8" s="78" t="s">
+      <c r="B8" s="94" t="s">
         <v>222</v>
       </c>
-      <c r="C8" s="79"/>
-      <c r="D8" s="79"/>
-      <c r="E8" s="79"/>
-      <c r="F8" s="79"/>
-      <c r="G8" s="79"/>
-      <c r="H8" s="79"/>
-      <c r="I8" s="79"/>
-      <c r="J8" s="79"/>
-      <c r="K8" s="80"/>
+      <c r="C8" s="95"/>
+      <c r="D8" s="95"/>
+      <c r="E8" s="95"/>
+      <c r="F8" s="95"/>
+      <c r="G8" s="95"/>
+      <c r="H8" s="95"/>
+      <c r="I8" s="95"/>
+      <c r="J8" s="95"/>
+      <c r="K8" s="96"/>
     </row>
     <row r="9" spans="1:11" ht="99.75" customHeight="1" thickBot="1">
       <c r="A9" s="10"/>
-      <c r="B9" s="81" t="s">
+      <c r="B9" s="97" t="s">
         <v>223</v>
       </c>
-      <c r="C9" s="82"/>
-      <c r="D9" s="82"/>
-      <c r="E9" s="82"/>
-      <c r="F9" s="82"/>
-      <c r="G9" s="82"/>
-      <c r="H9" s="82"/>
-      <c r="I9" s="82"/>
-      <c r="J9" s="82"/>
-      <c r="K9" s="83"/>
+      <c r="C9" s="98"/>
+      <c r="D9" s="98"/>
+      <c r="E9" s="98"/>
+      <c r="F9" s="98"/>
+      <c r="G9" s="98"/>
+      <c r="H9" s="98"/>
+      <c r="I9" s="98"/>
+      <c r="J9" s="98"/>
+      <c r="K9" s="99"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -34833,7 +35186,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69E6B415-86AF-44A1-9A0F-E640C770D3EB}">
   <sheetPr codeName="Sheet11"/>
   <dimension ref="A1:K13"/>
@@ -34848,225 +35201,231 @@
       <c r="A1" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="B1" s="78" t="s">
+      <c r="B1" s="94" t="s">
         <v>127</v>
       </c>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="80"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="95"/>
+      <c r="G1" s="95"/>
+      <c r="H1" s="95"/>
+      <c r="I1" s="95"/>
+      <c r="J1" s="95"/>
+      <c r="K1" s="96"/>
     </row>
     <row r="2" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A2" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="B2" s="78" t="s">
+      <c r="B2" s="94" t="s">
         <v>129</v>
       </c>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79"/>
-      <c r="H2" s="79"/>
-      <c r="I2" s="79"/>
-      <c r="J2" s="79"/>
-      <c r="K2" s="80"/>
+      <c r="C2" s="95"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="95"/>
+      <c r="F2" s="95"/>
+      <c r="G2" s="95"/>
+      <c r="H2" s="95"/>
+      <c r="I2" s="95"/>
+      <c r="J2" s="95"/>
+      <c r="K2" s="96"/>
     </row>
     <row r="3" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A3" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="B3" s="78" t="s">
+      <c r="B3" s="94" t="s">
         <v>131</v>
       </c>
-      <c r="C3" s="79"/>
-      <c r="D3" s="79"/>
-      <c r="E3" s="79"/>
-      <c r="F3" s="79"/>
-      <c r="G3" s="79"/>
-      <c r="H3" s="79"/>
-      <c r="I3" s="79"/>
-      <c r="J3" s="79"/>
-      <c r="K3" s="80"/>
+      <c r="C3" s="95"/>
+      <c r="D3" s="95"/>
+      <c r="E3" s="95"/>
+      <c r="F3" s="95"/>
+      <c r="G3" s="95"/>
+      <c r="H3" s="95"/>
+      <c r="I3" s="95"/>
+      <c r="J3" s="95"/>
+      <c r="K3" s="96"/>
     </row>
     <row r="4" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A4" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="B4" s="78" t="s">
+      <c r="B4" s="94" t="s">
         <v>133</v>
       </c>
-      <c r="C4" s="79"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="79"/>
-      <c r="G4" s="79"/>
-      <c r="H4" s="79"/>
-      <c r="I4" s="79"/>
-      <c r="J4" s="79"/>
-      <c r="K4" s="80"/>
+      <c r="C4" s="95"/>
+      <c r="D4" s="95"/>
+      <c r="E4" s="95"/>
+      <c r="F4" s="95"/>
+      <c r="G4" s="95"/>
+      <c r="H4" s="95"/>
+      <c r="I4" s="95"/>
+      <c r="J4" s="95"/>
+      <c r="K4" s="96"/>
     </row>
     <row r="5" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A5" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="B5" s="78" t="s">
+      <c r="B5" s="94" t="s">
         <v>135</v>
       </c>
-      <c r="C5" s="79"/>
-      <c r="D5" s="79"/>
-      <c r="E5" s="79"/>
-      <c r="F5" s="79"/>
-      <c r="G5" s="79"/>
-      <c r="H5" s="79"/>
-      <c r="I5" s="79"/>
-      <c r="J5" s="79"/>
-      <c r="K5" s="80"/>
+      <c r="C5" s="95"/>
+      <c r="D5" s="95"/>
+      <c r="E5" s="95"/>
+      <c r="F5" s="95"/>
+      <c r="G5" s="95"/>
+      <c r="H5" s="95"/>
+      <c r="I5" s="95"/>
+      <c r="J5" s="95"/>
+      <c r="K5" s="96"/>
     </row>
     <row r="6" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A6" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="B6" s="78" t="s">
+      <c r="B6" s="94" t="s">
         <v>137</v>
       </c>
-      <c r="C6" s="79"/>
-      <c r="D6" s="79"/>
-      <c r="E6" s="79"/>
-      <c r="F6" s="79"/>
-      <c r="G6" s="79"/>
-      <c r="H6" s="79"/>
-      <c r="I6" s="79"/>
-      <c r="J6" s="79"/>
-      <c r="K6" s="80"/>
+      <c r="C6" s="95"/>
+      <c r="D6" s="95"/>
+      <c r="E6" s="95"/>
+      <c r="F6" s="95"/>
+      <c r="G6" s="95"/>
+      <c r="H6" s="95"/>
+      <c r="I6" s="95"/>
+      <c r="J6" s="95"/>
+      <c r="K6" s="96"/>
     </row>
     <row r="7" spans="1:11" ht="30" customHeight="1" thickBot="1">
       <c r="A7" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="B7" s="78" t="s">
+      <c r="B7" s="94" t="s">
         <v>139</v>
       </c>
-      <c r="C7" s="79"/>
-      <c r="D7" s="79"/>
-      <c r="E7" s="79"/>
-      <c r="F7" s="79"/>
-      <c r="G7" s="79"/>
-      <c r="H7" s="79"/>
-      <c r="I7" s="79"/>
-      <c r="J7" s="79"/>
-      <c r="K7" s="80"/>
+      <c r="C7" s="95"/>
+      <c r="D7" s="95"/>
+      <c r="E7" s="95"/>
+      <c r="F7" s="95"/>
+      <c r="G7" s="95"/>
+      <c r="H7" s="95"/>
+      <c r="I7" s="95"/>
+      <c r="J7" s="95"/>
+      <c r="K7" s="96"/>
     </row>
     <row r="8" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A8" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="B8" s="78" t="s">
+      <c r="B8" s="94" t="s">
         <v>141</v>
       </c>
-      <c r="C8" s="79"/>
-      <c r="D8" s="79"/>
-      <c r="E8" s="79"/>
-      <c r="F8" s="79"/>
-      <c r="G8" s="79"/>
-      <c r="H8" s="79"/>
-      <c r="I8" s="79"/>
-      <c r="J8" s="79"/>
-      <c r="K8" s="80"/>
+      <c r="C8" s="95"/>
+      <c r="D8" s="95"/>
+      <c r="E8" s="95"/>
+      <c r="F8" s="95"/>
+      <c r="G8" s="95"/>
+      <c r="H8" s="95"/>
+      <c r="I8" s="95"/>
+      <c r="J8" s="95"/>
+      <c r="K8" s="96"/>
     </row>
     <row r="9" spans="1:11" ht="30" customHeight="1" thickBot="1">
       <c r="A9" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="B9" s="78" t="s">
+      <c r="B9" s="94" t="s">
         <v>143</v>
       </c>
-      <c r="C9" s="79"/>
-      <c r="D9" s="79"/>
-      <c r="E9" s="79"/>
-      <c r="F9" s="79"/>
-      <c r="G9" s="79"/>
-      <c r="H9" s="79"/>
-      <c r="I9" s="79"/>
-      <c r="J9" s="79"/>
-      <c r="K9" s="80"/>
+      <c r="C9" s="95"/>
+      <c r="D9" s="95"/>
+      <c r="E9" s="95"/>
+      <c r="F9" s="95"/>
+      <c r="G9" s="95"/>
+      <c r="H9" s="95"/>
+      <c r="I9" s="95"/>
+      <c r="J9" s="95"/>
+      <c r="K9" s="96"/>
     </row>
     <row r="10" spans="1:11" ht="60" customHeight="1" thickBot="1">
       <c r="A10" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="B10" s="78" t="s">
+      <c r="B10" s="94" t="s">
         <v>145</v>
       </c>
-      <c r="C10" s="79"/>
-      <c r="D10" s="79"/>
-      <c r="E10" s="79"/>
-      <c r="F10" s="79"/>
-      <c r="G10" s="79"/>
-      <c r="H10" s="79"/>
-      <c r="I10" s="79"/>
-      <c r="J10" s="79"/>
-      <c r="K10" s="80"/>
+      <c r="C10" s="95"/>
+      <c r="D10" s="95"/>
+      <c r="E10" s="95"/>
+      <c r="F10" s="95"/>
+      <c r="G10" s="95"/>
+      <c r="H10" s="95"/>
+      <c r="I10" s="95"/>
+      <c r="J10" s="95"/>
+      <c r="K10" s="96"/>
     </row>
     <row r="11" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A11" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="B11" s="78" t="s">
+      <c r="B11" s="94" t="s">
         <v>147</v>
       </c>
-      <c r="C11" s="79"/>
-      <c r="D11" s="79"/>
-      <c r="E11" s="79"/>
-      <c r="F11" s="79"/>
-      <c r="G11" s="79"/>
-      <c r="H11" s="79"/>
-      <c r="I11" s="79"/>
-      <c r="J11" s="79"/>
-      <c r="K11" s="80"/>
+      <c r="C11" s="95"/>
+      <c r="D11" s="95"/>
+      <c r="E11" s="95"/>
+      <c r="F11" s="95"/>
+      <c r="G11" s="95"/>
+      <c r="H11" s="95"/>
+      <c r="I11" s="95"/>
+      <c r="J11" s="95"/>
+      <c r="K11" s="96"/>
     </row>
     <row r="12" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A12" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="B12" s="78" t="s">
+      <c r="B12" s="94" t="s">
         <v>149</v>
       </c>
-      <c r="C12" s="79"/>
-      <c r="D12" s="79"/>
-      <c r="E12" s="79"/>
-      <c r="F12" s="79"/>
-      <c r="G12" s="79"/>
-      <c r="H12" s="79"/>
-      <c r="I12" s="79"/>
-      <c r="J12" s="79"/>
-      <c r="K12" s="80"/>
+      <c r="C12" s="95"/>
+      <c r="D12" s="95"/>
+      <c r="E12" s="95"/>
+      <c r="F12" s="95"/>
+      <c r="G12" s="95"/>
+      <c r="H12" s="95"/>
+      <c r="I12" s="95"/>
+      <c r="J12" s="95"/>
+      <c r="K12" s="96"/>
     </row>
     <row r="13" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A13" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="B13" s="78" t="s">
+      <c r="B13" s="94" t="s">
         <v>151</v>
       </c>
-      <c r="C13" s="79"/>
-      <c r="D13" s="79"/>
-      <c r="E13" s="79"/>
-      <c r="F13" s="79"/>
-      <c r="G13" s="79"/>
-      <c r="H13" s="79"/>
-      <c r="I13" s="79"/>
-      <c r="J13" s="79"/>
-      <c r="K13" s="80"/>
+      <c r="C13" s="95"/>
+      <c r="D13" s="95"/>
+      <c r="E13" s="95"/>
+      <c r="F13" s="95"/>
+      <c r="G13" s="95"/>
+      <c r="H13" s="95"/>
+      <c r="I13" s="95"/>
+      <c r="J13" s="95"/>
+      <c r="K13" s="96"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B6:K6"/>
+    <mergeCell ref="B1:K1"/>
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="B3:K3"/>
+    <mergeCell ref="B4:K4"/>
+    <mergeCell ref="B5:K5"/>
     <mergeCell ref="B13:K13"/>
     <mergeCell ref="B7:K7"/>
     <mergeCell ref="B8:K8"/>
@@ -35074,18 +35433,12 @@
     <mergeCell ref="B10:K10"/>
     <mergeCell ref="B11:K11"/>
     <mergeCell ref="B12:K12"/>
-    <mergeCell ref="B6:K6"/>
-    <mergeCell ref="B1:K1"/>
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="B3:K3"/>
-    <mergeCell ref="B4:K4"/>
-    <mergeCell ref="B5:K5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98E3A676-4755-49BB-A0B9-3FC0BA4B80B3}">
   <sheetPr codeName="Sheet12"/>
   <dimension ref="A1:K7"/>
@@ -35098,265 +35451,120 @@
       <c r="A1" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="B1" s="78" t="s">
+      <c r="B1" s="94" t="s">
         <v>152</v>
       </c>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="80"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="95"/>
+      <c r="G1" s="95"/>
+      <c r="H1" s="95"/>
+      <c r="I1" s="95"/>
+      <c r="J1" s="95"/>
+      <c r="K1" s="96"/>
     </row>
     <row r="2" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A2" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="B2" s="78" t="s">
+      <c r="B2" s="94" t="s">
         <v>153</v>
       </c>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79"/>
-      <c r="H2" s="79"/>
-      <c r="I2" s="79"/>
-      <c r="J2" s="79"/>
-      <c r="K2" s="80"/>
+      <c r="C2" s="95"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="95"/>
+      <c r="F2" s="95"/>
+      <c r="G2" s="95"/>
+      <c r="H2" s="95"/>
+      <c r="I2" s="95"/>
+      <c r="J2" s="95"/>
+      <c r="K2" s="96"/>
     </row>
     <row r="3" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A3" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="B3" s="78" t="s">
+      <c r="B3" s="94" t="s">
         <v>154</v>
       </c>
-      <c r="C3" s="79"/>
-      <c r="D3" s="79"/>
-      <c r="E3" s="79"/>
-      <c r="F3" s="79"/>
-      <c r="G3" s="79"/>
-      <c r="H3" s="79"/>
-      <c r="I3" s="79"/>
-      <c r="J3" s="79"/>
-      <c r="K3" s="80"/>
+      <c r="C3" s="95"/>
+      <c r="D3" s="95"/>
+      <c r="E3" s="95"/>
+      <c r="F3" s="95"/>
+      <c r="G3" s="95"/>
+      <c r="H3" s="95"/>
+      <c r="I3" s="95"/>
+      <c r="J3" s="95"/>
+      <c r="K3" s="96"/>
     </row>
     <row r="4" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A4" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="B4" s="78" t="s">
+      <c r="B4" s="94" t="s">
         <v>158</v>
       </c>
-      <c r="C4" s="79"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="79"/>
-      <c r="G4" s="79"/>
-      <c r="H4" s="79"/>
-      <c r="I4" s="79"/>
-      <c r="J4" s="79"/>
-      <c r="K4" s="80"/>
+      <c r="C4" s="95"/>
+      <c r="D4" s="95"/>
+      <c r="E4" s="95"/>
+      <c r="F4" s="95"/>
+      <c r="G4" s="95"/>
+      <c r="H4" s="95"/>
+      <c r="I4" s="95"/>
+      <c r="J4" s="95"/>
+      <c r="K4" s="96"/>
     </row>
     <row r="5" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A5" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="B5" s="78" t="s">
+      <c r="B5" s="94" t="s">
         <v>155</v>
       </c>
-      <c r="C5" s="79"/>
-      <c r="D5" s="79"/>
-      <c r="E5" s="79"/>
-      <c r="F5" s="79"/>
-      <c r="G5" s="79"/>
-      <c r="H5" s="79"/>
-      <c r="I5" s="79"/>
-      <c r="J5" s="79"/>
-      <c r="K5" s="80"/>
+      <c r="C5" s="95"/>
+      <c r="D5" s="95"/>
+      <c r="E5" s="95"/>
+      <c r="F5" s="95"/>
+      <c r="G5" s="95"/>
+      <c r="H5" s="95"/>
+      <c r="I5" s="95"/>
+      <c r="J5" s="95"/>
+      <c r="K5" s="96"/>
     </row>
     <row r="6" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A6" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="B6" s="78" t="s">
+      <c r="B6" s="94" t="s">
         <v>156</v>
       </c>
-      <c r="C6" s="79"/>
-      <c r="D6" s="79"/>
-      <c r="E6" s="79"/>
-      <c r="F6" s="79"/>
-      <c r="G6" s="79"/>
-      <c r="H6" s="79"/>
-      <c r="I6" s="79"/>
-      <c r="J6" s="79"/>
-      <c r="K6" s="80"/>
+      <c r="C6" s="95"/>
+      <c r="D6" s="95"/>
+      <c r="E6" s="95"/>
+      <c r="F6" s="95"/>
+      <c r="G6" s="95"/>
+      <c r="H6" s="95"/>
+      <c r="I6" s="95"/>
+      <c r="J6" s="95"/>
+      <c r="K6" s="96"/>
     </row>
     <row r="7" spans="1:11" ht="30" customHeight="1" thickBot="1">
       <c r="A7" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="B7" s="78" t="s">
+      <c r="B7" s="94" t="s">
         <v>157</v>
       </c>
-      <c r="C7" s="79"/>
-      <c r="D7" s="79"/>
-      <c r="E7" s="79"/>
-      <c r="F7" s="79"/>
-      <c r="G7" s="79"/>
-      <c r="H7" s="79"/>
-      <c r="I7" s="79"/>
-      <c r="J7" s="79"/>
-      <c r="K7" s="80"/>
-    </row>
-  </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="B7:K7"/>
-    <mergeCell ref="B1:K1"/>
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="B3:K3"/>
-    <mergeCell ref="B4:K4"/>
-    <mergeCell ref="B5:K5"/>
-    <mergeCell ref="B6:K6"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B4D9506-FE81-4C50-86CB-42DFDE5F4697}">
-  <sheetPr codeName="Sheet13"/>
-  <dimension ref="A1:K7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N12" sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:11" ht="45" customHeight="1" thickBot="1">
-      <c r="A1" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="B1" s="78" t="s">
-        <v>159</v>
-      </c>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="80"/>
-    </row>
-    <row r="2" spans="1:11" ht="45" customHeight="1" thickBot="1">
-      <c r="A2" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="B2" s="78" t="s">
-        <v>160</v>
-      </c>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79"/>
-      <c r="H2" s="79"/>
-      <c r="I2" s="79"/>
-      <c r="J2" s="79"/>
-      <c r="K2" s="80"/>
-    </row>
-    <row r="3" spans="1:11" ht="45" customHeight="1" thickBot="1">
-      <c r="A3" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="B3" s="78" t="s">
-        <v>161</v>
-      </c>
-      <c r="C3" s="79"/>
-      <c r="D3" s="79"/>
-      <c r="E3" s="79"/>
-      <c r="F3" s="79"/>
-      <c r="G3" s="79"/>
-      <c r="H3" s="79"/>
-      <c r="I3" s="79"/>
-      <c r="J3" s="79"/>
-      <c r="K3" s="80"/>
-    </row>
-    <row r="4" spans="1:11" ht="45" customHeight="1" thickBot="1">
-      <c r="A4" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="B4" s="78" t="s">
-        <v>162</v>
-      </c>
-      <c r="C4" s="79"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="79"/>
-      <c r="G4" s="79"/>
-      <c r="H4" s="79"/>
-      <c r="I4" s="79"/>
-      <c r="J4" s="79"/>
-      <c r="K4" s="80"/>
-    </row>
-    <row r="5" spans="1:11" ht="45" customHeight="1" thickBot="1">
-      <c r="A5" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="B5" s="78" t="s">
-        <v>163</v>
-      </c>
-      <c r="C5" s="79"/>
-      <c r="D5" s="79"/>
-      <c r="E5" s="79"/>
-      <c r="F5" s="79"/>
-      <c r="G5" s="79"/>
-      <c r="H5" s="79"/>
-      <c r="I5" s="79"/>
-      <c r="J5" s="79"/>
-      <c r="K5" s="80"/>
-    </row>
-    <row r="6" spans="1:11" ht="45" customHeight="1" thickBot="1">
-      <c r="A6" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="B6" s="78" t="s">
-        <v>164</v>
-      </c>
-      <c r="C6" s="79"/>
-      <c r="D6" s="79"/>
-      <c r="E6" s="79"/>
-      <c r="F6" s="79"/>
-      <c r="G6" s="79"/>
-      <c r="H6" s="79"/>
-      <c r="I6" s="79"/>
-      <c r="J6" s="79"/>
-      <c r="K6" s="80"/>
-    </row>
-    <row r="7" spans="1:11" ht="30" customHeight="1" thickBot="1">
-      <c r="A7" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="B7" s="78" t="s">
-        <v>165</v>
-      </c>
-      <c r="C7" s="79"/>
-      <c r="D7" s="79"/>
-      <c r="E7" s="79"/>
-      <c r="F7" s="79"/>
-      <c r="G7" s="79"/>
-      <c r="H7" s="79"/>
-      <c r="I7" s="79"/>
-      <c r="J7" s="79"/>
-      <c r="K7" s="80"/>
+      <c r="C7" s="95"/>
+      <c r="D7" s="95"/>
+      <c r="E7" s="95"/>
+      <c r="F7" s="95"/>
+      <c r="G7" s="95"/>
+      <c r="H7" s="95"/>
+      <c r="I7" s="95"/>
+      <c r="J7" s="95"/>
+      <c r="K7" s="96"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -35374,6 +35582,151 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B4D9506-FE81-4C50-86CB-42DFDE5F4697}">
+  <sheetPr codeName="Sheet13"/>
+  <dimension ref="A1:K7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N12" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:11" ht="45" customHeight="1" thickBot="1">
+      <c r="A1" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="B1" s="94" t="s">
+        <v>159</v>
+      </c>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="95"/>
+      <c r="G1" s="95"/>
+      <c r="H1" s="95"/>
+      <c r="I1" s="95"/>
+      <c r="J1" s="95"/>
+      <c r="K1" s="96"/>
+    </row>
+    <row r="2" spans="1:11" ht="45" customHeight="1" thickBot="1">
+      <c r="A2" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="B2" s="94" t="s">
+        <v>160</v>
+      </c>
+      <c r="C2" s="95"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="95"/>
+      <c r="F2" s="95"/>
+      <c r="G2" s="95"/>
+      <c r="H2" s="95"/>
+      <c r="I2" s="95"/>
+      <c r="J2" s="95"/>
+      <c r="K2" s="96"/>
+    </row>
+    <row r="3" spans="1:11" ht="45" customHeight="1" thickBot="1">
+      <c r="A3" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="B3" s="94" t="s">
+        <v>161</v>
+      </c>
+      <c r="C3" s="95"/>
+      <c r="D3" s="95"/>
+      <c r="E3" s="95"/>
+      <c r="F3" s="95"/>
+      <c r="G3" s="95"/>
+      <c r="H3" s="95"/>
+      <c r="I3" s="95"/>
+      <c r="J3" s="95"/>
+      <c r="K3" s="96"/>
+    </row>
+    <row r="4" spans="1:11" ht="45" customHeight="1" thickBot="1">
+      <c r="A4" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="B4" s="94" t="s">
+        <v>162</v>
+      </c>
+      <c r="C4" s="95"/>
+      <c r="D4" s="95"/>
+      <c r="E4" s="95"/>
+      <c r="F4" s="95"/>
+      <c r="G4" s="95"/>
+      <c r="H4" s="95"/>
+      <c r="I4" s="95"/>
+      <c r="J4" s="95"/>
+      <c r="K4" s="96"/>
+    </row>
+    <row r="5" spans="1:11" ht="45" customHeight="1" thickBot="1">
+      <c r="A5" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="B5" s="94" t="s">
+        <v>163</v>
+      </c>
+      <c r="C5" s="95"/>
+      <c r="D5" s="95"/>
+      <c r="E5" s="95"/>
+      <c r="F5" s="95"/>
+      <c r="G5" s="95"/>
+      <c r="H5" s="95"/>
+      <c r="I5" s="95"/>
+      <c r="J5" s="95"/>
+      <c r="K5" s="96"/>
+    </row>
+    <row r="6" spans="1:11" ht="45" customHeight="1" thickBot="1">
+      <c r="A6" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="B6" s="94" t="s">
+        <v>164</v>
+      </c>
+      <c r="C6" s="95"/>
+      <c r="D6" s="95"/>
+      <c r="E6" s="95"/>
+      <c r="F6" s="95"/>
+      <c r="G6" s="95"/>
+      <c r="H6" s="95"/>
+      <c r="I6" s="95"/>
+      <c r="J6" s="95"/>
+      <c r="K6" s="96"/>
+    </row>
+    <row r="7" spans="1:11" ht="30" customHeight="1" thickBot="1">
+      <c r="A7" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="B7" s="94" t="s">
+        <v>165</v>
+      </c>
+      <c r="C7" s="95"/>
+      <c r="D7" s="95"/>
+      <c r="E7" s="95"/>
+      <c r="F7" s="95"/>
+      <c r="G7" s="95"/>
+      <c r="H7" s="95"/>
+      <c r="I7" s="95"/>
+      <c r="J7" s="95"/>
+      <c r="K7" s="96"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="B7:K7"/>
+    <mergeCell ref="B1:K1"/>
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="B3:K3"/>
+    <mergeCell ref="B4:K4"/>
+    <mergeCell ref="B5:K5"/>
+    <mergeCell ref="B6:K6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DFC2900-1516-4D11-BB5E-CB91221B0668}">
   <sheetPr codeName="Sheet14"/>
   <dimension ref="A1:K8"/>
@@ -35388,135 +35741,135 @@
       <c r="A1" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="B1" s="78" t="s">
+      <c r="B1" s="94" t="s">
         <v>224</v>
       </c>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="80"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="95"/>
+      <c r="G1" s="95"/>
+      <c r="H1" s="95"/>
+      <c r="I1" s="95"/>
+      <c r="J1" s="95"/>
+      <c r="K1" s="96"/>
     </row>
     <row r="2" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A2" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="B2" s="78" t="s">
+      <c r="B2" s="94" t="s">
         <v>225</v>
       </c>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79"/>
-      <c r="H2" s="79"/>
-      <c r="I2" s="79"/>
-      <c r="J2" s="79"/>
-      <c r="K2" s="80"/>
+      <c r="C2" s="95"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="95"/>
+      <c r="F2" s="95"/>
+      <c r="G2" s="95"/>
+      <c r="H2" s="95"/>
+      <c r="I2" s="95"/>
+      <c r="J2" s="95"/>
+      <c r="K2" s="96"/>
     </row>
     <row r="3" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A3" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="B3" s="78" t="s">
+      <c r="B3" s="94" t="s">
         <v>226</v>
       </c>
-      <c r="C3" s="79"/>
-      <c r="D3" s="79"/>
-      <c r="E3" s="79"/>
-      <c r="F3" s="79"/>
-      <c r="G3" s="79"/>
-      <c r="H3" s="79"/>
-      <c r="I3" s="79"/>
-      <c r="J3" s="79"/>
-      <c r="K3" s="80"/>
+      <c r="C3" s="95"/>
+      <c r="D3" s="95"/>
+      <c r="E3" s="95"/>
+      <c r="F3" s="95"/>
+      <c r="G3" s="95"/>
+      <c r="H3" s="95"/>
+      <c r="I3" s="95"/>
+      <c r="J3" s="95"/>
+      <c r="K3" s="96"/>
     </row>
     <row r="4" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A4" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="B4" s="78" t="s">
+      <c r="B4" s="94" t="s">
         <v>227</v>
       </c>
-      <c r="C4" s="79"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="79"/>
-      <c r="G4" s="79"/>
-      <c r="H4" s="79"/>
-      <c r="I4" s="79"/>
-      <c r="J4" s="79"/>
-      <c r="K4" s="80"/>
+      <c r="C4" s="95"/>
+      <c r="D4" s="95"/>
+      <c r="E4" s="95"/>
+      <c r="F4" s="95"/>
+      <c r="G4" s="95"/>
+      <c r="H4" s="95"/>
+      <c r="I4" s="95"/>
+      <c r="J4" s="95"/>
+      <c r="K4" s="96"/>
     </row>
     <row r="5" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A5" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="B5" s="78" t="s">
+      <c r="B5" s="94" t="s">
         <v>228</v>
       </c>
-      <c r="C5" s="79"/>
-      <c r="D5" s="79"/>
-      <c r="E5" s="79"/>
-      <c r="F5" s="79"/>
-      <c r="G5" s="79"/>
-      <c r="H5" s="79"/>
-      <c r="I5" s="79"/>
-      <c r="J5" s="79"/>
-      <c r="K5" s="80"/>
+      <c r="C5" s="95"/>
+      <c r="D5" s="95"/>
+      <c r="E5" s="95"/>
+      <c r="F5" s="95"/>
+      <c r="G5" s="95"/>
+      <c r="H5" s="95"/>
+      <c r="I5" s="95"/>
+      <c r="J5" s="95"/>
+      <c r="K5" s="96"/>
     </row>
     <row r="6" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A6" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="B6" s="78" t="s">
+      <c r="B6" s="94" t="s">
         <v>229</v>
       </c>
-      <c r="C6" s="79"/>
-      <c r="D6" s="79"/>
-      <c r="E6" s="79"/>
-      <c r="F6" s="79"/>
-      <c r="G6" s="79"/>
-      <c r="H6" s="79"/>
-      <c r="I6" s="79"/>
-      <c r="J6" s="79"/>
-      <c r="K6" s="80"/>
+      <c r="C6" s="95"/>
+      <c r="D6" s="95"/>
+      <c r="E6" s="95"/>
+      <c r="F6" s="95"/>
+      <c r="G6" s="95"/>
+      <c r="H6" s="95"/>
+      <c r="I6" s="95"/>
+      <c r="J6" s="95"/>
+      <c r="K6" s="96"/>
     </row>
     <row r="7" spans="1:11" ht="30" customHeight="1" thickBot="1">
       <c r="A7" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="B7" s="78" t="s">
+      <c r="B7" s="94" t="s">
         <v>230</v>
       </c>
-      <c r="C7" s="79"/>
-      <c r="D7" s="79"/>
-      <c r="E7" s="79"/>
-      <c r="F7" s="79"/>
-      <c r="G7" s="79"/>
-      <c r="H7" s="79"/>
-      <c r="I7" s="79"/>
-      <c r="J7" s="79"/>
-      <c r="K7" s="80"/>
+      <c r="C7" s="95"/>
+      <c r="D7" s="95"/>
+      <c r="E7" s="95"/>
+      <c r="F7" s="95"/>
+      <c r="G7" s="95"/>
+      <c r="H7" s="95"/>
+      <c r="I7" s="95"/>
+      <c r="J7" s="95"/>
+      <c r="K7" s="96"/>
     </row>
     <row r="8" spans="1:11" ht="150.75" customHeight="1" thickBot="1">
       <c r="A8" s="10"/>
-      <c r="B8" s="81" t="s">
+      <c r="B8" s="97" t="s">
         <v>231</v>
       </c>
-      <c r="C8" s="82"/>
-      <c r="D8" s="82"/>
-      <c r="E8" s="82"/>
-      <c r="F8" s="82"/>
-      <c r="G8" s="82"/>
-      <c r="H8" s="82"/>
-      <c r="I8" s="82"/>
-      <c r="J8" s="82"/>
-      <c r="K8" s="83"/>
+      <c r="C8" s="98"/>
+      <c r="D8" s="98"/>
+      <c r="E8" s="98"/>
+      <c r="F8" s="98"/>
+      <c r="G8" s="98"/>
+      <c r="H8" s="98"/>
+      <c r="I8" s="98"/>
+      <c r="J8" s="98"/>
+      <c r="K8" s="99"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -35533,7 +35886,564 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50057963-75E5-4253-A7F5-E58A81C4C7B8}">
+  <dimension ref="A1:G51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="79"/>
+    <col min="2" max="2" width="33.140625" style="79" customWidth="1"/>
+    <col min="3" max="3" width="28.140625" style="79" customWidth="1"/>
+    <col min="4" max="4" width="46.28515625" style="79" customWidth="1"/>
+    <col min="5" max="5" width="43.85546875" style="79" customWidth="1"/>
+    <col min="6" max="6" width="79" style="79" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="79"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="25.5">
+      <c r="A1" s="80" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="80" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="80" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="81" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="84" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="85" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="83">
+        <v>1</v>
+      </c>
+      <c r="B2" s="83"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="87"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="83">
+        <v>2</v>
+      </c>
+      <c r="B3" s="83"/>
+      <c r="C3" s="83"/>
+      <c r="D3" s="83"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="87"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="83">
+        <v>3</v>
+      </c>
+      <c r="B4" s="83"/>
+      <c r="C4" s="83"/>
+      <c r="D4" s="83"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="87"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="83">
+        <v>4</v>
+      </c>
+      <c r="B5" s="83"/>
+      <c r="C5" s="83"/>
+      <c r="D5" s="83"/>
+      <c r="E5" s="86"/>
+      <c r="F5" s="87"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="83">
+        <v>5</v>
+      </c>
+      <c r="B6" s="83"/>
+      <c r="C6" s="83"/>
+      <c r="D6" s="83"/>
+      <c r="E6" s="86"/>
+      <c r="F6" s="87"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="83">
+        <v>6</v>
+      </c>
+      <c r="B7" s="83"/>
+      <c r="C7" s="83"/>
+      <c r="D7" s="83"/>
+      <c r="E7" s="86"/>
+      <c r="F7" s="87"/>
+      <c r="G7" s="89"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="83">
+        <v>7</v>
+      </c>
+      <c r="B8" s="83"/>
+      <c r="C8" s="83"/>
+      <c r="D8" s="83"/>
+      <c r="E8" s="86"/>
+      <c r="F8" s="87"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="83">
+        <v>8</v>
+      </c>
+      <c r="B9" s="83"/>
+      <c r="C9" s="83"/>
+      <c r="D9" s="83"/>
+      <c r="E9" s="86"/>
+      <c r="F9" s="87"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="83">
+        <v>9</v>
+      </c>
+      <c r="B10" s="83"/>
+      <c r="C10" s="83"/>
+      <c r="D10" s="83"/>
+      <c r="E10" s="86"/>
+      <c r="F10" s="87"/>
+      <c r="G10" s="89"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="83">
+        <v>10</v>
+      </c>
+      <c r="B11" s="83"/>
+      <c r="C11" s="83"/>
+      <c r="D11" s="83"/>
+      <c r="E11" s="86"/>
+      <c r="F11" s="87"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="83">
+        <v>11</v>
+      </c>
+      <c r="B12" s="83"/>
+      <c r="C12" s="83"/>
+      <c r="D12" s="83"/>
+      <c r="E12" s="86"/>
+      <c r="F12" s="87"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="83">
+        <v>12</v>
+      </c>
+      <c r="B13" s="83"/>
+      <c r="C13" s="83"/>
+      <c r="D13" s="83"/>
+      <c r="E13" s="86"/>
+      <c r="F13" s="87"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="83">
+        <v>13</v>
+      </c>
+      <c r="B14" s="83"/>
+      <c r="C14" s="83"/>
+      <c r="D14" s="82"/>
+      <c r="E14" s="86"/>
+      <c r="F14" s="87"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="83">
+        <v>14</v>
+      </c>
+      <c r="B15" s="83"/>
+      <c r="C15" s="83"/>
+      <c r="D15" s="83"/>
+      <c r="E15" s="86"/>
+      <c r="F15" s="87"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="83">
+        <v>15</v>
+      </c>
+      <c r="B16" s="83"/>
+      <c r="C16" s="83"/>
+      <c r="D16" s="83"/>
+      <c r="E16" s="86"/>
+      <c r="F16" s="87"/>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="83">
+        <v>16</v>
+      </c>
+      <c r="B17" s="83"/>
+      <c r="C17" s="83"/>
+      <c r="D17" s="83"/>
+      <c r="E17" s="86"/>
+      <c r="F17" s="87"/>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="83">
+        <v>17</v>
+      </c>
+      <c r="B18" s="83"/>
+      <c r="C18" s="83"/>
+      <c r="D18" s="83"/>
+      <c r="E18" s="86"/>
+      <c r="F18" s="87"/>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="83">
+        <v>18</v>
+      </c>
+      <c r="B19" s="83"/>
+      <c r="C19" s="83"/>
+      <c r="D19" s="83"/>
+      <c r="E19" s="86"/>
+      <c r="F19" s="87"/>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="83">
+        <v>19</v>
+      </c>
+      <c r="B20" s="83"/>
+      <c r="C20" s="83"/>
+      <c r="D20" s="83"/>
+      <c r="E20" s="86"/>
+      <c r="F20" s="87"/>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="83">
+        <v>20</v>
+      </c>
+      <c r="B21" s="83"/>
+      <c r="C21" s="83"/>
+      <c r="D21" s="83"/>
+      <c r="E21" s="86"/>
+      <c r="F21" s="87"/>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="83">
+        <v>21</v>
+      </c>
+      <c r="B22" s="83"/>
+      <c r="C22" s="83"/>
+      <c r="D22" s="83"/>
+      <c r="E22" s="86"/>
+      <c r="F22" s="87"/>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="83">
+        <v>22</v>
+      </c>
+      <c r="B23" s="83"/>
+      <c r="C23" s="83"/>
+      <c r="D23" s="83"/>
+      <c r="E23" s="86"/>
+      <c r="F23" s="87"/>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="83">
+        <v>23</v>
+      </c>
+      <c r="B24" s="83"/>
+      <c r="C24" s="83"/>
+      <c r="D24" s="83"/>
+      <c r="E24" s="86"/>
+      <c r="F24" s="87"/>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="83">
+        <v>24</v>
+      </c>
+      <c r="B25" s="83"/>
+      <c r="C25" s="83"/>
+      <c r="D25" s="83"/>
+      <c r="E25" s="86"/>
+      <c r="F25" s="87"/>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="83">
+        <v>25</v>
+      </c>
+      <c r="B26" s="83"/>
+      <c r="C26" s="83"/>
+      <c r="D26" s="83"/>
+      <c r="E26" s="86"/>
+      <c r="F26" s="87"/>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="83">
+        <v>26</v>
+      </c>
+      <c r="B27" s="83"/>
+      <c r="C27" s="83"/>
+      <c r="D27" s="83"/>
+      <c r="E27" s="86"/>
+      <c r="F27" s="87"/>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="83">
+        <v>27</v>
+      </c>
+      <c r="B28" s="83"/>
+      <c r="C28" s="83"/>
+      <c r="D28" s="83"/>
+      <c r="E28" s="86"/>
+      <c r="F28" s="87"/>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="83">
+        <v>28</v>
+      </c>
+      <c r="B29" s="83"/>
+      <c r="C29" s="83"/>
+      <c r="D29" s="83"/>
+      <c r="E29" s="86"/>
+      <c r="F29" s="87"/>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="83">
+        <v>29</v>
+      </c>
+      <c r="B30" s="83"/>
+      <c r="C30" s="83"/>
+      <c r="D30" s="83"/>
+      <c r="E30" s="86"/>
+      <c r="F30" s="87"/>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="83">
+        <v>30</v>
+      </c>
+      <c r="B31" s="83"/>
+      <c r="C31" s="83"/>
+      <c r="D31" s="83"/>
+      <c r="E31" s="86"/>
+      <c r="F31" s="87"/>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="83">
+        <v>31</v>
+      </c>
+      <c r="B32" s="83"/>
+      <c r="C32" s="83"/>
+      <c r="D32" s="83"/>
+      <c r="E32" s="86"/>
+      <c r="F32" s="87"/>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="83">
+        <v>32</v>
+      </c>
+      <c r="B33" s="83"/>
+      <c r="C33" s="83"/>
+      <c r="D33" s="83"/>
+      <c r="E33" s="86"/>
+      <c r="F33" s="87"/>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="83">
+        <v>33</v>
+      </c>
+      <c r="B34" s="83"/>
+      <c r="C34" s="83"/>
+      <c r="D34" s="83"/>
+      <c r="E34" s="86"/>
+      <c r="F34" s="87"/>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="83">
+        <v>34</v>
+      </c>
+      <c r="B35" s="83"/>
+      <c r="C35" s="83"/>
+      <c r="D35" s="83"/>
+      <c r="E35" s="86"/>
+      <c r="F35" s="87"/>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="83">
+        <v>35</v>
+      </c>
+      <c r="B36" s="83"/>
+      <c r="C36" s="83"/>
+      <c r="D36" s="83"/>
+      <c r="E36" s="86"/>
+      <c r="F36" s="87"/>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="83">
+        <v>36</v>
+      </c>
+      <c r="B37" s="83"/>
+      <c r="C37" s="83"/>
+      <c r="D37" s="83"/>
+      <c r="E37" s="86"/>
+      <c r="F37" s="87"/>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="83">
+        <v>37</v>
+      </c>
+      <c r="B38" s="83"/>
+      <c r="C38" s="83"/>
+      <c r="D38" s="83"/>
+      <c r="E38" s="86"/>
+      <c r="F38" s="87"/>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="83">
+        <v>38</v>
+      </c>
+      <c r="B39" s="83"/>
+      <c r="C39" s="83"/>
+      <c r="D39" s="83"/>
+      <c r="E39" s="86"/>
+      <c r="F39" s="87"/>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="83">
+        <v>39</v>
+      </c>
+      <c r="B40" s="83"/>
+      <c r="C40" s="83"/>
+      <c r="D40" s="83"/>
+      <c r="E40" s="86"/>
+      <c r="F40" s="87"/>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="83">
+        <v>40</v>
+      </c>
+      <c r="B41" s="83"/>
+      <c r="C41" s="83"/>
+      <c r="D41" s="83"/>
+      <c r="E41" s="86"/>
+      <c r="F41" s="87"/>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="83">
+        <v>41</v>
+      </c>
+      <c r="B42" s="83"/>
+      <c r="C42" s="83"/>
+      <c r="D42" s="83"/>
+      <c r="E42" s="86"/>
+      <c r="F42" s="87"/>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="83">
+        <v>42</v>
+      </c>
+      <c r="B43" s="83"/>
+      <c r="C43" s="83"/>
+      <c r="D43" s="83"/>
+      <c r="E43" s="86"/>
+      <c r="F43" s="87"/>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="83">
+        <v>43</v>
+      </c>
+      <c r="B44" s="83"/>
+      <c r="C44" s="83"/>
+      <c r="D44" s="83"/>
+      <c r="E44" s="86"/>
+      <c r="F44" s="87"/>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="83">
+        <v>44</v>
+      </c>
+      <c r="B45" s="83"/>
+      <c r="C45" s="83"/>
+      <c r="D45" s="83"/>
+      <c r="E45" s="86"/>
+      <c r="F45" s="87"/>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="83">
+        <v>45</v>
+      </c>
+      <c r="B46" s="83"/>
+      <c r="C46" s="83"/>
+      <c r="D46" s="83"/>
+      <c r="E46" s="86"/>
+      <c r="F46" s="87"/>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="83">
+        <v>46</v>
+      </c>
+      <c r="B47" s="83"/>
+      <c r="C47" s="83"/>
+      <c r="D47" s="83"/>
+      <c r="E47" s="86"/>
+      <c r="F47" s="87"/>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="83">
+        <v>47</v>
+      </c>
+      <c r="B48" s="83"/>
+      <c r="C48" s="83"/>
+      <c r="D48" s="83"/>
+      <c r="E48" s="86"/>
+      <c r="F48" s="87"/>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="83">
+        <v>48</v>
+      </c>
+      <c r="B49" s="83"/>
+      <c r="C49" s="83"/>
+      <c r="D49" s="83"/>
+      <c r="E49" s="86"/>
+      <c r="F49" s="87"/>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="83">
+        <v>49</v>
+      </c>
+      <c r="B50" s="83"/>
+      <c r="C50" s="83"/>
+      <c r="D50" s="83"/>
+      <c r="E50" s="86"/>
+      <c r="F50" s="87"/>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="83">
+        <v>50</v>
+      </c>
+      <c r="B51" s="83"/>
+      <c r="C51" s="83"/>
+      <c r="D51" s="83"/>
+      <c r="E51" s="86"/>
+      <c r="F51" s="87"/>
+    </row>
+  </sheetData>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C51" xr:uid="{BEF94545-53BB-4A25-884A-FB46C0F726AF}">
+      <formula1>"English,Knowledge Gaps,Emotion,Techniques"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F51" xr:uid="{E0EA92E9-7698-4F99-B782-D75988C37ED4}">
+      <formula1>"Task1, Task 2, Task3, Task 4, Task 5, Task 6, Task 7"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="F1" location="'Domain-Planning'!A1" display="Domain" xr:uid="{F97348EE-9E21-4DDD-9C55-4ED9181CEDA3}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8370EABC-5FB0-46E3-AC0D-18A12C9132DD}">
   <sheetPr codeName="Sheet15"/>
   <dimension ref="A1:E26"/>
@@ -35820,587 +36730,657 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B150C828-5E38-4F9B-89F5-DE7664E9E60A}">
+  <sheetPr codeName="Sheet16"/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K27" sqref="K27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F20858FF-860F-4DDB-90C1-5CC740EF8BB8}">
+  <sheetPr codeName="Sheet17"/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13E5ACBF-E712-4A9D-9910-ED74A62FE5AE}">
+  <sheetPr codeName="Sheet18"/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C417280C-3257-4FCE-BFBC-576DD1B4382F}">
+  <sheetPr codeName="Sheet19"/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FCB690D-227C-45AA-9C93-A22E8FEE0210}">
   <dimension ref="A1:G51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D52" sqref="D52"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="87"/>
-    <col min="2" max="2" width="33.140625" style="87" customWidth="1"/>
-    <col min="3" max="3" width="28.140625" style="87" customWidth="1"/>
-    <col min="4" max="4" width="46.28515625" style="87" customWidth="1"/>
-    <col min="5" max="5" width="43.85546875" style="87" customWidth="1"/>
-    <col min="6" max="6" width="79" style="87" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="87"/>
+    <col min="1" max="1" width="9.140625" style="79"/>
+    <col min="2" max="2" width="33.140625" style="79" customWidth="1"/>
+    <col min="3" max="3" width="28.140625" style="79" customWidth="1"/>
+    <col min="4" max="4" width="46.28515625" style="79" customWidth="1"/>
+    <col min="5" max="5" width="43.85546875" style="79" customWidth="1"/>
+    <col min="6" max="6" width="79" style="79" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="79"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="25.5">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="80" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="88" t="s">
+      <c r="B1" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="88" t="s">
+      <c r="C1" s="80" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="89" t="s">
+      <c r="D1" s="81" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="92" t="s">
+      <c r="E1" s="84" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="93" t="s">
+      <c r="F1" s="85" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="30">
-      <c r="A2" s="91">
+      <c r="A2" s="83">
         <v>1</v>
       </c>
-      <c r="B2" s="91"/>
-      <c r="C2" s="91" t="s">
+      <c r="B2" s="83"/>
+      <c r="C2" s="83" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="91"/>
-      <c r="E2" s="94" t="s">
+      <c r="D2" s="83"/>
+      <c r="E2" s="86" t="s">
         <v>447</v>
       </c>
-      <c r="F2" s="95"/>
+      <c r="F2" s="87"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="91">
+      <c r="A3" s="83">
         <v>2</v>
       </c>
-      <c r="B3" s="91"/>
-      <c r="C3" s="91"/>
-      <c r="D3" s="91"/>
-      <c r="E3" s="94"/>
-      <c r="F3" s="95"/>
+      <c r="B3" s="83"/>
+      <c r="C3" s="83"/>
+      <c r="D3" s="83"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="87"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="91">
+      <c r="A4" s="83">
         <v>3</v>
       </c>
-      <c r="B4" s="91"/>
-      <c r="C4" s="91"/>
-      <c r="D4" s="91"/>
-      <c r="E4" s="94"/>
-      <c r="F4" s="95"/>
+      <c r="B4" s="83"/>
+      <c r="C4" s="83"/>
+      <c r="D4" s="83"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="87"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="91">
+      <c r="A5" s="83">
         <v>4</v>
       </c>
-      <c r="B5" s="91"/>
-      <c r="C5" s="91"/>
-      <c r="D5" s="91"/>
-      <c r="E5" s="94"/>
-      <c r="F5" s="95"/>
+      <c r="B5" s="83"/>
+      <c r="C5" s="83"/>
+      <c r="D5" s="83"/>
+      <c r="E5" s="86"/>
+      <c r="F5" s="87"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="91">
+      <c r="A6" s="83">
         <v>5</v>
       </c>
-      <c r="B6" s="91"/>
-      <c r="C6" s="91"/>
-      <c r="D6" s="91"/>
-      <c r="E6" s="94"/>
-      <c r="F6" s="95"/>
+      <c r="B6" s="83"/>
+      <c r="C6" s="83"/>
+      <c r="D6" s="83"/>
+      <c r="E6" s="86"/>
+      <c r="F6" s="87"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="91">
+      <c r="A7" s="83">
         <v>6</v>
       </c>
-      <c r="B7" s="91"/>
-      <c r="C7" s="91"/>
-      <c r="D7" s="91"/>
-      <c r="E7" s="94"/>
-      <c r="F7" s="95"/>
-      <c r="G7" s="97"/>
+      <c r="B7" s="83"/>
+      <c r="C7" s="83"/>
+      <c r="D7" s="83"/>
+      <c r="E7" s="86"/>
+      <c r="F7" s="87"/>
+      <c r="G7" s="89"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="91">
+      <c r="A8" s="83">
         <v>7</v>
       </c>
-      <c r="B8" s="91"/>
-      <c r="C8" s="91"/>
-      <c r="D8" s="91"/>
-      <c r="E8" s="94"/>
-      <c r="F8" s="95"/>
+      <c r="B8" s="83"/>
+      <c r="C8" s="83"/>
+      <c r="D8" s="83"/>
+      <c r="E8" s="86"/>
+      <c r="F8" s="87"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="91">
+      <c r="A9" s="83">
         <v>8</v>
       </c>
-      <c r="B9" s="91"/>
-      <c r="C9" s="91"/>
-      <c r="D9" s="91"/>
-      <c r="E9" s="94"/>
-      <c r="F9" s="95"/>
+      <c r="B9" s="83"/>
+      <c r="C9" s="83"/>
+      <c r="D9" s="83"/>
+      <c r="E9" s="86"/>
+      <c r="F9" s="87"/>
     </row>
     <row r="10" spans="1:7" ht="30">
-      <c r="A10" s="91">
+      <c r="A10" s="83">
         <v>9</v>
       </c>
-      <c r="B10" s="91"/>
-      <c r="C10" s="91" t="s">
+      <c r="B10" s="83"/>
+      <c r="C10" s="83" t="s">
         <v>60</v>
       </c>
-      <c r="D10" s="91" t="s">
+      <c r="D10" s="83" t="s">
         <v>448</v>
       </c>
-      <c r="E10" s="94" t="s">
+      <c r="E10" s="86" t="s">
         <v>449</v>
       </c>
-      <c r="F10" s="95"/>
-      <c r="G10" s="97" t="s">
+      <c r="F10" s="87"/>
+      <c r="G10" s="89" t="s">
         <v>450</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="91">
+      <c r="A11" s="83">
         <v>10</v>
       </c>
-      <c r="B11" s="91"/>
-      <c r="C11" s="91"/>
-      <c r="D11" s="91"/>
-      <c r="E11" s="94"/>
-      <c r="F11" s="95"/>
+      <c r="B11" s="83"/>
+      <c r="C11" s="83"/>
+      <c r="D11" s="83"/>
+      <c r="E11" s="86"/>
+      <c r="F11" s="87"/>
     </row>
     <row r="12" spans="1:7" ht="75">
-      <c r="A12" s="91">
+      <c r="A12" s="83">
         <v>11</v>
       </c>
-      <c r="B12" s="91"/>
-      <c r="C12" s="91" t="s">
+      <c r="B12" s="83"/>
+      <c r="C12" s="83" t="s">
         <v>4</v>
       </c>
-      <c r="D12" s="91" t="s">
+      <c r="D12" s="83" t="s">
         <v>451</v>
       </c>
-      <c r="E12" s="94" t="s">
+      <c r="E12" s="86" t="s">
         <v>452</v>
       </c>
-      <c r="F12" s="95"/>
+      <c r="F12" s="87"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="91">
+      <c r="A13" s="83">
         <v>12</v>
       </c>
-      <c r="B13" s="91"/>
-      <c r="C13" s="91"/>
-      <c r="D13" s="91"/>
-      <c r="E13" s="94"/>
-      <c r="F13" s="95"/>
+      <c r="B13" s="83"/>
+      <c r="C13" s="83"/>
+      <c r="D13" s="83"/>
+      <c r="E13" s="86"/>
+      <c r="F13" s="87"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="91">
+      <c r="A14" s="83">
         <v>13</v>
       </c>
-      <c r="B14" s="91"/>
-      <c r="C14" s="91"/>
-      <c r="D14" s="90"/>
-      <c r="E14" s="94"/>
-      <c r="F14" s="95"/>
+      <c r="B14" s="83"/>
+      <c r="C14" s="83"/>
+      <c r="D14" s="82"/>
+      <c r="E14" s="86"/>
+      <c r="F14" s="87"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="91">
+      <c r="A15" s="83">
         <v>14</v>
       </c>
-      <c r="B15" s="91"/>
-      <c r="C15" s="91"/>
-      <c r="D15" s="91"/>
-      <c r="E15" s="94"/>
-      <c r="F15" s="95"/>
+      <c r="B15" s="83"/>
+      <c r="C15" s="83"/>
+      <c r="D15" s="83"/>
+      <c r="E15" s="86"/>
+      <c r="F15" s="87"/>
     </row>
     <row r="16" spans="1:7" ht="60">
-      <c r="A16" s="91">
+      <c r="A16" s="83">
         <v>15</v>
       </c>
-      <c r="B16" s="91"/>
-      <c r="C16" s="91" t="s">
+      <c r="B16" s="83"/>
+      <c r="C16" s="83" t="s">
         <v>4</v>
       </c>
-      <c r="D16" s="91"/>
-      <c r="E16" s="94" t="s">
+      <c r="D16" s="83"/>
+      <c r="E16" s="86" t="s">
         <v>453</v>
       </c>
-      <c r="F16" s="95"/>
-      <c r="G16" s="87" t="s">
+      <c r="F16" s="87"/>
+      <c r="G16" s="79" t="s">
         <v>454</v>
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="91">
+      <c r="A17" s="83">
         <v>16</v>
       </c>
-      <c r="B17" s="91"/>
-      <c r="C17" s="91"/>
-      <c r="D17" s="91"/>
-      <c r="E17" s="94"/>
-      <c r="F17" s="95"/>
+      <c r="B17" s="83"/>
+      <c r="C17" s="83"/>
+      <c r="D17" s="83"/>
+      <c r="E17" s="86"/>
+      <c r="F17" s="87"/>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="91">
+      <c r="A18" s="83">
         <v>17</v>
       </c>
-      <c r="B18" s="91"/>
-      <c r="C18" s="91"/>
-      <c r="D18" s="91"/>
-      <c r="E18" s="94"/>
-      <c r="F18" s="95"/>
+      <c r="B18" s="83"/>
+      <c r="C18" s="83"/>
+      <c r="D18" s="83"/>
+      <c r="E18" s="86"/>
+      <c r="F18" s="87"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="91">
+      <c r="A19" s="83">
         <v>18</v>
       </c>
-      <c r="B19" s="91"/>
-      <c r="C19" s="91"/>
-      <c r="D19" s="91"/>
-      <c r="E19" s="94"/>
-      <c r="F19" s="95"/>
+      <c r="B19" s="83"/>
+      <c r="C19" s="83"/>
+      <c r="D19" s="83"/>
+      <c r="E19" s="86"/>
+      <c r="F19" s="87"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="91">
+      <c r="A20" s="83">
         <v>19</v>
       </c>
-      <c r="B20" s="91"/>
-      <c r="C20" s="91"/>
-      <c r="D20" s="91"/>
-      <c r="E20" s="94"/>
-      <c r="F20" s="95"/>
+      <c r="B20" s="83"/>
+      <c r="C20" s="83"/>
+      <c r="D20" s="83"/>
+      <c r="E20" s="86"/>
+      <c r="F20" s="87"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="91">
+      <c r="A21" s="83">
         <v>20</v>
       </c>
-      <c r="B21" s="91"/>
-      <c r="C21" s="91"/>
-      <c r="D21" s="91"/>
-      <c r="E21" s="94"/>
-      <c r="F21" s="95"/>
+      <c r="B21" s="83"/>
+      <c r="C21" s="83"/>
+      <c r="D21" s="83"/>
+      <c r="E21" s="86"/>
+      <c r="F21" s="87"/>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="91">
+      <c r="A22" s="83">
         <v>21</v>
       </c>
-      <c r="B22" s="91"/>
-      <c r="C22" s="91" t="s">
+      <c r="B22" s="83"/>
+      <c r="C22" s="83" t="s">
         <v>4</v>
       </c>
-      <c r="D22" s="91"/>
-      <c r="E22" s="94" t="s">
+      <c r="D22" s="83"/>
+      <c r="E22" s="86" t="s">
         <v>455</v>
       </c>
-      <c r="F22" s="95"/>
+      <c r="F22" s="87"/>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="91">
+      <c r="A23" s="83">
         <v>22</v>
       </c>
-      <c r="B23" s="91"/>
-      <c r="C23" s="91"/>
-      <c r="D23" s="91"/>
-      <c r="E23" s="94"/>
-      <c r="F23" s="95"/>
+      <c r="B23" s="83"/>
+      <c r="C23" s="83"/>
+      <c r="D23" s="83"/>
+      <c r="E23" s="86"/>
+      <c r="F23" s="87"/>
     </row>
     <row r="24" spans="1:6" ht="45">
-      <c r="A24" s="91">
+      <c r="A24" s="83">
         <v>23</v>
       </c>
-      <c r="B24" s="91"/>
-      <c r="C24" s="91" t="s">
+      <c r="B24" s="83"/>
+      <c r="C24" s="83" t="s">
         <v>4</v>
       </c>
-      <c r="D24" s="91"/>
-      <c r="E24" s="94" t="s">
+      <c r="D24" s="83"/>
+      <c r="E24" s="86" t="s">
         <v>456</v>
       </c>
-      <c r="F24" s="95"/>
+      <c r="F24" s="87"/>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="91">
+      <c r="A25" s="83">
         <v>24</v>
       </c>
-      <c r="B25" s="91"/>
-      <c r="C25" s="91"/>
-      <c r="D25" s="91"/>
-      <c r="E25" s="94"/>
-      <c r="F25" s="95"/>
+      <c r="B25" s="83"/>
+      <c r="C25" s="83"/>
+      <c r="D25" s="83"/>
+      <c r="E25" s="86"/>
+      <c r="F25" s="87"/>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="91">
+      <c r="A26" s="83">
         <v>25</v>
       </c>
-      <c r="B26" s="91"/>
-      <c r="C26" s="91"/>
-      <c r="D26" s="91"/>
-      <c r="E26" s="94"/>
-      <c r="F26" s="95"/>
+      <c r="B26" s="83"/>
+      <c r="C26" s="83"/>
+      <c r="D26" s="83"/>
+      <c r="E26" s="86"/>
+      <c r="F26" s="87"/>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="91">
+      <c r="A27" s="83">
         <v>26</v>
       </c>
-      <c r="B27" s="91"/>
-      <c r="C27" s="91"/>
-      <c r="D27" s="91"/>
-      <c r="E27" s="94"/>
-      <c r="F27" s="95"/>
+      <c r="B27" s="83"/>
+      <c r="C27" s="83"/>
+      <c r="D27" s="83"/>
+      <c r="E27" s="86"/>
+      <c r="F27" s="87"/>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="91">
+      <c r="A28" s="83">
         <v>27</v>
       </c>
-      <c r="B28" s="91"/>
-      <c r="C28" s="91" t="s">
+      <c r="B28" s="83"/>
+      <c r="C28" s="83" t="s">
         <v>4</v>
       </c>
-      <c r="D28" s="91"/>
-      <c r="E28" s="94"/>
-      <c r="F28" s="95"/>
+      <c r="D28" s="83"/>
+      <c r="E28" s="86"/>
+      <c r="F28" s="87"/>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="91">
+      <c r="A29" s="83">
         <v>28</v>
       </c>
-      <c r="B29" s="91"/>
-      <c r="C29" s="91"/>
-      <c r="D29" s="91"/>
-      <c r="E29" s="94"/>
-      <c r="F29" s="95"/>
+      <c r="B29" s="83"/>
+      <c r="C29" s="83"/>
+      <c r="D29" s="83"/>
+      <c r="E29" s="86"/>
+      <c r="F29" s="87"/>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="91">
+      <c r="A30" s="83">
         <v>29</v>
       </c>
-      <c r="B30" s="91"/>
-      <c r="C30" s="91"/>
-      <c r="D30" s="91"/>
-      <c r="E30" s="94"/>
-      <c r="F30" s="95"/>
+      <c r="B30" s="83"/>
+      <c r="C30" s="83"/>
+      <c r="D30" s="83"/>
+      <c r="E30" s="86"/>
+      <c r="F30" s="87"/>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="91">
+      <c r="A31" s="83">
         <v>30</v>
       </c>
-      <c r="B31" s="91"/>
-      <c r="C31" s="91"/>
-      <c r="D31" s="91"/>
-      <c r="E31" s="94"/>
-      <c r="F31" s="95"/>
+      <c r="B31" s="83"/>
+      <c r="C31" s="83"/>
+      <c r="D31" s="83"/>
+      <c r="E31" s="86"/>
+      <c r="F31" s="87"/>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="91">
+      <c r="A32" s="83">
         <v>31</v>
       </c>
-      <c r="B32" s="91"/>
-      <c r="C32" s="91"/>
-      <c r="D32" s="91"/>
-      <c r="E32" s="94"/>
-      <c r="F32" s="95"/>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33" s="91">
+      <c r="B32" s="83"/>
+      <c r="C32" s="83"/>
+      <c r="D32" s="83"/>
+      <c r="E32" s="86"/>
+      <c r="F32" s="87"/>
+    </row>
+    <row r="33" spans="1:6" ht="105">
+      <c r="A33" s="83">
         <v>32</v>
       </c>
-      <c r="B33" s="91"/>
-      <c r="C33" s="91" t="s">
+      <c r="B33" s="83"/>
+      <c r="C33" s="83" t="s">
         <v>4</v>
       </c>
-      <c r="D33" s="91"/>
-      <c r="E33" s="94"/>
-      <c r="F33" s="95"/>
+      <c r="D33" s="83"/>
+      <c r="E33" s="86" t="s">
+        <v>459</v>
+      </c>
+      <c r="F33" s="87"/>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="91">
+      <c r="A34" s="83">
         <v>33</v>
       </c>
-      <c r="B34" s="91"/>
-      <c r="C34" s="91"/>
-      <c r="D34" s="91"/>
-      <c r="E34" s="94"/>
-      <c r="F34" s="95"/>
+      <c r="B34" s="83"/>
+      <c r="C34" s="83"/>
+      <c r="D34" s="83"/>
+      <c r="E34" s="86"/>
+      <c r="F34" s="87"/>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="91">
+      <c r="A35" s="83">
         <v>34</v>
       </c>
-      <c r="B35" s="91"/>
-      <c r="C35" s="91"/>
-      <c r="D35" s="91"/>
-      <c r="E35" s="94"/>
-      <c r="F35" s="95"/>
+      <c r="B35" s="83"/>
+      <c r="C35" s="83"/>
+      <c r="D35" s="83"/>
+      <c r="E35" s="86"/>
+      <c r="F35" s="87"/>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="91">
+      <c r="A36" s="83">
         <v>35</v>
       </c>
-      <c r="B36" s="91"/>
-      <c r="C36" s="91"/>
-      <c r="D36" s="91"/>
-      <c r="E36" s="94"/>
-      <c r="F36" s="95"/>
+      <c r="B36" s="83"/>
+      <c r="C36" s="83"/>
+      <c r="D36" s="83"/>
+      <c r="E36" s="86"/>
+      <c r="F36" s="87"/>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="91">
+      <c r="A37" s="83">
         <v>36</v>
       </c>
-      <c r="B37" s="91"/>
-      <c r="C37" s="91"/>
-      <c r="D37" s="91"/>
-      <c r="E37" s="94"/>
-      <c r="F37" s="95"/>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38" s="91">
+      <c r="B37" s="83"/>
+      <c r="C37" s="83"/>
+      <c r="D37" s="83"/>
+      <c r="E37" s="86"/>
+      <c r="F37" s="87"/>
+    </row>
+    <row r="38" spans="1:6" ht="45">
+      <c r="A38" s="83">
         <v>37</v>
       </c>
-      <c r="B38" s="91"/>
-      <c r="C38" s="91" t="s">
+      <c r="B38" s="83"/>
+      <c r="C38" s="83" t="s">
         <v>4</v>
       </c>
-      <c r="D38" s="91"/>
-      <c r="E38" s="94"/>
-      <c r="F38" s="95"/>
+      <c r="D38" s="83"/>
+      <c r="E38" s="86" t="s">
+        <v>458</v>
+      </c>
+      <c r="F38" s="87"/>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="91">
+      <c r="A39" s="83">
         <v>38</v>
       </c>
-      <c r="B39" s="91"/>
-      <c r="C39" s="91"/>
-      <c r="D39" s="91"/>
-      <c r="E39" s="94"/>
-      <c r="F39" s="95"/>
+      <c r="B39" s="83"/>
+      <c r="C39" s="83"/>
+      <c r="D39" s="83"/>
+      <c r="E39" s="86"/>
+      <c r="F39" s="87"/>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" s="91">
+      <c r="A40" s="83">
         <v>39</v>
       </c>
-      <c r="B40" s="91"/>
-      <c r="C40" s="91"/>
-      <c r="D40" s="91"/>
-      <c r="E40" s="94"/>
-      <c r="F40" s="95"/>
+      <c r="B40" s="83"/>
+      <c r="C40" s="83"/>
+      <c r="D40" s="83"/>
+      <c r="E40" s="86"/>
+      <c r="F40" s="87"/>
     </row>
     <row r="41" spans="1:6">
-      <c r="A41" s="91">
+      <c r="A41" s="83">
         <v>40</v>
       </c>
-      <c r="B41" s="91"/>
-      <c r="C41" s="91"/>
-      <c r="D41" s="91"/>
-      <c r="E41" s="94"/>
-      <c r="F41" s="95"/>
+      <c r="B41" s="83"/>
+      <c r="C41" s="83"/>
+      <c r="D41" s="83"/>
+      <c r="E41" s="86"/>
+      <c r="F41" s="87"/>
     </row>
     <row r="42" spans="1:6">
-      <c r="A42" s="91">
+      <c r="A42" s="83">
         <v>41</v>
       </c>
-      <c r="B42" s="91"/>
-      <c r="C42" s="91"/>
-      <c r="D42" s="91"/>
-      <c r="E42" s="94"/>
-      <c r="F42" s="95"/>
+      <c r="B42" s="83"/>
+      <c r="C42" s="83"/>
+      <c r="D42" s="83"/>
+      <c r="E42" s="86"/>
+      <c r="F42" s="87"/>
     </row>
     <row r="43" spans="1:6">
-      <c r="A43" s="91">
+      <c r="A43" s="83">
         <v>42</v>
       </c>
-      <c r="B43" s="91"/>
-      <c r="C43" s="91"/>
-      <c r="D43" s="91"/>
-      <c r="E43" s="94"/>
-      <c r="F43" s="95"/>
+      <c r="B43" s="83"/>
+      <c r="C43" s="83"/>
+      <c r="D43" s="83"/>
+      <c r="E43" s="86"/>
+      <c r="F43" s="87"/>
     </row>
     <row r="44" spans="1:6">
-      <c r="A44" s="91">
+      <c r="A44" s="83">
         <v>43</v>
       </c>
-      <c r="B44" s="91"/>
-      <c r="C44" s="91"/>
-      <c r="D44" s="91"/>
-      <c r="E44" s="94"/>
-      <c r="F44" s="95"/>
+      <c r="B44" s="83"/>
+      <c r="C44" s="83"/>
+      <c r="D44" s="83"/>
+      <c r="E44" s="86"/>
+      <c r="F44" s="87"/>
     </row>
     <row r="45" spans="1:6">
-      <c r="A45" s="91">
+      <c r="A45" s="83">
         <v>44</v>
       </c>
-      <c r="B45" s="91"/>
-      <c r="C45" s="91"/>
-      <c r="D45" s="91"/>
-      <c r="E45" s="94"/>
-      <c r="F45" s="95"/>
+      <c r="B45" s="83"/>
+      <c r="C45" s="83"/>
+      <c r="D45" s="83"/>
+      <c r="E45" s="86"/>
+      <c r="F45" s="87"/>
     </row>
     <row r="46" spans="1:6">
-      <c r="A46" s="91">
+      <c r="A46" s="83">
         <v>45</v>
       </c>
-      <c r="B46" s="91"/>
-      <c r="C46" s="91"/>
-      <c r="D46" s="91"/>
-      <c r="E46" s="94"/>
-      <c r="F46" s="95"/>
+      <c r="B46" s="83"/>
+      <c r="C46" s="83"/>
+      <c r="D46" s="83"/>
+      <c r="E46" s="86"/>
+      <c r="F46" s="87"/>
     </row>
     <row r="47" spans="1:6">
-      <c r="A47" s="91">
+      <c r="A47" s="83">
         <v>46</v>
       </c>
-      <c r="B47" s="91"/>
-      <c r="C47" s="91"/>
-      <c r="D47" s="91"/>
-      <c r="E47" s="94"/>
-      <c r="F47" s="95"/>
+      <c r="B47" s="83"/>
+      <c r="C47" s="83"/>
+      <c r="D47" s="83"/>
+      <c r="E47" s="86"/>
+      <c r="F47" s="87"/>
     </row>
     <row r="48" spans="1:6">
-      <c r="A48" s="91">
+      <c r="A48" s="83">
         <v>47</v>
       </c>
-      <c r="B48" s="91"/>
-      <c r="C48" s="91"/>
-      <c r="D48" s="91"/>
-      <c r="E48" s="94"/>
-      <c r="F48" s="95"/>
+      <c r="B48" s="83"/>
+      <c r="C48" s="83"/>
+      <c r="D48" s="83"/>
+      <c r="E48" s="86"/>
+      <c r="F48" s="87"/>
     </row>
     <row r="49" spans="1:6">
-      <c r="A49" s="91">
+      <c r="A49" s="83">
         <v>48</v>
       </c>
-      <c r="B49" s="91"/>
-      <c r="C49" s="91"/>
-      <c r="D49" s="91"/>
-      <c r="E49" s="94"/>
-      <c r="F49" s="95"/>
-    </row>
-    <row r="50" spans="1:6">
-      <c r="A50" s="91">
+      <c r="B49" s="83"/>
+      <c r="C49" s="83"/>
+      <c r="D49" s="83"/>
+      <c r="E49" s="86"/>
+      <c r="F49" s="87"/>
+    </row>
+    <row r="50" spans="1:6" ht="60">
+      <c r="A50" s="83">
         <v>49</v>
       </c>
-      <c r="B50" s="91"/>
-      <c r="C50" s="91" t="s">
+      <c r="B50" s="83"/>
+      <c r="C50" s="83" t="s">
         <v>4</v>
       </c>
-      <c r="D50" s="91"/>
-      <c r="E50" s="94"/>
-      <c r="F50" s="95"/>
+      <c r="D50" s="83"/>
+      <c r="E50" s="86" t="s">
+        <v>457</v>
+      </c>
+      <c r="F50" s="87"/>
     </row>
     <row r="51" spans="1:6">
-      <c r="A51" s="91">
+      <c r="A51" s="83">
         <v>50</v>
       </c>
-      <c r="B51" s="91"/>
-      <c r="C51" s="91"/>
-      <c r="D51" s="91"/>
-      <c r="E51" s="94"/>
-      <c r="F51" s="95"/>
+      <c r="B51" s="83"/>
+      <c r="C51" s="83"/>
+      <c r="D51" s="83"/>
+      <c r="E51" s="86"/>
+      <c r="F51" s="87"/>
     </row>
   </sheetData>
   <dataValidations count="2">
@@ -36418,71 +37398,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B150C828-5E38-4F9B-89F5-DE7664E9E60A}">
-  <sheetPr codeName="Sheet16"/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K27" sqref="K27"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F20858FF-860F-4DDB-90C1-5CC740EF8BB8}">
-  <sheetPr codeName="Sheet17"/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13E5ACBF-E712-4A9D-9910-ED74A62FE5AE}">
-  <sheetPr codeName="Sheet18"/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C417280C-3257-4FCE-BFBC-576DD1B4382F}">
-  <sheetPr codeName="Sheet19"/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{453BF44A-91AF-4F6D-AE5E-E58F57961686}">
   <dimension ref="A1:G51"/>
   <sheetViews>
@@ -36694,10 +37610,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="8"/>
-      <c r="C15" s="91" t="s">
+      <c r="C15" s="83" t="s">
         <v>4</v>
       </c>
-      <c r="D15" s="91" t="s">
+      <c r="D15" s="83" t="s">
         <v>441</v>
       </c>
       <c r="E15" s="15"/>
@@ -37099,7 +38015,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F8FD89E-6595-4ED6-8407-B1A3D616014F}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:H52"/>
@@ -37482,7 +38398,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3370A11-AD88-47EC-B564-C7B459D1B3C6}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:E11"/>
@@ -37630,7 +38546,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B3E9025-2166-405B-928B-811F653123F3}">
   <sheetPr codeName="Sheet20"/>
   <dimension ref="A1:F26"/>
@@ -37971,7 +38887,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D67830A5-61CE-4324-A223-E0E1F9224A73}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:G26"/>
@@ -38364,7 +39280,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14F5D74C-E5D9-45C3-98E4-07977C9F0161}">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1"/>
@@ -38383,347 +39299,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C982353-CA8A-4388-8859-7413C89A9E50}">
-  <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:E26"/>
-  <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="M33" sqref="M33"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="9.140625" style="7"/>
-    <col min="2" max="2" width="65.85546875" style="7" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" style="7" customWidth="1"/>
-    <col min="4" max="4" width="38.85546875" style="7" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="7" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="7"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="25.5">
-      <c r="A1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="8">
-        <v>1</v>
-      </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-    </row>
-    <row r="3" spans="1:5" ht="409.5">
-      <c r="A3" s="8">
-        <v>2</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="8"/>
-    </row>
-    <row r="4" spans="1:5" ht="60">
-      <c r="A4" s="8">
-        <v>3</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="8"/>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="8">
-        <v>4</v>
-      </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="8">
-        <v>5</v>
-      </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="8">
-        <v>6</v>
-      </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-    </row>
-    <row r="8" spans="1:5" ht="45">
-      <c r="A8" s="8">
-        <v>7</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="93" customHeight="1">
-      <c r="A9" s="8">
-        <v>8</v>
-      </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="8">
-        <v>9</v>
-      </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-    </row>
-    <row r="11" spans="1:5" ht="165">
-      <c r="A11" s="8">
-        <v>10</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="8">
-        <v>11</v>
-      </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-    </row>
-    <row r="13" spans="1:5" ht="30">
-      <c r="A13" s="8">
-        <v>12</v>
-      </c>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="E13" s="8"/>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="8">
-        <v>13</v>
-      </c>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-    </row>
-    <row r="15" spans="1:5" ht="30">
-      <c r="A15" s="8">
-        <v>14</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="E15" s="8"/>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="8">
-        <v>15</v>
-      </c>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="8">
-        <v>16</v>
-      </c>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-    </row>
-    <row r="18" spans="1:5" ht="90">
-      <c r="A18" s="8">
-        <v>17</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="E18" s="8"/>
-    </row>
-    <row r="19" spans="1:5" ht="30">
-      <c r="A19" s="8">
-        <v>18</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E19" s="8"/>
-    </row>
-    <row r="20" spans="1:5" ht="75">
-      <c r="A20" s="8">
-        <v>19</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="E20" s="8"/>
-    </row>
-    <row r="21" spans="1:5" ht="30">
-      <c r="A21" s="8">
-        <v>20</v>
-      </c>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="E21" s="8" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="90">
-      <c r="A22" s="8">
-        <v>21</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="E22" s="8"/>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="8">
-        <v>22</v>
-      </c>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-    </row>
-    <row r="24" spans="1:5" ht="75">
-      <c r="A24" s="8">
-        <v>23</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="8">
-        <v>24</v>
-      </c>
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="8">
-        <v>25</v>
-      </c>
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-    </row>
-  </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C28" xr:uid="{527BEA14-3279-4F17-AA9E-BD8564CDD3E5}">
-      <formula1>"English,Knowledge Gaps,Emotion,Techniques"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/10_Management/Exam_PMP_TangToc_07032019.xlsx
+++ b/10_Management/Exam_PMP_TangToc_07032019.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\EBill\10_Management\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Working\EBill\10_Management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A319BC2-23B7-486B-823E-90815430E218}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67C81B66-ED7C-4DD0-A699-672718651C15}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12000" windowHeight="6405" activeTab="2" xr2:uid="{957D22A2-4D54-4148-9DDE-7A2AF7FA87D7}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12000" windowHeight="6405" activeTab="1" xr2:uid="{957D22A2-4D54-4148-9DDE-7A2AF7FA87D7}"/>
   </bookViews>
   <sheets>
     <sheet name="study plan" sheetId="22" r:id="rId1"/>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="874" uniqueCount="460">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="887" uniqueCount="468">
   <si>
     <t>No</t>
   </si>
@@ -1576,6 +1576,35 @@
   </si>
   <si>
     <t>Note: Milestone list là output của define activity, estimate activity durations là process nằm trc develop schedules, việc compress the schedules và completed a monte carlo analysis là 1 phần nằm trong develop schedule. Recommend correct actions nó nằm trong phần control schedule</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Note: fishbone diagram, control chart, histogram đều là tool của quality management tool.
+Phân biệt. 
+Histogram: là dạng biểu đồ dạng cột thể hiện thuộc tính dưới dạng cột, chiều cao của từng cột thể hiện giá trị hiển thị
+pareto chart: mục đích để 
+cause and effect: fishbone, ishikawa diagrams: confirm policies, procedure để tìm ra nguyên nhân vấn đề
+scatter diagrams: có 2 biến để xác định quan hệ của 2 biến đó =&gt; đọc lại các tool technique của quality </t>
+  </si>
+  <si>
+    <t>Đoc lại rolling wave planning:  is a technique used to create a more detailed work plan while keeping the right level of detail for each activity: Activities happening sooner have more detail than those further in the future.</t>
+  </si>
+  <si>
+    <t>Note: control chart chứa upper, lower control limits</t>
+  </si>
+  <si>
+    <t>PM active most initiating &amp; planning</t>
+  </si>
+  <si>
+    <t>Cần nhớ output của Collect Requirement &amp; Define scope</t>
+  </si>
+  <si>
+    <t>note: identification of key deliverable có thể nằm duy nhất trong collection requirement process, hơn nữa the key project deliverable là document trong project scope statement là output của define scope nên "identify key deliverable" nằm giữa collect requirement &amp; define scope</t>
+  </si>
+  <si>
+    <t>đọc lại phần project resource management về tổ chức dạng hierachical - type organization</t>
+  </si>
+  <si>
+    <t>note: An effective quality audit should be Structured and independent. Note audit</t>
   </si>
 </sst>
 </file>
@@ -1686,7 +1715,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1720,6 +1749,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1944,7 +1979,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2189,6 +2224,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="14" fillId="6" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="14" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -2214,6 +2252,18 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="7" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="8" fillId="7" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2536,8 +2586,8 @@
   </sheetPr>
   <dimension ref="A1:Z1003"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -2988,10 +3038,10 @@
       <c r="A13" s="88" t="s">
         <v>396</v>
       </c>
-      <c r="B13" s="76">
+      <c r="B13" s="90">
         <v>43455</v>
       </c>
-      <c r="C13" s="76" t="str">
+      <c r="C13" s="90" t="str">
         <f>IF(WEEKDAY(B13,1)=1,"Monday","Thứ "&amp;WEEKDAY(B13,1))</f>
         <v>Thứ 6</v>
       </c>
@@ -3024,20 +3074,20 @@
       <c r="Z13" s="56"/>
     </row>
     <row r="14" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A14" s="88" t="s">
+      <c r="A14" s="101" t="s">
         <v>397</v>
       </c>
-      <c r="B14" s="76">
+      <c r="B14" s="102">
         <v>43455</v>
       </c>
-      <c r="C14" s="76" t="str">
+      <c r="C14" s="102" t="str">
         <f t="shared" ref="C14:C15" si="1">IF(WEEKDAY(B14,1)=1,"Chủ nhật","Thứ "&amp;WEEKDAY(B14,1))</f>
         <v>Thứ 6</v>
       </c>
-      <c r="D14" s="77">
+      <c r="D14" s="103">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="E14" s="78" t="s">
+      <c r="E14" s="104" t="s">
         <v>395</v>
       </c>
       <c r="F14" s="55"/>
@@ -3066,11 +3116,11 @@
       <c r="A15" s="88" t="s">
         <v>372</v>
       </c>
-      <c r="B15" s="92">
+      <c r="B15" s="93">
         <f>B14+1</f>
         <v>43456</v>
       </c>
-      <c r="C15" s="92" t="str">
+      <c r="C15" s="93" t="str">
         <f t="shared" si="1"/>
         <v>Thứ 7</v>
       </c>
@@ -3106,8 +3156,8 @@
       <c r="A16" s="88" t="s">
         <v>360</v>
       </c>
-      <c r="B16" s="93"/>
-      <c r="C16" s="93"/>
+      <c r="B16" s="94"/>
+      <c r="C16" s="94"/>
       <c r="D16" s="77">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -3140,8 +3190,8 @@
       <c r="A17" s="88" t="s">
         <v>361</v>
       </c>
-      <c r="B17" s="93"/>
-      <c r="C17" s="93"/>
+      <c r="B17" s="94"/>
+      <c r="C17" s="94"/>
       <c r="D17" s="77">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -3254,11 +3304,11 @@
       <c r="A20" s="73" t="s">
         <v>373</v>
       </c>
-      <c r="B20" s="90">
+      <c r="B20" s="91">
         <f>B19+1</f>
         <v>43458</v>
       </c>
-      <c r="C20" s="90" t="str">
+      <c r="C20" s="91" t="str">
         <f t="shared" si="2"/>
         <v>Thứ 2</v>
       </c>
@@ -3292,8 +3342,8 @@
       <c r="A21" s="74" t="s">
         <v>362</v>
       </c>
-      <c r="B21" s="91"/>
-      <c r="C21" s="91"/>
+      <c r="B21" s="92"/>
+      <c r="C21" s="92"/>
       <c r="D21" s="70">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -3324,8 +3374,8 @@
       <c r="A22" s="73" t="s">
         <v>363</v>
       </c>
-      <c r="B22" s="91"/>
-      <c r="C22" s="91"/>
+      <c r="B22" s="92"/>
+      <c r="C22" s="92"/>
       <c r="D22" s="70">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -3432,11 +3482,11 @@
       <c r="A25" s="73" t="s">
         <v>374</v>
       </c>
-      <c r="B25" s="90">
+      <c r="B25" s="91">
         <f>B24+1</f>
         <v>43460</v>
       </c>
-      <c r="C25" s="90" t="str">
+      <c r="C25" s="91" t="str">
         <f t="shared" si="3"/>
         <v>Thứ 4</v>
       </c>
@@ -3470,8 +3520,8 @@
       <c r="A26" s="73" t="s">
         <v>364</v>
       </c>
-      <c r="B26" s="91"/>
-      <c r="C26" s="91"/>
+      <c r="B26" s="92"/>
+      <c r="C26" s="92"/>
       <c r="D26" s="70">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -3502,8 +3552,8 @@
       <c r="A27" s="73" t="s">
         <v>365</v>
       </c>
-      <c r="B27" s="91"/>
-      <c r="C27" s="91"/>
+      <c r="B27" s="92"/>
+      <c r="C27" s="92"/>
       <c r="D27" s="70">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -3686,11 +3736,11 @@
       <c r="A32" s="73" t="s">
         <v>367</v>
       </c>
-      <c r="B32" s="90">
+      <c r="B32" s="91">
         <f>B31+1</f>
         <v>43463</v>
       </c>
-      <c r="C32" s="90" t="str">
+      <c r="C32" s="91" t="str">
         <f t="shared" si="4"/>
         <v>Thứ 7</v>
       </c>
@@ -3724,8 +3774,8 @@
       <c r="A33" s="73" t="s">
         <v>404</v>
       </c>
-      <c r="B33" s="91"/>
-      <c r="C33" s="91"/>
+      <c r="B33" s="92"/>
+      <c r="C33" s="92"/>
       <c r="D33" s="70">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -3756,8 +3806,8 @@
       <c r="A34" s="73" t="s">
         <v>405</v>
       </c>
-      <c r="B34" s="91"/>
-      <c r="C34" s="91"/>
+      <c r="B34" s="92"/>
+      <c r="C34" s="92"/>
       <c r="D34" s="70">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -3864,11 +3914,11 @@
       <c r="A37" s="73" t="s">
         <v>369</v>
       </c>
-      <c r="B37" s="90">
+      <c r="B37" s="91">
         <f>B36+1</f>
         <v>43465</v>
       </c>
-      <c r="C37" s="90" t="str">
+      <c r="C37" s="91" t="str">
         <f t="shared" si="6"/>
         <v>Thứ 2</v>
       </c>
@@ -3902,8 +3952,8 @@
       <c r="A38" s="73" t="s">
         <v>406</v>
       </c>
-      <c r="B38" s="91"/>
-      <c r="C38" s="91"/>
+      <c r="B38" s="92"/>
+      <c r="C38" s="92"/>
       <c r="D38" s="70">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -3934,8 +3984,8 @@
       <c r="A39" s="73" t="s">
         <v>407</v>
       </c>
-      <c r="B39" s="91"/>
-      <c r="C39" s="91"/>
+      <c r="B39" s="92"/>
+      <c r="C39" s="92"/>
       <c r="D39" s="70">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -4042,11 +4092,11 @@
       <c r="A42" s="73" t="s">
         <v>371</v>
       </c>
-      <c r="B42" s="90">
+      <c r="B42" s="91">
         <f>B36+3</f>
         <v>43467</v>
       </c>
-      <c r="C42" s="90" t="str">
+      <c r="C42" s="91" t="str">
         <f t="shared" si="7"/>
         <v>Thứ 4</v>
       </c>
@@ -4080,8 +4130,8 @@
       <c r="A43" s="73" t="s">
         <v>408</v>
       </c>
-      <c r="B43" s="91"/>
-      <c r="C43" s="91"/>
+      <c r="B43" s="92"/>
+      <c r="C43" s="92"/>
       <c r="D43" s="70">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -4112,8 +4162,8 @@
       <c r="A44" s="73" t="s">
         <v>409</v>
       </c>
-      <c r="B44" s="91"/>
-      <c r="C44" s="91"/>
+      <c r="B44" s="92"/>
+      <c r="C44" s="92"/>
       <c r="D44" s="70">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -31214,18 +31264,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="C25:C27"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="C15:C17"/>
     <mergeCell ref="B42:B44"/>
     <mergeCell ref="C42:C44"/>
     <mergeCell ref="B32:B34"/>
     <mergeCell ref="C32:C34"/>
     <mergeCell ref="B37:B39"/>
     <mergeCell ref="C37:C39"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="C20:C22"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="C25:C27"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="C15:C17"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E66" xr:uid="{D8B43D4D-3767-4D7F-B59B-D7BBE30CC025}">
@@ -35023,152 +35073,152 @@
       <c r="A1" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="B1" s="94" t="s">
+      <c r="B1" s="95" t="s">
         <v>215</v>
       </c>
-      <c r="C1" s="95"/>
-      <c r="D1" s="95"/>
-      <c r="E1" s="95"/>
-      <c r="F1" s="95"/>
-      <c r="G1" s="95"/>
-      <c r="H1" s="95"/>
-      <c r="I1" s="95"/>
-      <c r="J1" s="95"/>
-      <c r="K1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="96"/>
+      <c r="K1" s="97"/>
     </row>
     <row r="2" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A2" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="B2" s="94" t="s">
+      <c r="B2" s="95" t="s">
         <v>216</v>
       </c>
-      <c r="C2" s="95"/>
-      <c r="D2" s="95"/>
-      <c r="E2" s="95"/>
-      <c r="F2" s="95"/>
-      <c r="G2" s="95"/>
-      <c r="H2" s="95"/>
-      <c r="I2" s="95"/>
-      <c r="J2" s="95"/>
-      <c r="K2" s="96"/>
+      <c r="C2" s="96"/>
+      <c r="D2" s="96"/>
+      <c r="E2" s="96"/>
+      <c r="F2" s="96"/>
+      <c r="G2" s="96"/>
+      <c r="H2" s="96"/>
+      <c r="I2" s="96"/>
+      <c r="J2" s="96"/>
+      <c r="K2" s="97"/>
     </row>
     <row r="3" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A3" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="B3" s="94" t="s">
+      <c r="B3" s="95" t="s">
         <v>217</v>
       </c>
-      <c r="C3" s="95"/>
-      <c r="D3" s="95"/>
-      <c r="E3" s="95"/>
-      <c r="F3" s="95"/>
-      <c r="G3" s="95"/>
-      <c r="H3" s="95"/>
-      <c r="I3" s="95"/>
-      <c r="J3" s="95"/>
-      <c r="K3" s="96"/>
+      <c r="C3" s="96"/>
+      <c r="D3" s="96"/>
+      <c r="E3" s="96"/>
+      <c r="F3" s="96"/>
+      <c r="G3" s="96"/>
+      <c r="H3" s="96"/>
+      <c r="I3" s="96"/>
+      <c r="J3" s="96"/>
+      <c r="K3" s="97"/>
     </row>
     <row r="4" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A4" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="B4" s="94" t="s">
+      <c r="B4" s="95" t="s">
         <v>218</v>
       </c>
-      <c r="C4" s="95"/>
-      <c r="D4" s="95"/>
-      <c r="E4" s="95"/>
-      <c r="F4" s="95"/>
-      <c r="G4" s="95"/>
-      <c r="H4" s="95"/>
-      <c r="I4" s="95"/>
-      <c r="J4" s="95"/>
-      <c r="K4" s="96"/>
+      <c r="C4" s="96"/>
+      <c r="D4" s="96"/>
+      <c r="E4" s="96"/>
+      <c r="F4" s="96"/>
+      <c r="G4" s="96"/>
+      <c r="H4" s="96"/>
+      <c r="I4" s="96"/>
+      <c r="J4" s="96"/>
+      <c r="K4" s="97"/>
     </row>
     <row r="5" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A5" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="B5" s="94" t="s">
+      <c r="B5" s="95" t="s">
         <v>219</v>
       </c>
-      <c r="C5" s="95"/>
-      <c r="D5" s="95"/>
-      <c r="E5" s="95"/>
-      <c r="F5" s="95"/>
-      <c r="G5" s="95"/>
-      <c r="H5" s="95"/>
-      <c r="I5" s="95"/>
-      <c r="J5" s="95"/>
-      <c r="K5" s="96"/>
+      <c r="C5" s="96"/>
+      <c r="D5" s="96"/>
+      <c r="E5" s="96"/>
+      <c r="F5" s="96"/>
+      <c r="G5" s="96"/>
+      <c r="H5" s="96"/>
+      <c r="I5" s="96"/>
+      <c r="J5" s="96"/>
+      <c r="K5" s="97"/>
     </row>
     <row r="6" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A6" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="B6" s="94" t="s">
+      <c r="B6" s="95" t="s">
         <v>220</v>
       </c>
-      <c r="C6" s="95"/>
-      <c r="D6" s="95"/>
-      <c r="E6" s="95"/>
-      <c r="F6" s="95"/>
-      <c r="G6" s="95"/>
-      <c r="H6" s="95"/>
-      <c r="I6" s="95"/>
-      <c r="J6" s="95"/>
-      <c r="K6" s="96"/>
+      <c r="C6" s="96"/>
+      <c r="D6" s="96"/>
+      <c r="E6" s="96"/>
+      <c r="F6" s="96"/>
+      <c r="G6" s="96"/>
+      <c r="H6" s="96"/>
+      <c r="I6" s="96"/>
+      <c r="J6" s="96"/>
+      <c r="K6" s="97"/>
     </row>
     <row r="7" spans="1:11" ht="30" customHeight="1" thickBot="1">
       <c r="A7" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="B7" s="94" t="s">
+      <c r="B7" s="95" t="s">
         <v>221</v>
       </c>
-      <c r="C7" s="95"/>
-      <c r="D7" s="95"/>
-      <c r="E7" s="95"/>
-      <c r="F7" s="95"/>
-      <c r="G7" s="95"/>
-      <c r="H7" s="95"/>
-      <c r="I7" s="95"/>
-      <c r="J7" s="95"/>
-      <c r="K7" s="96"/>
+      <c r="C7" s="96"/>
+      <c r="D7" s="96"/>
+      <c r="E7" s="96"/>
+      <c r="F7" s="96"/>
+      <c r="G7" s="96"/>
+      <c r="H7" s="96"/>
+      <c r="I7" s="96"/>
+      <c r="J7" s="96"/>
+      <c r="K7" s="97"/>
     </row>
     <row r="8" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A8" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="B8" s="94" t="s">
+      <c r="B8" s="95" t="s">
         <v>222</v>
       </c>
-      <c r="C8" s="95"/>
-      <c r="D8" s="95"/>
-      <c r="E8" s="95"/>
-      <c r="F8" s="95"/>
-      <c r="G8" s="95"/>
-      <c r="H8" s="95"/>
-      <c r="I8" s="95"/>
-      <c r="J8" s="95"/>
-      <c r="K8" s="96"/>
+      <c r="C8" s="96"/>
+      <c r="D8" s="96"/>
+      <c r="E8" s="96"/>
+      <c r="F8" s="96"/>
+      <c r="G8" s="96"/>
+      <c r="H8" s="96"/>
+      <c r="I8" s="96"/>
+      <c r="J8" s="96"/>
+      <c r="K8" s="97"/>
     </row>
     <row r="9" spans="1:11" ht="99.75" customHeight="1" thickBot="1">
       <c r="A9" s="10"/>
-      <c r="B9" s="97" t="s">
+      <c r="B9" s="98" t="s">
         <v>223</v>
       </c>
-      <c r="C9" s="98"/>
-      <c r="D9" s="98"/>
-      <c r="E9" s="98"/>
-      <c r="F9" s="98"/>
-      <c r="G9" s="98"/>
-      <c r="H9" s="98"/>
-      <c r="I9" s="98"/>
-      <c r="J9" s="98"/>
-      <c r="K9" s="99"/>
+      <c r="C9" s="99"/>
+      <c r="D9" s="99"/>
+      <c r="E9" s="99"/>
+      <c r="F9" s="99"/>
+      <c r="G9" s="99"/>
+      <c r="H9" s="99"/>
+      <c r="I9" s="99"/>
+      <c r="J9" s="99"/>
+      <c r="K9" s="100"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -35201,231 +35251,225 @@
       <c r="A1" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="B1" s="94" t="s">
+      <c r="B1" s="95" t="s">
         <v>127</v>
       </c>
-      <c r="C1" s="95"/>
-      <c r="D1" s="95"/>
-      <c r="E1" s="95"/>
-      <c r="F1" s="95"/>
-      <c r="G1" s="95"/>
-      <c r="H1" s="95"/>
-      <c r="I1" s="95"/>
-      <c r="J1" s="95"/>
-      <c r="K1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="96"/>
+      <c r="K1" s="97"/>
     </row>
     <row r="2" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A2" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="B2" s="94" t="s">
+      <c r="B2" s="95" t="s">
         <v>129</v>
       </c>
-      <c r="C2" s="95"/>
-      <c r="D2" s="95"/>
-      <c r="E2" s="95"/>
-      <c r="F2" s="95"/>
-      <c r="G2" s="95"/>
-      <c r="H2" s="95"/>
-      <c r="I2" s="95"/>
-      <c r="J2" s="95"/>
-      <c r="K2" s="96"/>
+      <c r="C2" s="96"/>
+      <c r="D2" s="96"/>
+      <c r="E2" s="96"/>
+      <c r="F2" s="96"/>
+      <c r="G2" s="96"/>
+      <c r="H2" s="96"/>
+      <c r="I2" s="96"/>
+      <c r="J2" s="96"/>
+      <c r="K2" s="97"/>
     </row>
     <row r="3" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A3" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="B3" s="94" t="s">
+      <c r="B3" s="95" t="s">
         <v>131</v>
       </c>
-      <c r="C3" s="95"/>
-      <c r="D3" s="95"/>
-      <c r="E3" s="95"/>
-      <c r="F3" s="95"/>
-      <c r="G3" s="95"/>
-      <c r="H3" s="95"/>
-      <c r="I3" s="95"/>
-      <c r="J3" s="95"/>
-      <c r="K3" s="96"/>
+      <c r="C3" s="96"/>
+      <c r="D3" s="96"/>
+      <c r="E3" s="96"/>
+      <c r="F3" s="96"/>
+      <c r="G3" s="96"/>
+      <c r="H3" s="96"/>
+      <c r="I3" s="96"/>
+      <c r="J3" s="96"/>
+      <c r="K3" s="97"/>
     </row>
     <row r="4" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A4" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="B4" s="94" t="s">
+      <c r="B4" s="95" t="s">
         <v>133</v>
       </c>
-      <c r="C4" s="95"/>
-      <c r="D4" s="95"/>
-      <c r="E4" s="95"/>
-      <c r="F4" s="95"/>
-      <c r="G4" s="95"/>
-      <c r="H4" s="95"/>
-      <c r="I4" s="95"/>
-      <c r="J4" s="95"/>
-      <c r="K4" s="96"/>
+      <c r="C4" s="96"/>
+      <c r="D4" s="96"/>
+      <c r="E4" s="96"/>
+      <c r="F4" s="96"/>
+      <c r="G4" s="96"/>
+      <c r="H4" s="96"/>
+      <c r="I4" s="96"/>
+      <c r="J4" s="96"/>
+      <c r="K4" s="97"/>
     </row>
     <row r="5" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A5" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="B5" s="94" t="s">
+      <c r="B5" s="95" t="s">
         <v>135</v>
       </c>
-      <c r="C5" s="95"/>
-      <c r="D5" s="95"/>
-      <c r="E5" s="95"/>
-      <c r="F5" s="95"/>
-      <c r="G5" s="95"/>
-      <c r="H5" s="95"/>
-      <c r="I5" s="95"/>
-      <c r="J5" s="95"/>
-      <c r="K5" s="96"/>
+      <c r="C5" s="96"/>
+      <c r="D5" s="96"/>
+      <c r="E5" s="96"/>
+      <c r="F5" s="96"/>
+      <c r="G5" s="96"/>
+      <c r="H5" s="96"/>
+      <c r="I5" s="96"/>
+      <c r="J5" s="96"/>
+      <c r="K5" s="97"/>
     </row>
     <row r="6" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A6" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="B6" s="94" t="s">
+      <c r="B6" s="95" t="s">
         <v>137</v>
       </c>
-      <c r="C6" s="95"/>
-      <c r="D6" s="95"/>
-      <c r="E6" s="95"/>
-      <c r="F6" s="95"/>
-      <c r="G6" s="95"/>
-      <c r="H6" s="95"/>
-      <c r="I6" s="95"/>
-      <c r="J6" s="95"/>
-      <c r="K6" s="96"/>
+      <c r="C6" s="96"/>
+      <c r="D6" s="96"/>
+      <c r="E6" s="96"/>
+      <c r="F6" s="96"/>
+      <c r="G6" s="96"/>
+      <c r="H6" s="96"/>
+      <c r="I6" s="96"/>
+      <c r="J6" s="96"/>
+      <c r="K6" s="97"/>
     </row>
     <row r="7" spans="1:11" ht="30" customHeight="1" thickBot="1">
       <c r="A7" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="B7" s="94" t="s">
+      <c r="B7" s="95" t="s">
         <v>139</v>
       </c>
-      <c r="C7" s="95"/>
-      <c r="D7" s="95"/>
-      <c r="E7" s="95"/>
-      <c r="F7" s="95"/>
-      <c r="G7" s="95"/>
-      <c r="H7" s="95"/>
-      <c r="I7" s="95"/>
-      <c r="J7" s="95"/>
-      <c r="K7" s="96"/>
+      <c r="C7" s="96"/>
+      <c r="D7" s="96"/>
+      <c r="E7" s="96"/>
+      <c r="F7" s="96"/>
+      <c r="G7" s="96"/>
+      <c r="H7" s="96"/>
+      <c r="I7" s="96"/>
+      <c r="J7" s="96"/>
+      <c r="K7" s="97"/>
     </row>
     <row r="8" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A8" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="B8" s="94" t="s">
+      <c r="B8" s="95" t="s">
         <v>141</v>
       </c>
-      <c r="C8" s="95"/>
-      <c r="D8" s="95"/>
-      <c r="E8" s="95"/>
-      <c r="F8" s="95"/>
-      <c r="G8" s="95"/>
-      <c r="H8" s="95"/>
-      <c r="I8" s="95"/>
-      <c r="J8" s="95"/>
-      <c r="K8" s="96"/>
+      <c r="C8" s="96"/>
+      <c r="D8" s="96"/>
+      <c r="E8" s="96"/>
+      <c r="F8" s="96"/>
+      <c r="G8" s="96"/>
+      <c r="H8" s="96"/>
+      <c r="I8" s="96"/>
+      <c r="J8" s="96"/>
+      <c r="K8" s="97"/>
     </row>
     <row r="9" spans="1:11" ht="30" customHeight="1" thickBot="1">
       <c r="A9" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="B9" s="94" t="s">
+      <c r="B9" s="95" t="s">
         <v>143</v>
       </c>
-      <c r="C9" s="95"/>
-      <c r="D9" s="95"/>
-      <c r="E9" s="95"/>
-      <c r="F9" s="95"/>
-      <c r="G9" s="95"/>
-      <c r="H9" s="95"/>
-      <c r="I9" s="95"/>
-      <c r="J9" s="95"/>
-      <c r="K9" s="96"/>
+      <c r="C9" s="96"/>
+      <c r="D9" s="96"/>
+      <c r="E9" s="96"/>
+      <c r="F9" s="96"/>
+      <c r="G9" s="96"/>
+      <c r="H9" s="96"/>
+      <c r="I9" s="96"/>
+      <c r="J9" s="96"/>
+      <c r="K9" s="97"/>
     </row>
     <row r="10" spans="1:11" ht="60" customHeight="1" thickBot="1">
       <c r="A10" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="B10" s="94" t="s">
+      <c r="B10" s="95" t="s">
         <v>145</v>
       </c>
-      <c r="C10" s="95"/>
-      <c r="D10" s="95"/>
-      <c r="E10" s="95"/>
-      <c r="F10" s="95"/>
-      <c r="G10" s="95"/>
-      <c r="H10" s="95"/>
-      <c r="I10" s="95"/>
-      <c r="J10" s="95"/>
-      <c r="K10" s="96"/>
+      <c r="C10" s="96"/>
+      <c r="D10" s="96"/>
+      <c r="E10" s="96"/>
+      <c r="F10" s="96"/>
+      <c r="G10" s="96"/>
+      <c r="H10" s="96"/>
+      <c r="I10" s="96"/>
+      <c r="J10" s="96"/>
+      <c r="K10" s="97"/>
     </row>
     <row r="11" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A11" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="B11" s="94" t="s">
+      <c r="B11" s="95" t="s">
         <v>147</v>
       </c>
-      <c r="C11" s="95"/>
-      <c r="D11" s="95"/>
-      <c r="E11" s="95"/>
-      <c r="F11" s="95"/>
-      <c r="G11" s="95"/>
-      <c r="H11" s="95"/>
-      <c r="I11" s="95"/>
-      <c r="J11" s="95"/>
-      <c r="K11" s="96"/>
+      <c r="C11" s="96"/>
+      <c r="D11" s="96"/>
+      <c r="E11" s="96"/>
+      <c r="F11" s="96"/>
+      <c r="G11" s="96"/>
+      <c r="H11" s="96"/>
+      <c r="I11" s="96"/>
+      <c r="J11" s="96"/>
+      <c r="K11" s="97"/>
     </row>
     <row r="12" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A12" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="B12" s="94" t="s">
+      <c r="B12" s="95" t="s">
         <v>149</v>
       </c>
-      <c r="C12" s="95"/>
-      <c r="D12" s="95"/>
-      <c r="E12" s="95"/>
-      <c r="F12" s="95"/>
-      <c r="G12" s="95"/>
-      <c r="H12" s="95"/>
-      <c r="I12" s="95"/>
-      <c r="J12" s="95"/>
-      <c r="K12" s="96"/>
+      <c r="C12" s="96"/>
+      <c r="D12" s="96"/>
+      <c r="E12" s="96"/>
+      <c r="F12" s="96"/>
+      <c r="G12" s="96"/>
+      <c r="H12" s="96"/>
+      <c r="I12" s="96"/>
+      <c r="J12" s="96"/>
+      <c r="K12" s="97"/>
     </row>
     <row r="13" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A13" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="B13" s="94" t="s">
+      <c r="B13" s="95" t="s">
         <v>151</v>
       </c>
-      <c r="C13" s="95"/>
-      <c r="D13" s="95"/>
-      <c r="E13" s="95"/>
-      <c r="F13" s="95"/>
-      <c r="G13" s="95"/>
-      <c r="H13" s="95"/>
-      <c r="I13" s="95"/>
-      <c r="J13" s="95"/>
-      <c r="K13" s="96"/>
+      <c r="C13" s="96"/>
+      <c r="D13" s="96"/>
+      <c r="E13" s="96"/>
+      <c r="F13" s="96"/>
+      <c r="G13" s="96"/>
+      <c r="H13" s="96"/>
+      <c r="I13" s="96"/>
+      <c r="J13" s="96"/>
+      <c r="K13" s="97"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B6:K6"/>
-    <mergeCell ref="B1:K1"/>
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="B3:K3"/>
-    <mergeCell ref="B4:K4"/>
-    <mergeCell ref="B5:K5"/>
     <mergeCell ref="B13:K13"/>
     <mergeCell ref="B7:K7"/>
     <mergeCell ref="B8:K8"/>
@@ -35433,6 +35477,12 @@
     <mergeCell ref="B10:K10"/>
     <mergeCell ref="B11:K11"/>
     <mergeCell ref="B12:K12"/>
+    <mergeCell ref="B6:K6"/>
+    <mergeCell ref="B1:K1"/>
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="B3:K3"/>
+    <mergeCell ref="B4:K4"/>
+    <mergeCell ref="B5:K5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -35451,120 +35501,120 @@
       <c r="A1" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="B1" s="94" t="s">
+      <c r="B1" s="95" t="s">
         <v>152</v>
       </c>
-      <c r="C1" s="95"/>
-      <c r="D1" s="95"/>
-      <c r="E1" s="95"/>
-      <c r="F1" s="95"/>
-      <c r="G1" s="95"/>
-      <c r="H1" s="95"/>
-      <c r="I1" s="95"/>
-      <c r="J1" s="95"/>
-      <c r="K1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="96"/>
+      <c r="K1" s="97"/>
     </row>
     <row r="2" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A2" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="B2" s="94" t="s">
+      <c r="B2" s="95" t="s">
         <v>153</v>
       </c>
-      <c r="C2" s="95"/>
-      <c r="D2" s="95"/>
-      <c r="E2" s="95"/>
-      <c r="F2" s="95"/>
-      <c r="G2" s="95"/>
-      <c r="H2" s="95"/>
-      <c r="I2" s="95"/>
-      <c r="J2" s="95"/>
-      <c r="K2" s="96"/>
+      <c r="C2" s="96"/>
+      <c r="D2" s="96"/>
+      <c r="E2" s="96"/>
+      <c r="F2" s="96"/>
+      <c r="G2" s="96"/>
+      <c r="H2" s="96"/>
+      <c r="I2" s="96"/>
+      <c r="J2" s="96"/>
+      <c r="K2" s="97"/>
     </row>
     <row r="3" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A3" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="B3" s="94" t="s">
+      <c r="B3" s="95" t="s">
         <v>154</v>
       </c>
-      <c r="C3" s="95"/>
-      <c r="D3" s="95"/>
-      <c r="E3" s="95"/>
-      <c r="F3" s="95"/>
-      <c r="G3" s="95"/>
-      <c r="H3" s="95"/>
-      <c r="I3" s="95"/>
-      <c r="J3" s="95"/>
-      <c r="K3" s="96"/>
+      <c r="C3" s="96"/>
+      <c r="D3" s="96"/>
+      <c r="E3" s="96"/>
+      <c r="F3" s="96"/>
+      <c r="G3" s="96"/>
+      <c r="H3" s="96"/>
+      <c r="I3" s="96"/>
+      <c r="J3" s="96"/>
+      <c r="K3" s="97"/>
     </row>
     <row r="4" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A4" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="B4" s="94" t="s">
+      <c r="B4" s="95" t="s">
         <v>158</v>
       </c>
-      <c r="C4" s="95"/>
-      <c r="D4" s="95"/>
-      <c r="E4" s="95"/>
-      <c r="F4" s="95"/>
-      <c r="G4" s="95"/>
-      <c r="H4" s="95"/>
-      <c r="I4" s="95"/>
-      <c r="J4" s="95"/>
-      <c r="K4" s="96"/>
+      <c r="C4" s="96"/>
+      <c r="D4" s="96"/>
+      <c r="E4" s="96"/>
+      <c r="F4" s="96"/>
+      <c r="G4" s="96"/>
+      <c r="H4" s="96"/>
+      <c r="I4" s="96"/>
+      <c r="J4" s="96"/>
+      <c r="K4" s="97"/>
     </row>
     <row r="5" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A5" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="B5" s="94" t="s">
+      <c r="B5" s="95" t="s">
         <v>155</v>
       </c>
-      <c r="C5" s="95"/>
-      <c r="D5" s="95"/>
-      <c r="E5" s="95"/>
-      <c r="F5" s="95"/>
-      <c r="G5" s="95"/>
-      <c r="H5" s="95"/>
-      <c r="I5" s="95"/>
-      <c r="J5" s="95"/>
-      <c r="K5" s="96"/>
+      <c r="C5" s="96"/>
+      <c r="D5" s="96"/>
+      <c r="E5" s="96"/>
+      <c r="F5" s="96"/>
+      <c r="G5" s="96"/>
+      <c r="H5" s="96"/>
+      <c r="I5" s="96"/>
+      <c r="J5" s="96"/>
+      <c r="K5" s="97"/>
     </row>
     <row r="6" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A6" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="B6" s="94" t="s">
+      <c r="B6" s="95" t="s">
         <v>156</v>
       </c>
-      <c r="C6" s="95"/>
-      <c r="D6" s="95"/>
-      <c r="E6" s="95"/>
-      <c r="F6" s="95"/>
-      <c r="G6" s="95"/>
-      <c r="H6" s="95"/>
-      <c r="I6" s="95"/>
-      <c r="J6" s="95"/>
-      <c r="K6" s="96"/>
+      <c r="C6" s="96"/>
+      <c r="D6" s="96"/>
+      <c r="E6" s="96"/>
+      <c r="F6" s="96"/>
+      <c r="G6" s="96"/>
+      <c r="H6" s="96"/>
+      <c r="I6" s="96"/>
+      <c r="J6" s="96"/>
+      <c r="K6" s="97"/>
     </row>
     <row r="7" spans="1:11" ht="30" customHeight="1" thickBot="1">
       <c r="A7" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="B7" s="94" t="s">
+      <c r="B7" s="95" t="s">
         <v>157</v>
       </c>
-      <c r="C7" s="95"/>
-      <c r="D7" s="95"/>
-      <c r="E7" s="95"/>
-      <c r="F7" s="95"/>
-      <c r="G7" s="95"/>
-      <c r="H7" s="95"/>
-      <c r="I7" s="95"/>
-      <c r="J7" s="95"/>
-      <c r="K7" s="96"/>
+      <c r="C7" s="96"/>
+      <c r="D7" s="96"/>
+      <c r="E7" s="96"/>
+      <c r="F7" s="96"/>
+      <c r="G7" s="96"/>
+      <c r="H7" s="96"/>
+      <c r="I7" s="96"/>
+      <c r="J7" s="96"/>
+      <c r="K7" s="97"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -35596,120 +35646,120 @@
       <c r="A1" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="B1" s="94" t="s">
+      <c r="B1" s="95" t="s">
         <v>159</v>
       </c>
-      <c r="C1" s="95"/>
-      <c r="D1" s="95"/>
-      <c r="E1" s="95"/>
-      <c r="F1" s="95"/>
-      <c r="G1" s="95"/>
-      <c r="H1" s="95"/>
-      <c r="I1" s="95"/>
-      <c r="J1" s="95"/>
-      <c r="K1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="96"/>
+      <c r="K1" s="97"/>
     </row>
     <row r="2" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A2" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="B2" s="94" t="s">
+      <c r="B2" s="95" t="s">
         <v>160</v>
       </c>
-      <c r="C2" s="95"/>
-      <c r="D2" s="95"/>
-      <c r="E2" s="95"/>
-      <c r="F2" s="95"/>
-      <c r="G2" s="95"/>
-      <c r="H2" s="95"/>
-      <c r="I2" s="95"/>
-      <c r="J2" s="95"/>
-      <c r="K2" s="96"/>
+      <c r="C2" s="96"/>
+      <c r="D2" s="96"/>
+      <c r="E2" s="96"/>
+      <c r="F2" s="96"/>
+      <c r="G2" s="96"/>
+      <c r="H2" s="96"/>
+      <c r="I2" s="96"/>
+      <c r="J2" s="96"/>
+      <c r="K2" s="97"/>
     </row>
     <row r="3" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A3" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="B3" s="94" t="s">
+      <c r="B3" s="95" t="s">
         <v>161</v>
       </c>
-      <c r="C3" s="95"/>
-      <c r="D3" s="95"/>
-      <c r="E3" s="95"/>
-      <c r="F3" s="95"/>
-      <c r="G3" s="95"/>
-      <c r="H3" s="95"/>
-      <c r="I3" s="95"/>
-      <c r="J3" s="95"/>
-      <c r="K3" s="96"/>
+      <c r="C3" s="96"/>
+      <c r="D3" s="96"/>
+      <c r="E3" s="96"/>
+      <c r="F3" s="96"/>
+      <c r="G3" s="96"/>
+      <c r="H3" s="96"/>
+      <c r="I3" s="96"/>
+      <c r="J3" s="96"/>
+      <c r="K3" s="97"/>
     </row>
     <row r="4" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A4" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="B4" s="94" t="s">
+      <c r="B4" s="95" t="s">
         <v>162</v>
       </c>
-      <c r="C4" s="95"/>
-      <c r="D4" s="95"/>
-      <c r="E4" s="95"/>
-      <c r="F4" s="95"/>
-      <c r="G4" s="95"/>
-      <c r="H4" s="95"/>
-      <c r="I4" s="95"/>
-      <c r="J4" s="95"/>
-      <c r="K4" s="96"/>
+      <c r="C4" s="96"/>
+      <c r="D4" s="96"/>
+      <c r="E4" s="96"/>
+      <c r="F4" s="96"/>
+      <c r="G4" s="96"/>
+      <c r="H4" s="96"/>
+      <c r="I4" s="96"/>
+      <c r="J4" s="96"/>
+      <c r="K4" s="97"/>
     </row>
     <row r="5" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A5" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="B5" s="94" t="s">
+      <c r="B5" s="95" t="s">
         <v>163</v>
       </c>
-      <c r="C5" s="95"/>
-      <c r="D5" s="95"/>
-      <c r="E5" s="95"/>
-      <c r="F5" s="95"/>
-      <c r="G5" s="95"/>
-      <c r="H5" s="95"/>
-      <c r="I5" s="95"/>
-      <c r="J5" s="95"/>
-      <c r="K5" s="96"/>
+      <c r="C5" s="96"/>
+      <c r="D5" s="96"/>
+      <c r="E5" s="96"/>
+      <c r="F5" s="96"/>
+      <c r="G5" s="96"/>
+      <c r="H5" s="96"/>
+      <c r="I5" s="96"/>
+      <c r="J5" s="96"/>
+      <c r="K5" s="97"/>
     </row>
     <row r="6" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A6" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="B6" s="94" t="s">
+      <c r="B6" s="95" t="s">
         <v>164</v>
       </c>
-      <c r="C6" s="95"/>
-      <c r="D6" s="95"/>
-      <c r="E6" s="95"/>
-      <c r="F6" s="95"/>
-      <c r="G6" s="95"/>
-      <c r="H6" s="95"/>
-      <c r="I6" s="95"/>
-      <c r="J6" s="95"/>
-      <c r="K6" s="96"/>
+      <c r="C6" s="96"/>
+      <c r="D6" s="96"/>
+      <c r="E6" s="96"/>
+      <c r="F6" s="96"/>
+      <c r="G6" s="96"/>
+      <c r="H6" s="96"/>
+      <c r="I6" s="96"/>
+      <c r="J6" s="96"/>
+      <c r="K6" s="97"/>
     </row>
     <row r="7" spans="1:11" ht="30" customHeight="1" thickBot="1">
       <c r="A7" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="B7" s="94" t="s">
+      <c r="B7" s="95" t="s">
         <v>165</v>
       </c>
-      <c r="C7" s="95"/>
-      <c r="D7" s="95"/>
-      <c r="E7" s="95"/>
-      <c r="F7" s="95"/>
-      <c r="G7" s="95"/>
-      <c r="H7" s="95"/>
-      <c r="I7" s="95"/>
-      <c r="J7" s="95"/>
-      <c r="K7" s="96"/>
+      <c r="C7" s="96"/>
+      <c r="D7" s="96"/>
+      <c r="E7" s="96"/>
+      <c r="F7" s="96"/>
+      <c r="G7" s="96"/>
+      <c r="H7" s="96"/>
+      <c r="I7" s="96"/>
+      <c r="J7" s="96"/>
+      <c r="K7" s="97"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -35741,135 +35791,135 @@
       <c r="A1" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="B1" s="94" t="s">
+      <c r="B1" s="95" t="s">
         <v>224</v>
       </c>
-      <c r="C1" s="95"/>
-      <c r="D1" s="95"/>
-      <c r="E1" s="95"/>
-      <c r="F1" s="95"/>
-      <c r="G1" s="95"/>
-      <c r="H1" s="95"/>
-      <c r="I1" s="95"/>
-      <c r="J1" s="95"/>
-      <c r="K1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="96"/>
+      <c r="K1" s="97"/>
     </row>
     <row r="2" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A2" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="B2" s="94" t="s">
+      <c r="B2" s="95" t="s">
         <v>225</v>
       </c>
-      <c r="C2" s="95"/>
-      <c r="D2" s="95"/>
-      <c r="E2" s="95"/>
-      <c r="F2" s="95"/>
-      <c r="G2" s="95"/>
-      <c r="H2" s="95"/>
-      <c r="I2" s="95"/>
-      <c r="J2" s="95"/>
-      <c r="K2" s="96"/>
+      <c r="C2" s="96"/>
+      <c r="D2" s="96"/>
+      <c r="E2" s="96"/>
+      <c r="F2" s="96"/>
+      <c r="G2" s="96"/>
+      <c r="H2" s="96"/>
+      <c r="I2" s="96"/>
+      <c r="J2" s="96"/>
+      <c r="K2" s="97"/>
     </row>
     <row r="3" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A3" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="B3" s="94" t="s">
+      <c r="B3" s="95" t="s">
         <v>226</v>
       </c>
-      <c r="C3" s="95"/>
-      <c r="D3" s="95"/>
-      <c r="E3" s="95"/>
-      <c r="F3" s="95"/>
-      <c r="G3" s="95"/>
-      <c r="H3" s="95"/>
-      <c r="I3" s="95"/>
-      <c r="J3" s="95"/>
-      <c r="K3" s="96"/>
+      <c r="C3" s="96"/>
+      <c r="D3" s="96"/>
+      <c r="E3" s="96"/>
+      <c r="F3" s="96"/>
+      <c r="G3" s="96"/>
+      <c r="H3" s="96"/>
+      <c r="I3" s="96"/>
+      <c r="J3" s="96"/>
+      <c r="K3" s="97"/>
     </row>
     <row r="4" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A4" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="B4" s="94" t="s">
+      <c r="B4" s="95" t="s">
         <v>227</v>
       </c>
-      <c r="C4" s="95"/>
-      <c r="D4" s="95"/>
-      <c r="E4" s="95"/>
-      <c r="F4" s="95"/>
-      <c r="G4" s="95"/>
-      <c r="H4" s="95"/>
-      <c r="I4" s="95"/>
-      <c r="J4" s="95"/>
-      <c r="K4" s="96"/>
+      <c r="C4" s="96"/>
+      <c r="D4" s="96"/>
+      <c r="E4" s="96"/>
+      <c r="F4" s="96"/>
+      <c r="G4" s="96"/>
+      <c r="H4" s="96"/>
+      <c r="I4" s="96"/>
+      <c r="J4" s="96"/>
+      <c r="K4" s="97"/>
     </row>
     <row r="5" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A5" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="B5" s="94" t="s">
+      <c r="B5" s="95" t="s">
         <v>228</v>
       </c>
-      <c r="C5" s="95"/>
-      <c r="D5" s="95"/>
-      <c r="E5" s="95"/>
-      <c r="F5" s="95"/>
-      <c r="G5" s="95"/>
-      <c r="H5" s="95"/>
-      <c r="I5" s="95"/>
-      <c r="J5" s="95"/>
-      <c r="K5" s="96"/>
+      <c r="C5" s="96"/>
+      <c r="D5" s="96"/>
+      <c r="E5" s="96"/>
+      <c r="F5" s="96"/>
+      <c r="G5" s="96"/>
+      <c r="H5" s="96"/>
+      <c r="I5" s="96"/>
+      <c r="J5" s="96"/>
+      <c r="K5" s="97"/>
     </row>
     <row r="6" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A6" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="B6" s="94" t="s">
+      <c r="B6" s="95" t="s">
         <v>229</v>
       </c>
-      <c r="C6" s="95"/>
-      <c r="D6" s="95"/>
-      <c r="E6" s="95"/>
-      <c r="F6" s="95"/>
-      <c r="G6" s="95"/>
-      <c r="H6" s="95"/>
-      <c r="I6" s="95"/>
-      <c r="J6" s="95"/>
-      <c r="K6" s="96"/>
+      <c r="C6" s="96"/>
+      <c r="D6" s="96"/>
+      <c r="E6" s="96"/>
+      <c r="F6" s="96"/>
+      <c r="G6" s="96"/>
+      <c r="H6" s="96"/>
+      <c r="I6" s="96"/>
+      <c r="J6" s="96"/>
+      <c r="K6" s="97"/>
     </row>
     <row r="7" spans="1:11" ht="30" customHeight="1" thickBot="1">
       <c r="A7" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="B7" s="94" t="s">
+      <c r="B7" s="95" t="s">
         <v>230</v>
       </c>
-      <c r="C7" s="95"/>
-      <c r="D7" s="95"/>
-      <c r="E7" s="95"/>
-      <c r="F7" s="95"/>
-      <c r="G7" s="95"/>
-      <c r="H7" s="95"/>
-      <c r="I7" s="95"/>
-      <c r="J7" s="95"/>
-      <c r="K7" s="96"/>
+      <c r="C7" s="96"/>
+      <c r="D7" s="96"/>
+      <c r="E7" s="96"/>
+      <c r="F7" s="96"/>
+      <c r="G7" s="96"/>
+      <c r="H7" s="96"/>
+      <c r="I7" s="96"/>
+      <c r="J7" s="96"/>
+      <c r="K7" s="97"/>
     </row>
     <row r="8" spans="1:11" ht="150.75" customHeight="1" thickBot="1">
       <c r="A8" s="10"/>
-      <c r="B8" s="97" t="s">
+      <c r="B8" s="98" t="s">
         <v>231</v>
       </c>
-      <c r="C8" s="98"/>
-      <c r="D8" s="98"/>
-      <c r="E8" s="98"/>
-      <c r="F8" s="98"/>
-      <c r="G8" s="98"/>
-      <c r="H8" s="98"/>
-      <c r="I8" s="98"/>
-      <c r="J8" s="98"/>
-      <c r="K8" s="99"/>
+      <c r="C8" s="99"/>
+      <c r="D8" s="99"/>
+      <c r="E8" s="99"/>
+      <c r="F8" s="99"/>
+      <c r="G8" s="99"/>
+      <c r="H8" s="99"/>
+      <c r="I8" s="99"/>
+      <c r="J8" s="99"/>
+      <c r="K8" s="100"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -35890,8 +35940,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50057963-75E5-4253-A7F5-E58A81C4C7B8}">
   <dimension ref="A1:G51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -35925,14 +35975,18 @@
         <v>166</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" ht="210">
       <c r="A2" s="83">
         <v>1</v>
       </c>
       <c r="B2" s="83"/>
-      <c r="C2" s="83"/>
+      <c r="C2" s="83" t="s">
+        <v>4</v>
+      </c>
       <c r="D2" s="83"/>
-      <c r="E2" s="86"/>
+      <c r="E2" s="86" t="s">
+        <v>460</v>
+      </c>
       <c r="F2" s="87"/>
     </row>
     <row r="3" spans="1:7">
@@ -36357,34 +36411,48 @@
       <c r="E44" s="86"/>
       <c r="F44" s="87"/>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" ht="30">
       <c r="A45" s="83">
         <v>44</v>
       </c>
       <c r="B45" s="83"/>
-      <c r="C45" s="83"/>
+      <c r="C45" s="83" t="s">
+        <v>4</v>
+      </c>
       <c r="D45" s="83"/>
-      <c r="E45" s="86"/>
+      <c r="E45" s="86" t="s">
+        <v>467</v>
+      </c>
       <c r="F45" s="87"/>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" ht="30">
       <c r="A46" s="83">
         <v>45</v>
       </c>
       <c r="B46" s="83"/>
-      <c r="C46" s="83"/>
+      <c r="C46" s="83" t="s">
+        <v>4</v>
+      </c>
       <c r="D46" s="83"/>
-      <c r="E46" s="86"/>
+      <c r="E46" s="86" t="s">
+        <v>466</v>
+      </c>
       <c r="F46" s="87"/>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" ht="105">
       <c r="A47" s="83">
         <v>46</v>
       </c>
       <c r="B47" s="83"/>
-      <c r="C47" s="83"/>
-      <c r="D47" s="83"/>
-      <c r="E47" s="86"/>
+      <c r="C47" s="83" t="s">
+        <v>4</v>
+      </c>
+      <c r="D47" s="83" t="s">
+        <v>464</v>
+      </c>
+      <c r="E47" s="86" t="s">
+        <v>465</v>
+      </c>
       <c r="F47" s="87"/>
     </row>
     <row r="48" spans="1:6">
@@ -36394,7 +36462,9 @@
       <c r="B48" s="83"/>
       <c r="C48" s="83"/>
       <c r="D48" s="83"/>
-      <c r="E48" s="86"/>
+      <c r="E48" s="86" t="s">
+        <v>463</v>
+      </c>
       <c r="F48" s="87"/>
     </row>
     <row r="49" spans="1:6">
@@ -36407,24 +36477,30 @@
       <c r="E49" s="86"/>
       <c r="F49" s="87"/>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" ht="30">
       <c r="A50" s="83">
         <v>49</v>
       </c>
       <c r="B50" s="83"/>
-      <c r="C50" s="83"/>
+      <c r="C50" s="83" t="s">
+        <v>4</v>
+      </c>
       <c r="D50" s="83"/>
-      <c r="E50" s="86"/>
+      <c r="E50" s="86" t="s">
+        <v>462</v>
+      </c>
       <c r="F50" s="87"/>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" ht="75">
       <c r="A51" s="83">
         <v>50</v>
       </c>
       <c r="B51" s="83"/>
       <c r="C51" s="83"/>
       <c r="D51" s="83"/>
-      <c r="E51" s="86"/>
+      <c r="E51" s="86" t="s">
+        <v>461</v>
+      </c>
       <c r="F51" s="87"/>
     </row>
   </sheetData>
@@ -36449,7 +36525,7 @@
   <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -36798,7 +36874,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FCB690D-227C-45AA-9C93-A22E8FEE0210}">
   <dimension ref="A1:G51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
@@ -37403,7 +37479,7 @@
   <dimension ref="A1:G51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E36" sqref="A1:XFD1048576"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/10_Management/Exam_PMP_TangToc_07032019.xlsx
+++ b/10_Management/Exam_PMP_TangToc_07032019.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Working\EBill\10_Management\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\EBill\10_Management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67C81B66-ED7C-4DD0-A699-672718651C15}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBED4078-6720-4670-B754-B89702F55F02}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="12000" windowHeight="6405" activeTab="1" xr2:uid="{957D22A2-4D54-4148-9DDE-7A2AF7FA87D7}"/>
   </bookViews>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="887" uniqueCount="468">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="473">
   <si>
     <t>No</t>
   </si>
@@ -1605,6 +1605,21 @@
   </si>
   <si>
     <t>note: An effective quality audit should be Structured and independent. Note audit</t>
+  </si>
+  <si>
+    <t>Save time tốt nhất cho việc create wbs: Creating the WBS is a very important process, but often a previous WBS can be used as a template to save time and avoid the risk of forgetting something important</t>
+  </si>
+  <si>
+    <t>Note: cần nắm được cách làm, phân loại risk theo risk category để đảm bảo process toàn diện</t>
+  </si>
+  <si>
+    <t>Hạn chế chọn những đáp án vô nghĩa. Note: identity risk process is an ongoing. Iteractive risks thường được identified throught project's life cycle</t>
+  </si>
+  <si>
+    <t>Note: requirement traceability matrix là output của collect requirement process nó dùng để tracing project scope, objectives và test strategy, không có trong requirement project risk</t>
+  </si>
+  <si>
+    <t>cần xem lại một số tool trng phần control quality process. Data analyis là tool mục đích để identity source of defect</t>
   </si>
 </sst>
 </file>
@@ -2227,6 +2242,18 @@
     <xf numFmtId="14" fontId="14" fillId="6" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="7" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="8" fillId="7" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="14" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -2252,18 +2279,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="7" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="8" fillId="7" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3074,20 +3089,20 @@
       <c r="Z13" s="56"/>
     </row>
     <row r="14" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A14" s="101" t="s">
+      <c r="A14" s="91" t="s">
         <v>397</v>
       </c>
-      <c r="B14" s="102">
+      <c r="B14" s="92">
         <v>43455</v>
       </c>
-      <c r="C14" s="102" t="str">
+      <c r="C14" s="92" t="str">
         <f t="shared" ref="C14:C15" si="1">IF(WEEKDAY(B14,1)=1,"Chủ nhật","Thứ "&amp;WEEKDAY(B14,1))</f>
         <v>Thứ 6</v>
       </c>
-      <c r="D14" s="103">
+      <c r="D14" s="93">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="E14" s="104" t="s">
+      <c r="E14" s="94" t="s">
         <v>395</v>
       </c>
       <c r="F14" s="55"/>
@@ -3116,11 +3131,11 @@
       <c r="A15" s="88" t="s">
         <v>372</v>
       </c>
-      <c r="B15" s="93">
+      <c r="B15" s="97">
         <f>B14+1</f>
         <v>43456</v>
       </c>
-      <c r="C15" s="93" t="str">
+      <c r="C15" s="97" t="str">
         <f t="shared" si="1"/>
         <v>Thứ 7</v>
       </c>
@@ -3156,8 +3171,8 @@
       <c r="A16" s="88" t="s">
         <v>360</v>
       </c>
-      <c r="B16" s="94"/>
-      <c r="C16" s="94"/>
+      <c r="B16" s="98"/>
+      <c r="C16" s="98"/>
       <c r="D16" s="77">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -3190,8 +3205,8 @@
       <c r="A17" s="88" t="s">
         <v>361</v>
       </c>
-      <c r="B17" s="94"/>
-      <c r="C17" s="94"/>
+      <c r="B17" s="98"/>
+      <c r="C17" s="98"/>
       <c r="D17" s="77">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -3304,11 +3319,11 @@
       <c r="A20" s="73" t="s">
         <v>373</v>
       </c>
-      <c r="B20" s="91">
+      <c r="B20" s="95">
         <f>B19+1</f>
         <v>43458</v>
       </c>
-      <c r="C20" s="91" t="str">
+      <c r="C20" s="95" t="str">
         <f t="shared" si="2"/>
         <v>Thứ 2</v>
       </c>
@@ -3342,8 +3357,8 @@
       <c r="A21" s="74" t="s">
         <v>362</v>
       </c>
-      <c r="B21" s="92"/>
-      <c r="C21" s="92"/>
+      <c r="B21" s="96"/>
+      <c r="C21" s="96"/>
       <c r="D21" s="70">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -3374,8 +3389,8 @@
       <c r="A22" s="73" t="s">
         <v>363</v>
       </c>
-      <c r="B22" s="92"/>
-      <c r="C22" s="92"/>
+      <c r="B22" s="96"/>
+      <c r="C22" s="96"/>
       <c r="D22" s="70">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -3482,11 +3497,11 @@
       <c r="A25" s="73" t="s">
         <v>374</v>
       </c>
-      <c r="B25" s="91">
+      <c r="B25" s="95">
         <f>B24+1</f>
         <v>43460</v>
       </c>
-      <c r="C25" s="91" t="str">
+      <c r="C25" s="95" t="str">
         <f t="shared" si="3"/>
         <v>Thứ 4</v>
       </c>
@@ -3520,8 +3535,8 @@
       <c r="A26" s="73" t="s">
         <v>364</v>
       </c>
-      <c r="B26" s="92"/>
-      <c r="C26" s="92"/>
+      <c r="B26" s="96"/>
+      <c r="C26" s="96"/>
       <c r="D26" s="70">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -3552,8 +3567,8 @@
       <c r="A27" s="73" t="s">
         <v>365</v>
       </c>
-      <c r="B27" s="92"/>
-      <c r="C27" s="92"/>
+      <c r="B27" s="96"/>
+      <c r="C27" s="96"/>
       <c r="D27" s="70">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -3736,11 +3751,11 @@
       <c r="A32" s="73" t="s">
         <v>367</v>
       </c>
-      <c r="B32" s="91">
+      <c r="B32" s="95">
         <f>B31+1</f>
         <v>43463</v>
       </c>
-      <c r="C32" s="91" t="str">
+      <c r="C32" s="95" t="str">
         <f t="shared" si="4"/>
         <v>Thứ 7</v>
       </c>
@@ -3774,8 +3789,8 @@
       <c r="A33" s="73" t="s">
         <v>404</v>
       </c>
-      <c r="B33" s="92"/>
-      <c r="C33" s="92"/>
+      <c r="B33" s="96"/>
+      <c r="C33" s="96"/>
       <c r="D33" s="70">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -3806,8 +3821,8 @@
       <c r="A34" s="73" t="s">
         <v>405</v>
       </c>
-      <c r="B34" s="92"/>
-      <c r="C34" s="92"/>
+      <c r="B34" s="96"/>
+      <c r="C34" s="96"/>
       <c r="D34" s="70">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -3914,11 +3929,11 @@
       <c r="A37" s="73" t="s">
         <v>369</v>
       </c>
-      <c r="B37" s="91">
+      <c r="B37" s="95">
         <f>B36+1</f>
         <v>43465</v>
       </c>
-      <c r="C37" s="91" t="str">
+      <c r="C37" s="95" t="str">
         <f t="shared" si="6"/>
         <v>Thứ 2</v>
       </c>
@@ -3952,8 +3967,8 @@
       <c r="A38" s="73" t="s">
         <v>406</v>
       </c>
-      <c r="B38" s="92"/>
-      <c r="C38" s="92"/>
+      <c r="B38" s="96"/>
+      <c r="C38" s="96"/>
       <c r="D38" s="70">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -3984,8 +3999,8 @@
       <c r="A39" s="73" t="s">
         <v>407</v>
       </c>
-      <c r="B39" s="92"/>
-      <c r="C39" s="92"/>
+      <c r="B39" s="96"/>
+      <c r="C39" s="96"/>
       <c r="D39" s="70">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -4092,11 +4107,11 @@
       <c r="A42" s="73" t="s">
         <v>371</v>
       </c>
-      <c r="B42" s="91">
+      <c r="B42" s="95">
         <f>B36+3</f>
         <v>43467</v>
       </c>
-      <c r="C42" s="91" t="str">
+      <c r="C42" s="95" t="str">
         <f t="shared" si="7"/>
         <v>Thứ 4</v>
       </c>
@@ -4130,8 +4145,8 @@
       <c r="A43" s="73" t="s">
         <v>408</v>
       </c>
-      <c r="B43" s="92"/>
-      <c r="C43" s="92"/>
+      <c r="B43" s="96"/>
+      <c r="C43" s="96"/>
       <c r="D43" s="70">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -4162,8 +4177,8 @@
       <c r="A44" s="73" t="s">
         <v>409</v>
       </c>
-      <c r="B44" s="92"/>
-      <c r="C44" s="92"/>
+      <c r="B44" s="96"/>
+      <c r="C44" s="96"/>
       <c r="D44" s="70">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -31264,18 +31279,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="C42:C44"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="C37:C39"/>
     <mergeCell ref="B20:B22"/>
     <mergeCell ref="C20:C22"/>
     <mergeCell ref="B25:B27"/>
     <mergeCell ref="C25:C27"/>
     <mergeCell ref="B15:B17"/>
     <mergeCell ref="C15:C17"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="C42:C44"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="C32:C34"/>
-    <mergeCell ref="B37:B39"/>
-    <mergeCell ref="C37:C39"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E66" xr:uid="{D8B43D4D-3767-4D7F-B59B-D7BBE30CC025}">
@@ -35073,152 +35088,152 @@
       <c r="A1" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="B1" s="95" t="s">
+      <c r="B1" s="99" t="s">
         <v>215</v>
       </c>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="96"/>
-      <c r="F1" s="96"/>
-      <c r="G1" s="96"/>
-      <c r="H1" s="96"/>
-      <c r="I1" s="96"/>
-      <c r="J1" s="96"/>
-      <c r="K1" s="97"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="100"/>
+      <c r="H1" s="100"/>
+      <c r="I1" s="100"/>
+      <c r="J1" s="100"/>
+      <c r="K1" s="101"/>
     </row>
     <row r="2" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A2" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="B2" s="95" t="s">
+      <c r="B2" s="99" t="s">
         <v>216</v>
       </c>
-      <c r="C2" s="96"/>
-      <c r="D2" s="96"/>
-      <c r="E2" s="96"/>
-      <c r="F2" s="96"/>
-      <c r="G2" s="96"/>
-      <c r="H2" s="96"/>
-      <c r="I2" s="96"/>
-      <c r="J2" s="96"/>
-      <c r="K2" s="97"/>
+      <c r="C2" s="100"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="100"/>
+      <c r="G2" s="100"/>
+      <c r="H2" s="100"/>
+      <c r="I2" s="100"/>
+      <c r="J2" s="100"/>
+      <c r="K2" s="101"/>
     </row>
     <row r="3" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A3" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="B3" s="95" t="s">
+      <c r="B3" s="99" t="s">
         <v>217</v>
       </c>
-      <c r="C3" s="96"/>
-      <c r="D3" s="96"/>
-      <c r="E3" s="96"/>
-      <c r="F3" s="96"/>
-      <c r="G3" s="96"/>
-      <c r="H3" s="96"/>
-      <c r="I3" s="96"/>
-      <c r="J3" s="96"/>
-      <c r="K3" s="97"/>
+      <c r="C3" s="100"/>
+      <c r="D3" s="100"/>
+      <c r="E3" s="100"/>
+      <c r="F3" s="100"/>
+      <c r="G3" s="100"/>
+      <c r="H3" s="100"/>
+      <c r="I3" s="100"/>
+      <c r="J3" s="100"/>
+      <c r="K3" s="101"/>
     </row>
     <row r="4" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A4" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="B4" s="95" t="s">
+      <c r="B4" s="99" t="s">
         <v>218</v>
       </c>
-      <c r="C4" s="96"/>
-      <c r="D4" s="96"/>
-      <c r="E4" s="96"/>
-      <c r="F4" s="96"/>
-      <c r="G4" s="96"/>
-      <c r="H4" s="96"/>
-      <c r="I4" s="96"/>
-      <c r="J4" s="96"/>
-      <c r="K4" s="97"/>
+      <c r="C4" s="100"/>
+      <c r="D4" s="100"/>
+      <c r="E4" s="100"/>
+      <c r="F4" s="100"/>
+      <c r="G4" s="100"/>
+      <c r="H4" s="100"/>
+      <c r="I4" s="100"/>
+      <c r="J4" s="100"/>
+      <c r="K4" s="101"/>
     </row>
     <row r="5" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A5" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="B5" s="95" t="s">
+      <c r="B5" s="99" t="s">
         <v>219</v>
       </c>
-      <c r="C5" s="96"/>
-      <c r="D5" s="96"/>
-      <c r="E5" s="96"/>
-      <c r="F5" s="96"/>
-      <c r="G5" s="96"/>
-      <c r="H5" s="96"/>
-      <c r="I5" s="96"/>
-      <c r="J5" s="96"/>
-      <c r="K5" s="97"/>
+      <c r="C5" s="100"/>
+      <c r="D5" s="100"/>
+      <c r="E5" s="100"/>
+      <c r="F5" s="100"/>
+      <c r="G5" s="100"/>
+      <c r="H5" s="100"/>
+      <c r="I5" s="100"/>
+      <c r="J5" s="100"/>
+      <c r="K5" s="101"/>
     </row>
     <row r="6" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A6" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="B6" s="95" t="s">
+      <c r="B6" s="99" t="s">
         <v>220</v>
       </c>
-      <c r="C6" s="96"/>
-      <c r="D6" s="96"/>
-      <c r="E6" s="96"/>
-      <c r="F6" s="96"/>
-      <c r="G6" s="96"/>
-      <c r="H6" s="96"/>
-      <c r="I6" s="96"/>
-      <c r="J6" s="96"/>
-      <c r="K6" s="97"/>
+      <c r="C6" s="100"/>
+      <c r="D6" s="100"/>
+      <c r="E6" s="100"/>
+      <c r="F6" s="100"/>
+      <c r="G6" s="100"/>
+      <c r="H6" s="100"/>
+      <c r="I6" s="100"/>
+      <c r="J6" s="100"/>
+      <c r="K6" s="101"/>
     </row>
     <row r="7" spans="1:11" ht="30" customHeight="1" thickBot="1">
       <c r="A7" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="B7" s="95" t="s">
+      <c r="B7" s="99" t="s">
         <v>221</v>
       </c>
-      <c r="C7" s="96"/>
-      <c r="D7" s="96"/>
-      <c r="E7" s="96"/>
-      <c r="F7" s="96"/>
-      <c r="G7" s="96"/>
-      <c r="H7" s="96"/>
-      <c r="I7" s="96"/>
-      <c r="J7" s="96"/>
-      <c r="K7" s="97"/>
+      <c r="C7" s="100"/>
+      <c r="D7" s="100"/>
+      <c r="E7" s="100"/>
+      <c r="F7" s="100"/>
+      <c r="G7" s="100"/>
+      <c r="H7" s="100"/>
+      <c r="I7" s="100"/>
+      <c r="J7" s="100"/>
+      <c r="K7" s="101"/>
     </row>
     <row r="8" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A8" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="B8" s="95" t="s">
+      <c r="B8" s="99" t="s">
         <v>222</v>
       </c>
-      <c r="C8" s="96"/>
-      <c r="D8" s="96"/>
-      <c r="E8" s="96"/>
-      <c r="F8" s="96"/>
-      <c r="G8" s="96"/>
-      <c r="H8" s="96"/>
-      <c r="I8" s="96"/>
-      <c r="J8" s="96"/>
-      <c r="K8" s="97"/>
+      <c r="C8" s="100"/>
+      <c r="D8" s="100"/>
+      <c r="E8" s="100"/>
+      <c r="F8" s="100"/>
+      <c r="G8" s="100"/>
+      <c r="H8" s="100"/>
+      <c r="I8" s="100"/>
+      <c r="J8" s="100"/>
+      <c r="K8" s="101"/>
     </row>
     <row r="9" spans="1:11" ht="99.75" customHeight="1" thickBot="1">
       <c r="A9" s="10"/>
-      <c r="B9" s="98" t="s">
+      <c r="B9" s="102" t="s">
         <v>223</v>
       </c>
-      <c r="C9" s="99"/>
-      <c r="D9" s="99"/>
-      <c r="E9" s="99"/>
-      <c r="F9" s="99"/>
-      <c r="G9" s="99"/>
-      <c r="H9" s="99"/>
-      <c r="I9" s="99"/>
-      <c r="J9" s="99"/>
-      <c r="K9" s="100"/>
+      <c r="C9" s="103"/>
+      <c r="D9" s="103"/>
+      <c r="E9" s="103"/>
+      <c r="F9" s="103"/>
+      <c r="G9" s="103"/>
+      <c r="H9" s="103"/>
+      <c r="I9" s="103"/>
+      <c r="J9" s="103"/>
+      <c r="K9" s="104"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -35251,225 +35266,231 @@
       <c r="A1" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="B1" s="95" t="s">
+      <c r="B1" s="99" t="s">
         <v>127</v>
       </c>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="96"/>
-      <c r="F1" s="96"/>
-      <c r="G1" s="96"/>
-      <c r="H1" s="96"/>
-      <c r="I1" s="96"/>
-      <c r="J1" s="96"/>
-      <c r="K1" s="97"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="100"/>
+      <c r="H1" s="100"/>
+      <c r="I1" s="100"/>
+      <c r="J1" s="100"/>
+      <c r="K1" s="101"/>
     </row>
     <row r="2" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A2" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="B2" s="95" t="s">
+      <c r="B2" s="99" t="s">
         <v>129</v>
       </c>
-      <c r="C2" s="96"/>
-      <c r="D2" s="96"/>
-      <c r="E2" s="96"/>
-      <c r="F2" s="96"/>
-      <c r="G2" s="96"/>
-      <c r="H2" s="96"/>
-      <c r="I2" s="96"/>
-      <c r="J2" s="96"/>
-      <c r="K2" s="97"/>
+      <c r="C2" s="100"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="100"/>
+      <c r="G2" s="100"/>
+      <c r="H2" s="100"/>
+      <c r="I2" s="100"/>
+      <c r="J2" s="100"/>
+      <c r="K2" s="101"/>
     </row>
     <row r="3" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A3" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="B3" s="95" t="s">
+      <c r="B3" s="99" t="s">
         <v>131</v>
       </c>
-      <c r="C3" s="96"/>
-      <c r="D3" s="96"/>
-      <c r="E3" s="96"/>
-      <c r="F3" s="96"/>
-      <c r="G3" s="96"/>
-      <c r="H3" s="96"/>
-      <c r="I3" s="96"/>
-      <c r="J3" s="96"/>
-      <c r="K3" s="97"/>
+      <c r="C3" s="100"/>
+      <c r="D3" s="100"/>
+      <c r="E3" s="100"/>
+      <c r="F3" s="100"/>
+      <c r="G3" s="100"/>
+      <c r="H3" s="100"/>
+      <c r="I3" s="100"/>
+      <c r="J3" s="100"/>
+      <c r="K3" s="101"/>
     </row>
     <row r="4" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A4" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="B4" s="95" t="s">
+      <c r="B4" s="99" t="s">
         <v>133</v>
       </c>
-      <c r="C4" s="96"/>
-      <c r="D4" s="96"/>
-      <c r="E4" s="96"/>
-      <c r="F4" s="96"/>
-      <c r="G4" s="96"/>
-      <c r="H4" s="96"/>
-      <c r="I4" s="96"/>
-      <c r="J4" s="96"/>
-      <c r="K4" s="97"/>
+      <c r="C4" s="100"/>
+      <c r="D4" s="100"/>
+      <c r="E4" s="100"/>
+      <c r="F4" s="100"/>
+      <c r="G4" s="100"/>
+      <c r="H4" s="100"/>
+      <c r="I4" s="100"/>
+      <c r="J4" s="100"/>
+      <c r="K4" s="101"/>
     </row>
     <row r="5" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A5" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="B5" s="95" t="s">
+      <c r="B5" s="99" t="s">
         <v>135</v>
       </c>
-      <c r="C5" s="96"/>
-      <c r="D5" s="96"/>
-      <c r="E5" s="96"/>
-      <c r="F5" s="96"/>
-      <c r="G5" s="96"/>
-      <c r="H5" s="96"/>
-      <c r="I5" s="96"/>
-      <c r="J5" s="96"/>
-      <c r="K5" s="97"/>
+      <c r="C5" s="100"/>
+      <c r="D5" s="100"/>
+      <c r="E5" s="100"/>
+      <c r="F5" s="100"/>
+      <c r="G5" s="100"/>
+      <c r="H5" s="100"/>
+      <c r="I5" s="100"/>
+      <c r="J5" s="100"/>
+      <c r="K5" s="101"/>
     </row>
     <row r="6" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A6" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="B6" s="95" t="s">
+      <c r="B6" s="99" t="s">
         <v>137</v>
       </c>
-      <c r="C6" s="96"/>
-      <c r="D6" s="96"/>
-      <c r="E6" s="96"/>
-      <c r="F6" s="96"/>
-      <c r="G6" s="96"/>
-      <c r="H6" s="96"/>
-      <c r="I6" s="96"/>
-      <c r="J6" s="96"/>
-      <c r="K6" s="97"/>
+      <c r="C6" s="100"/>
+      <c r="D6" s="100"/>
+      <c r="E6" s="100"/>
+      <c r="F6" s="100"/>
+      <c r="G6" s="100"/>
+      <c r="H6" s="100"/>
+      <c r="I6" s="100"/>
+      <c r="J6" s="100"/>
+      <c r="K6" s="101"/>
     </row>
     <row r="7" spans="1:11" ht="30" customHeight="1" thickBot="1">
       <c r="A7" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="B7" s="95" t="s">
+      <c r="B7" s="99" t="s">
         <v>139</v>
       </c>
-      <c r="C7" s="96"/>
-      <c r="D7" s="96"/>
-      <c r="E7" s="96"/>
-      <c r="F7" s="96"/>
-      <c r="G7" s="96"/>
-      <c r="H7" s="96"/>
-      <c r="I7" s="96"/>
-      <c r="J7" s="96"/>
-      <c r="K7" s="97"/>
+      <c r="C7" s="100"/>
+      <c r="D7" s="100"/>
+      <c r="E7" s="100"/>
+      <c r="F7" s="100"/>
+      <c r="G7" s="100"/>
+      <c r="H7" s="100"/>
+      <c r="I7" s="100"/>
+      <c r="J7" s="100"/>
+      <c r="K7" s="101"/>
     </row>
     <row r="8" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A8" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="B8" s="95" t="s">
+      <c r="B8" s="99" t="s">
         <v>141</v>
       </c>
-      <c r="C8" s="96"/>
-      <c r="D8" s="96"/>
-      <c r="E8" s="96"/>
-      <c r="F8" s="96"/>
-      <c r="G8" s="96"/>
-      <c r="H8" s="96"/>
-      <c r="I8" s="96"/>
-      <c r="J8" s="96"/>
-      <c r="K8" s="97"/>
+      <c r="C8" s="100"/>
+      <c r="D8" s="100"/>
+      <c r="E8" s="100"/>
+      <c r="F8" s="100"/>
+      <c r="G8" s="100"/>
+      <c r="H8" s="100"/>
+      <c r="I8" s="100"/>
+      <c r="J8" s="100"/>
+      <c r="K8" s="101"/>
     </row>
     <row r="9" spans="1:11" ht="30" customHeight="1" thickBot="1">
       <c r="A9" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="B9" s="95" t="s">
+      <c r="B9" s="99" t="s">
         <v>143</v>
       </c>
-      <c r="C9" s="96"/>
-      <c r="D9" s="96"/>
-      <c r="E9" s="96"/>
-      <c r="F9" s="96"/>
-      <c r="G9" s="96"/>
-      <c r="H9" s="96"/>
-      <c r="I9" s="96"/>
-      <c r="J9" s="96"/>
-      <c r="K9" s="97"/>
+      <c r="C9" s="100"/>
+      <c r="D9" s="100"/>
+      <c r="E9" s="100"/>
+      <c r="F9" s="100"/>
+      <c r="G9" s="100"/>
+      <c r="H9" s="100"/>
+      <c r="I9" s="100"/>
+      <c r="J9" s="100"/>
+      <c r="K9" s="101"/>
     </row>
     <row r="10" spans="1:11" ht="60" customHeight="1" thickBot="1">
       <c r="A10" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="B10" s="95" t="s">
+      <c r="B10" s="99" t="s">
         <v>145</v>
       </c>
-      <c r="C10" s="96"/>
-      <c r="D10" s="96"/>
-      <c r="E10" s="96"/>
-      <c r="F10" s="96"/>
-      <c r="G10" s="96"/>
-      <c r="H10" s="96"/>
-      <c r="I10" s="96"/>
-      <c r="J10" s="96"/>
-      <c r="K10" s="97"/>
+      <c r="C10" s="100"/>
+      <c r="D10" s="100"/>
+      <c r="E10" s="100"/>
+      <c r="F10" s="100"/>
+      <c r="G10" s="100"/>
+      <c r="H10" s="100"/>
+      <c r="I10" s="100"/>
+      <c r="J10" s="100"/>
+      <c r="K10" s="101"/>
     </row>
     <row r="11" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A11" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="B11" s="95" t="s">
+      <c r="B11" s="99" t="s">
         <v>147</v>
       </c>
-      <c r="C11" s="96"/>
-      <c r="D11" s="96"/>
-      <c r="E11" s="96"/>
-      <c r="F11" s="96"/>
-      <c r="G11" s="96"/>
-      <c r="H11" s="96"/>
-      <c r="I11" s="96"/>
-      <c r="J11" s="96"/>
-      <c r="K11" s="97"/>
+      <c r="C11" s="100"/>
+      <c r="D11" s="100"/>
+      <c r="E11" s="100"/>
+      <c r="F11" s="100"/>
+      <c r="G11" s="100"/>
+      <c r="H11" s="100"/>
+      <c r="I11" s="100"/>
+      <c r="J11" s="100"/>
+      <c r="K11" s="101"/>
     </row>
     <row r="12" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A12" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="B12" s="95" t="s">
+      <c r="B12" s="99" t="s">
         <v>149</v>
       </c>
-      <c r="C12" s="96"/>
-      <c r="D12" s="96"/>
-      <c r="E12" s="96"/>
-      <c r="F12" s="96"/>
-      <c r="G12" s="96"/>
-      <c r="H12" s="96"/>
-      <c r="I12" s="96"/>
-      <c r="J12" s="96"/>
-      <c r="K12" s="97"/>
+      <c r="C12" s="100"/>
+      <c r="D12" s="100"/>
+      <c r="E12" s="100"/>
+      <c r="F12" s="100"/>
+      <c r="G12" s="100"/>
+      <c r="H12" s="100"/>
+      <c r="I12" s="100"/>
+      <c r="J12" s="100"/>
+      <c r="K12" s="101"/>
     </row>
     <row r="13" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A13" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="B13" s="95" t="s">
+      <c r="B13" s="99" t="s">
         <v>151</v>
       </c>
-      <c r="C13" s="96"/>
-      <c r="D13" s="96"/>
-      <c r="E13" s="96"/>
-      <c r="F13" s="96"/>
-      <c r="G13" s="96"/>
-      <c r="H13" s="96"/>
-      <c r="I13" s="96"/>
-      <c r="J13" s="96"/>
-      <c r="K13" s="97"/>
+      <c r="C13" s="100"/>
+      <c r="D13" s="100"/>
+      <c r="E13" s="100"/>
+      <c r="F13" s="100"/>
+      <c r="G13" s="100"/>
+      <c r="H13" s="100"/>
+      <c r="I13" s="100"/>
+      <c r="J13" s="100"/>
+      <c r="K13" s="101"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B6:K6"/>
+    <mergeCell ref="B1:K1"/>
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="B3:K3"/>
+    <mergeCell ref="B4:K4"/>
+    <mergeCell ref="B5:K5"/>
     <mergeCell ref="B13:K13"/>
     <mergeCell ref="B7:K7"/>
     <mergeCell ref="B8:K8"/>
@@ -35477,12 +35498,6 @@
     <mergeCell ref="B10:K10"/>
     <mergeCell ref="B11:K11"/>
     <mergeCell ref="B12:K12"/>
-    <mergeCell ref="B6:K6"/>
-    <mergeCell ref="B1:K1"/>
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="B3:K3"/>
-    <mergeCell ref="B4:K4"/>
-    <mergeCell ref="B5:K5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -35501,120 +35516,120 @@
       <c r="A1" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="B1" s="95" t="s">
+      <c r="B1" s="99" t="s">
         <v>152</v>
       </c>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="96"/>
-      <c r="F1" s="96"/>
-      <c r="G1" s="96"/>
-      <c r="H1" s="96"/>
-      <c r="I1" s="96"/>
-      <c r="J1" s="96"/>
-      <c r="K1" s="97"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="100"/>
+      <c r="H1" s="100"/>
+      <c r="I1" s="100"/>
+      <c r="J1" s="100"/>
+      <c r="K1" s="101"/>
     </row>
     <row r="2" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A2" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="B2" s="95" t="s">
+      <c r="B2" s="99" t="s">
         <v>153</v>
       </c>
-      <c r="C2" s="96"/>
-      <c r="D2" s="96"/>
-      <c r="E2" s="96"/>
-      <c r="F2" s="96"/>
-      <c r="G2" s="96"/>
-      <c r="H2" s="96"/>
-      <c r="I2" s="96"/>
-      <c r="J2" s="96"/>
-      <c r="K2" s="97"/>
+      <c r="C2" s="100"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="100"/>
+      <c r="G2" s="100"/>
+      <c r="H2" s="100"/>
+      <c r="I2" s="100"/>
+      <c r="J2" s="100"/>
+      <c r="K2" s="101"/>
     </row>
     <row r="3" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A3" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="B3" s="95" t="s">
+      <c r="B3" s="99" t="s">
         <v>154</v>
       </c>
-      <c r="C3" s="96"/>
-      <c r="D3" s="96"/>
-      <c r="E3" s="96"/>
-      <c r="F3" s="96"/>
-      <c r="G3" s="96"/>
-      <c r="H3" s="96"/>
-      <c r="I3" s="96"/>
-      <c r="J3" s="96"/>
-      <c r="K3" s="97"/>
+      <c r="C3" s="100"/>
+      <c r="D3" s="100"/>
+      <c r="E3" s="100"/>
+      <c r="F3" s="100"/>
+      <c r="G3" s="100"/>
+      <c r="H3" s="100"/>
+      <c r="I3" s="100"/>
+      <c r="J3" s="100"/>
+      <c r="K3" s="101"/>
     </row>
     <row r="4" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A4" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="B4" s="95" t="s">
+      <c r="B4" s="99" t="s">
         <v>158</v>
       </c>
-      <c r="C4" s="96"/>
-      <c r="D4" s="96"/>
-      <c r="E4" s="96"/>
-      <c r="F4" s="96"/>
-      <c r="G4" s="96"/>
-      <c r="H4" s="96"/>
-      <c r="I4" s="96"/>
-      <c r="J4" s="96"/>
-      <c r="K4" s="97"/>
+      <c r="C4" s="100"/>
+      <c r="D4" s="100"/>
+      <c r="E4" s="100"/>
+      <c r="F4" s="100"/>
+      <c r="G4" s="100"/>
+      <c r="H4" s="100"/>
+      <c r="I4" s="100"/>
+      <c r="J4" s="100"/>
+      <c r="K4" s="101"/>
     </row>
     <row r="5" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A5" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="B5" s="95" t="s">
+      <c r="B5" s="99" t="s">
         <v>155</v>
       </c>
-      <c r="C5" s="96"/>
-      <c r="D5" s="96"/>
-      <c r="E5" s="96"/>
-      <c r="F5" s="96"/>
-      <c r="G5" s="96"/>
-      <c r="H5" s="96"/>
-      <c r="I5" s="96"/>
-      <c r="J5" s="96"/>
-      <c r="K5" s="97"/>
+      <c r="C5" s="100"/>
+      <c r="D5" s="100"/>
+      <c r="E5" s="100"/>
+      <c r="F5" s="100"/>
+      <c r="G5" s="100"/>
+      <c r="H5" s="100"/>
+      <c r="I5" s="100"/>
+      <c r="J5" s="100"/>
+      <c r="K5" s="101"/>
     </row>
     <row r="6" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A6" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="B6" s="95" t="s">
+      <c r="B6" s="99" t="s">
         <v>156</v>
       </c>
-      <c r="C6" s="96"/>
-      <c r="D6" s="96"/>
-      <c r="E6" s="96"/>
-      <c r="F6" s="96"/>
-      <c r="G6" s="96"/>
-      <c r="H6" s="96"/>
-      <c r="I6" s="96"/>
-      <c r="J6" s="96"/>
-      <c r="K6" s="97"/>
+      <c r="C6" s="100"/>
+      <c r="D6" s="100"/>
+      <c r="E6" s="100"/>
+      <c r="F6" s="100"/>
+      <c r="G6" s="100"/>
+      <c r="H6" s="100"/>
+      <c r="I6" s="100"/>
+      <c r="J6" s="100"/>
+      <c r="K6" s="101"/>
     </row>
     <row r="7" spans="1:11" ht="30" customHeight="1" thickBot="1">
       <c r="A7" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="B7" s="95" t="s">
+      <c r="B7" s="99" t="s">
         <v>157</v>
       </c>
-      <c r="C7" s="96"/>
-      <c r="D7" s="96"/>
-      <c r="E7" s="96"/>
-      <c r="F7" s="96"/>
-      <c r="G7" s="96"/>
-      <c r="H7" s="96"/>
-      <c r="I7" s="96"/>
-      <c r="J7" s="96"/>
-      <c r="K7" s="97"/>
+      <c r="C7" s="100"/>
+      <c r="D7" s="100"/>
+      <c r="E7" s="100"/>
+      <c r="F7" s="100"/>
+      <c r="G7" s="100"/>
+      <c r="H7" s="100"/>
+      <c r="I7" s="100"/>
+      <c r="J7" s="100"/>
+      <c r="K7" s="101"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -35646,120 +35661,120 @@
       <c r="A1" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="B1" s="95" t="s">
+      <c r="B1" s="99" t="s">
         <v>159</v>
       </c>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="96"/>
-      <c r="F1" s="96"/>
-      <c r="G1" s="96"/>
-      <c r="H1" s="96"/>
-      <c r="I1" s="96"/>
-      <c r="J1" s="96"/>
-      <c r="K1" s="97"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="100"/>
+      <c r="H1" s="100"/>
+      <c r="I1" s="100"/>
+      <c r="J1" s="100"/>
+      <c r="K1" s="101"/>
     </row>
     <row r="2" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A2" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="B2" s="95" t="s">
+      <c r="B2" s="99" t="s">
         <v>160</v>
       </c>
-      <c r="C2" s="96"/>
-      <c r="D2" s="96"/>
-      <c r="E2" s="96"/>
-      <c r="F2" s="96"/>
-      <c r="G2" s="96"/>
-      <c r="H2" s="96"/>
-      <c r="I2" s="96"/>
-      <c r="J2" s="96"/>
-      <c r="K2" s="97"/>
+      <c r="C2" s="100"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="100"/>
+      <c r="G2" s="100"/>
+      <c r="H2" s="100"/>
+      <c r="I2" s="100"/>
+      <c r="J2" s="100"/>
+      <c r="K2" s="101"/>
     </row>
     <row r="3" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A3" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="B3" s="95" t="s">
+      <c r="B3" s="99" t="s">
         <v>161</v>
       </c>
-      <c r="C3" s="96"/>
-      <c r="D3" s="96"/>
-      <c r="E3" s="96"/>
-      <c r="F3" s="96"/>
-      <c r="G3" s="96"/>
-      <c r="H3" s="96"/>
-      <c r="I3" s="96"/>
-      <c r="J3" s="96"/>
-      <c r="K3" s="97"/>
+      <c r="C3" s="100"/>
+      <c r="D3" s="100"/>
+      <c r="E3" s="100"/>
+      <c r="F3" s="100"/>
+      <c r="G3" s="100"/>
+      <c r="H3" s="100"/>
+      <c r="I3" s="100"/>
+      <c r="J3" s="100"/>
+      <c r="K3" s="101"/>
     </row>
     <row r="4" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A4" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="B4" s="95" t="s">
+      <c r="B4" s="99" t="s">
         <v>162</v>
       </c>
-      <c r="C4" s="96"/>
-      <c r="D4" s="96"/>
-      <c r="E4" s="96"/>
-      <c r="F4" s="96"/>
-      <c r="G4" s="96"/>
-      <c r="H4" s="96"/>
-      <c r="I4" s="96"/>
-      <c r="J4" s="96"/>
-      <c r="K4" s="97"/>
+      <c r="C4" s="100"/>
+      <c r="D4" s="100"/>
+      <c r="E4" s="100"/>
+      <c r="F4" s="100"/>
+      <c r="G4" s="100"/>
+      <c r="H4" s="100"/>
+      <c r="I4" s="100"/>
+      <c r="J4" s="100"/>
+      <c r="K4" s="101"/>
     </row>
     <row r="5" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A5" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="B5" s="95" t="s">
+      <c r="B5" s="99" t="s">
         <v>163</v>
       </c>
-      <c r="C5" s="96"/>
-      <c r="D5" s="96"/>
-      <c r="E5" s="96"/>
-      <c r="F5" s="96"/>
-      <c r="G5" s="96"/>
-      <c r="H5" s="96"/>
-      <c r="I5" s="96"/>
-      <c r="J5" s="96"/>
-      <c r="K5" s="97"/>
+      <c r="C5" s="100"/>
+      <c r="D5" s="100"/>
+      <c r="E5" s="100"/>
+      <c r="F5" s="100"/>
+      <c r="G5" s="100"/>
+      <c r="H5" s="100"/>
+      <c r="I5" s="100"/>
+      <c r="J5" s="100"/>
+      <c r="K5" s="101"/>
     </row>
     <row r="6" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A6" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="B6" s="95" t="s">
+      <c r="B6" s="99" t="s">
         <v>164</v>
       </c>
-      <c r="C6" s="96"/>
-      <c r="D6" s="96"/>
-      <c r="E6" s="96"/>
-      <c r="F6" s="96"/>
-      <c r="G6" s="96"/>
-      <c r="H6" s="96"/>
-      <c r="I6" s="96"/>
-      <c r="J6" s="96"/>
-      <c r="K6" s="97"/>
+      <c r="C6" s="100"/>
+      <c r="D6" s="100"/>
+      <c r="E6" s="100"/>
+      <c r="F6" s="100"/>
+      <c r="G6" s="100"/>
+      <c r="H6" s="100"/>
+      <c r="I6" s="100"/>
+      <c r="J6" s="100"/>
+      <c r="K6" s="101"/>
     </row>
     <row r="7" spans="1:11" ht="30" customHeight="1" thickBot="1">
       <c r="A7" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="B7" s="95" t="s">
+      <c r="B7" s="99" t="s">
         <v>165</v>
       </c>
-      <c r="C7" s="96"/>
-      <c r="D7" s="96"/>
-      <c r="E7" s="96"/>
-      <c r="F7" s="96"/>
-      <c r="G7" s="96"/>
-      <c r="H7" s="96"/>
-      <c r="I7" s="96"/>
-      <c r="J7" s="96"/>
-      <c r="K7" s="97"/>
+      <c r="C7" s="100"/>
+      <c r="D7" s="100"/>
+      <c r="E7" s="100"/>
+      <c r="F7" s="100"/>
+      <c r="G7" s="100"/>
+      <c r="H7" s="100"/>
+      <c r="I7" s="100"/>
+      <c r="J7" s="100"/>
+      <c r="K7" s="101"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -35791,135 +35806,135 @@
       <c r="A1" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="B1" s="95" t="s">
+      <c r="B1" s="99" t="s">
         <v>224</v>
       </c>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="96"/>
-      <c r="F1" s="96"/>
-      <c r="G1" s="96"/>
-      <c r="H1" s="96"/>
-      <c r="I1" s="96"/>
-      <c r="J1" s="96"/>
-      <c r="K1" s="97"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="100"/>
+      <c r="H1" s="100"/>
+      <c r="I1" s="100"/>
+      <c r="J1" s="100"/>
+      <c r="K1" s="101"/>
     </row>
     <row r="2" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A2" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="B2" s="95" t="s">
+      <c r="B2" s="99" t="s">
         <v>225</v>
       </c>
-      <c r="C2" s="96"/>
-      <c r="D2" s="96"/>
-      <c r="E2" s="96"/>
-      <c r="F2" s="96"/>
-      <c r="G2" s="96"/>
-      <c r="H2" s="96"/>
-      <c r="I2" s="96"/>
-      <c r="J2" s="96"/>
-      <c r="K2" s="97"/>
+      <c r="C2" s="100"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="100"/>
+      <c r="G2" s="100"/>
+      <c r="H2" s="100"/>
+      <c r="I2" s="100"/>
+      <c r="J2" s="100"/>
+      <c r="K2" s="101"/>
     </row>
     <row r="3" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A3" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="B3" s="95" t="s">
+      <c r="B3" s="99" t="s">
         <v>226</v>
       </c>
-      <c r="C3" s="96"/>
-      <c r="D3" s="96"/>
-      <c r="E3" s="96"/>
-      <c r="F3" s="96"/>
-      <c r="G3" s="96"/>
-      <c r="H3" s="96"/>
-      <c r="I3" s="96"/>
-      <c r="J3" s="96"/>
-      <c r="K3" s="97"/>
+      <c r="C3" s="100"/>
+      <c r="D3" s="100"/>
+      <c r="E3" s="100"/>
+      <c r="F3" s="100"/>
+      <c r="G3" s="100"/>
+      <c r="H3" s="100"/>
+      <c r="I3" s="100"/>
+      <c r="J3" s="100"/>
+      <c r="K3" s="101"/>
     </row>
     <row r="4" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A4" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="B4" s="95" t="s">
+      <c r="B4" s="99" t="s">
         <v>227</v>
       </c>
-      <c r="C4" s="96"/>
-      <c r="D4" s="96"/>
-      <c r="E4" s="96"/>
-      <c r="F4" s="96"/>
-      <c r="G4" s="96"/>
-      <c r="H4" s="96"/>
-      <c r="I4" s="96"/>
-      <c r="J4" s="96"/>
-      <c r="K4" s="97"/>
+      <c r="C4" s="100"/>
+      <c r="D4" s="100"/>
+      <c r="E4" s="100"/>
+      <c r="F4" s="100"/>
+      <c r="G4" s="100"/>
+      <c r="H4" s="100"/>
+      <c r="I4" s="100"/>
+      <c r="J4" s="100"/>
+      <c r="K4" s="101"/>
     </row>
     <row r="5" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A5" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="B5" s="95" t="s">
+      <c r="B5" s="99" t="s">
         <v>228</v>
       </c>
-      <c r="C5" s="96"/>
-      <c r="D5" s="96"/>
-      <c r="E5" s="96"/>
-      <c r="F5" s="96"/>
-      <c r="G5" s="96"/>
-      <c r="H5" s="96"/>
-      <c r="I5" s="96"/>
-      <c r="J5" s="96"/>
-      <c r="K5" s="97"/>
+      <c r="C5" s="100"/>
+      <c r="D5" s="100"/>
+      <c r="E5" s="100"/>
+      <c r="F5" s="100"/>
+      <c r="G5" s="100"/>
+      <c r="H5" s="100"/>
+      <c r="I5" s="100"/>
+      <c r="J5" s="100"/>
+      <c r="K5" s="101"/>
     </row>
     <row r="6" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A6" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="B6" s="95" t="s">
+      <c r="B6" s="99" t="s">
         <v>229</v>
       </c>
-      <c r="C6" s="96"/>
-      <c r="D6" s="96"/>
-      <c r="E6" s="96"/>
-      <c r="F6" s="96"/>
-      <c r="G6" s="96"/>
-      <c r="H6" s="96"/>
-      <c r="I6" s="96"/>
-      <c r="J6" s="96"/>
-      <c r="K6" s="97"/>
+      <c r="C6" s="100"/>
+      <c r="D6" s="100"/>
+      <c r="E6" s="100"/>
+      <c r="F6" s="100"/>
+      <c r="G6" s="100"/>
+      <c r="H6" s="100"/>
+      <c r="I6" s="100"/>
+      <c r="J6" s="100"/>
+      <c r="K6" s="101"/>
     </row>
     <row r="7" spans="1:11" ht="30" customHeight="1" thickBot="1">
       <c r="A7" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="B7" s="95" t="s">
+      <c r="B7" s="99" t="s">
         <v>230</v>
       </c>
-      <c r="C7" s="96"/>
-      <c r="D7" s="96"/>
-      <c r="E7" s="96"/>
-      <c r="F7" s="96"/>
-      <c r="G7" s="96"/>
-      <c r="H7" s="96"/>
-      <c r="I7" s="96"/>
-      <c r="J7" s="96"/>
-      <c r="K7" s="97"/>
+      <c r="C7" s="100"/>
+      <c r="D7" s="100"/>
+      <c r="E7" s="100"/>
+      <c r="F7" s="100"/>
+      <c r="G7" s="100"/>
+      <c r="H7" s="100"/>
+      <c r="I7" s="100"/>
+      <c r="J7" s="100"/>
+      <c r="K7" s="101"/>
     </row>
     <row r="8" spans="1:11" ht="150.75" customHeight="1" thickBot="1">
       <c r="A8" s="10"/>
-      <c r="B8" s="98" t="s">
+      <c r="B8" s="102" t="s">
         <v>231</v>
       </c>
-      <c r="C8" s="99"/>
-      <c r="D8" s="99"/>
-      <c r="E8" s="99"/>
-      <c r="F8" s="99"/>
-      <c r="G8" s="99"/>
-      <c r="H8" s="99"/>
-      <c r="I8" s="99"/>
-      <c r="J8" s="99"/>
-      <c r="K8" s="100"/>
+      <c r="C8" s="103"/>
+      <c r="D8" s="103"/>
+      <c r="E8" s="103"/>
+      <c r="F8" s="103"/>
+      <c r="G8" s="103"/>
+      <c r="H8" s="103"/>
+      <c r="I8" s="103"/>
+      <c r="J8" s="103"/>
+      <c r="K8" s="104"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -35940,8 +35955,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50057963-75E5-4253-A7F5-E58A81C4C7B8}">
   <dimension ref="A1:G51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="E46" sqref="E46"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -36291,24 +36306,32 @@
       <c r="E32" s="86"/>
       <c r="F32" s="87"/>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" ht="45">
       <c r="A33" s="83">
         <v>32</v>
       </c>
       <c r="B33" s="83"/>
-      <c r="C33" s="83"/>
+      <c r="C33" s="83" t="s">
+        <v>4</v>
+      </c>
       <c r="D33" s="83"/>
-      <c r="E33" s="86"/>
+      <c r="E33" s="86" t="s">
+        <v>472</v>
+      </c>
       <c r="F33" s="87"/>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" ht="75">
       <c r="A34" s="83">
         <v>33</v>
       </c>
       <c r="B34" s="83"/>
-      <c r="C34" s="83"/>
+      <c r="C34" s="83" t="s">
+        <v>4</v>
+      </c>
       <c r="D34" s="83"/>
-      <c r="E34" s="86"/>
+      <c r="E34" s="86" t="s">
+        <v>471</v>
+      </c>
       <c r="F34" s="87"/>
     </row>
     <row r="35" spans="1:6">
@@ -36331,24 +36354,32 @@
       <c r="E36" s="86"/>
       <c r="F36" s="87"/>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" ht="60">
       <c r="A37" s="83">
         <v>36</v>
       </c>
       <c r="B37" s="83"/>
-      <c r="C37" s="83"/>
+      <c r="C37" s="83" t="s">
+        <v>23</v>
+      </c>
       <c r="D37" s="83"/>
-      <c r="E37" s="86"/>
+      <c r="E37" s="86" t="s">
+        <v>470</v>
+      </c>
       <c r="F37" s="87"/>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" ht="45">
       <c r="A38" s="83">
         <v>37</v>
       </c>
       <c r="B38" s="83"/>
-      <c r="C38" s="83"/>
+      <c r="C38" s="83" t="s">
+        <v>60</v>
+      </c>
       <c r="D38" s="83"/>
-      <c r="E38" s="86"/>
+      <c r="E38" s="86" t="s">
+        <v>469</v>
+      </c>
       <c r="F38" s="87"/>
     </row>
     <row r="39" spans="1:6">
@@ -36381,14 +36412,18 @@
       <c r="E41" s="86"/>
       <c r="F41" s="87"/>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" ht="75">
       <c r="A42" s="83">
         <v>41</v>
       </c>
       <c r="B42" s="83"/>
-      <c r="C42" s="83"/>
+      <c r="C42" s="83" t="s">
+        <v>4</v>
+      </c>
       <c r="D42" s="83"/>
-      <c r="E42" s="86"/>
+      <c r="E42" s="86" t="s">
+        <v>468</v>
+      </c>
       <c r="F42" s="87"/>
     </row>
     <row r="43" spans="1:6">

--- a/10_Management/Exam_PMP_TangToc_07032019.xlsx
+++ b/10_Management/Exam_PMP_TangToc_07032019.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\EBill\10_Management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBED4078-6720-4670-B754-B89702F55F02}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3F4FD9A-C3B3-4914-90E0-462F8468CE66}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12000" windowHeight="6405" activeTab="1" xr2:uid="{957D22A2-4D54-4148-9DDE-7A2AF7FA87D7}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12000" windowHeight="6405" activeTab="5" xr2:uid="{957D22A2-4D54-4148-9DDE-7A2AF7FA87D7}"/>
   </bookViews>
   <sheets>
     <sheet name="study plan" sheetId="22" r:id="rId1"/>
@@ -18,25 +18,27 @@
     <sheet name="Planning 4" sheetId="24" r:id="rId3"/>
     <sheet name="monitoring 3" sheetId="23" r:id="rId4"/>
     <sheet name="Stakeholder" sheetId="1" r:id="rId5"/>
-    <sheet name="Procurement" sheetId="2" r:id="rId6"/>
-    <sheet name="Closing 1" sheetId="20" r:id="rId7"/>
-    <sheet name="Initiating 1" sheetId="7" r:id="rId8"/>
-    <sheet name="scope" sheetId="10" r:id="rId9"/>
-    <sheet name="Planning5" sheetId="3" r:id="rId10"/>
-    <sheet name="Planning1" sheetId="11" r:id="rId11"/>
-    <sheet name="Planning3" sheetId="16" r:id="rId12"/>
-    <sheet name="Executing1" sheetId="15" r:id="rId13"/>
-    <sheet name="Executing 2" sheetId="17" r:id="rId14"/>
-    <sheet name="Domain-Initiating" sheetId="18" r:id="rId15"/>
-    <sheet name="Domain-Planning" sheetId="12" r:id="rId16"/>
-    <sheet name="Domain-Executing" sheetId="13" r:id="rId17"/>
-    <sheet name="Domain-Monitoring &amp; Controlling" sheetId="14" r:id="rId18"/>
-    <sheet name="Domain-Closing" sheetId="19" r:id="rId19"/>
-    <sheet name="Executing" sheetId="4" r:id="rId20"/>
-    <sheet name="Monitoring" sheetId="5" r:id="rId21"/>
-    <sheet name="Closing" sheetId="6" r:id="rId22"/>
-    <sheet name="Mock" sheetId="8" r:id="rId23"/>
-    <sheet name="Full Test" sheetId="9" r:id="rId24"/>
+    <sheet name="Resource" sheetId="28" r:id="rId6"/>
+    <sheet name="Risk" sheetId="27" r:id="rId7"/>
+    <sheet name="Procurement" sheetId="2" r:id="rId8"/>
+    <sheet name="Closing 1" sheetId="20" r:id="rId9"/>
+    <sheet name="Initiating 1" sheetId="7" r:id="rId10"/>
+    <sheet name="scope" sheetId="10" r:id="rId11"/>
+    <sheet name="Planning5" sheetId="3" r:id="rId12"/>
+    <sheet name="Planning1" sheetId="11" r:id="rId13"/>
+    <sheet name="Planning3" sheetId="16" r:id="rId14"/>
+    <sheet name="Executing1" sheetId="15" r:id="rId15"/>
+    <sheet name="Executing 2" sheetId="17" r:id="rId16"/>
+    <sheet name="Domain-Initiating" sheetId="18" r:id="rId17"/>
+    <sheet name="Domain-Planning" sheetId="12" r:id="rId18"/>
+    <sheet name="Domain-Executing" sheetId="13" r:id="rId19"/>
+    <sheet name="Domain-Monitoring &amp; Controlling" sheetId="14" r:id="rId20"/>
+    <sheet name="Domain-Closing" sheetId="19" r:id="rId21"/>
+    <sheet name="Executing" sheetId="4" r:id="rId22"/>
+    <sheet name="Monitoring" sheetId="5" r:id="rId23"/>
+    <sheet name="Closing" sheetId="6" r:id="rId24"/>
+    <sheet name="Mock" sheetId="8" r:id="rId25"/>
+    <sheet name="Full Test" sheetId="9" r:id="rId26"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -77,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="473">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="949" uniqueCount="508">
   <si>
     <t>No</t>
   </si>
@@ -1607,19 +1609,124 @@
     <t>note: An effective quality audit should be Structured and independent. Note audit</t>
   </si>
   <si>
+    <t>Stakeholder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Procurement </t>
+  </si>
+  <si>
+    <t>Risk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Communication </t>
+  </si>
+  <si>
+    <t>Resource</t>
+  </si>
+  <si>
+    <t>Quality</t>
+  </si>
+  <si>
+    <t>Cost</t>
+  </si>
+  <si>
+    <t>Schedule</t>
+  </si>
+  <si>
+    <t>Scope</t>
+  </si>
+  <si>
+    <t>Integration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Framework </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mock Exam 3 </t>
+  </si>
+  <si>
+    <t>Executing 8</t>
+  </si>
+  <si>
+    <t>Executing 3</t>
+  </si>
+  <si>
+    <t>Executing 2</t>
+  </si>
+  <si>
+    <t>Executing 1</t>
+  </si>
+  <si>
+    <t>Closing 5</t>
+  </si>
+  <si>
+    <t>Closing 4</t>
+  </si>
+  <si>
+    <t>Closing 3</t>
+  </si>
+  <si>
+    <t>Closing 2</t>
+  </si>
+  <si>
+    <t>Closing 1</t>
+  </si>
+  <si>
+    <t>Monitoring 11</t>
+  </si>
+  <si>
+    <t>Monitoring 3</t>
+  </si>
+  <si>
+    <t>Monitoring 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monitoring 1 </t>
+  </si>
+  <si>
+    <t>Planning 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Planning 4 </t>
+  </si>
+  <si>
+    <t>Planning 3</t>
+  </si>
+  <si>
+    <t>Planning 2</t>
+  </si>
+  <si>
+    <t>Planning 1</t>
+  </si>
+  <si>
+    <t>Initiating 8</t>
+  </si>
+  <si>
+    <t>Initiating 2</t>
+  </si>
+  <si>
+    <t>Initiating 1</t>
+  </si>
+  <si>
+    <t>Note: sử dụng fix price contract khi mà biết được số lượng thực tế công việc. Không thay đổi yêu cầu</t>
+  </si>
+  <si>
+    <t>cần xem lại một số tool trng phần control quality process. Data analyis là tool mục đích để identity source of defect</t>
+  </si>
+  <si>
+    <t>Note: requirement traceability matrix là output của collect requirement process nó dùng để tracing project scope, objectives và test strategy, không có trong requirement project risk</t>
+  </si>
+  <si>
+    <t>Hạn chế chọn những đáp án vô nghĩa. Note: identity risk process is an ongoing. Iteractive risks thường được identified throught project's life cycle</t>
+  </si>
+  <si>
+    <t>Note: cần nắm được cách làm, phân loại risk theo risk category để đảm bảo process toàn diện</t>
+  </si>
+  <si>
     <t>Save time tốt nhất cho việc create wbs: Creating the WBS is a very important process, but often a previous WBS can be used as a template to save time and avoid the risk of forgetting something important</t>
   </si>
   <si>
-    <t>Note: cần nắm được cách làm, phân loại risk theo risk category để đảm bảo process toàn diện</t>
-  </si>
-  <si>
-    <t>Hạn chế chọn những đáp án vô nghĩa. Note: identity risk process is an ongoing. Iteractive risks thường được identified throught project's life cycle</t>
-  </si>
-  <si>
-    <t>Note: requirement traceability matrix là output của collect requirement process nó dùng để tracing project scope, objectives và test strategy, không có trong requirement project risk</t>
-  </si>
-  <si>
-    <t>cần xem lại một số tool trng phần control quality process. Data analyis là tool mục đích để identity source of defect</t>
+    <t>Đánh giá hiệu suất của team (performance appraisal during the manage team process)</t>
   </si>
 </sst>
 </file>
@@ -2601,8 +2708,8 @@
   </sheetPr>
   <dimension ref="A1:Z1003"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:E13"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -2834,7 +2941,9 @@
       </c>
       <c r="E7" s="64"/>
       <c r="F7" s="55"/>
-      <c r="G7" s="56"/>
+      <c r="G7" s="56" t="s">
+        <v>468</v>
+      </c>
       <c r="H7" s="56"/>
       <c r="I7" s="56"/>
       <c r="J7" s="56"/>
@@ -2869,7 +2978,9 @@
       </c>
       <c r="E8" s="64"/>
       <c r="F8" s="55"/>
-      <c r="G8" s="56"/>
+      <c r="G8" s="56" t="s">
+        <v>469</v>
+      </c>
       <c r="H8" s="56"/>
       <c r="I8" s="56"/>
       <c r="J8" s="56"/>
@@ -2907,7 +3018,9 @@
       </c>
       <c r="E9" s="64"/>
       <c r="F9" s="55"/>
-      <c r="G9" s="56"/>
+      <c r="G9" s="56" t="s">
+        <v>470</v>
+      </c>
       <c r="H9" s="56"/>
       <c r="I9" s="56"/>
       <c r="J9" s="56"/>
@@ -2948,7 +3061,9 @@
         <v>395</v>
       </c>
       <c r="F10" s="55"/>
-      <c r="G10" s="56"/>
+      <c r="G10" s="56" t="s">
+        <v>471</v>
+      </c>
       <c r="H10" s="56"/>
       <c r="I10" s="56"/>
       <c r="J10" s="56"/>
@@ -2988,7 +3103,9 @@
         <v>395</v>
       </c>
       <c r="F11" s="55"/>
-      <c r="G11" s="56"/>
+      <c r="G11" s="56" t="s">
+        <v>472</v>
+      </c>
       <c r="H11" s="56"/>
       <c r="I11" s="56"/>
       <c r="J11" s="56"/>
@@ -3028,7 +3145,9 @@
         <v>395</v>
       </c>
       <c r="F12" s="55"/>
-      <c r="G12" s="56"/>
+      <c r="G12" s="56" t="s">
+        <v>473</v>
+      </c>
       <c r="H12" s="56"/>
       <c r="I12" s="56"/>
       <c r="J12" s="56"/>
@@ -3067,7 +3186,9 @@
         <v>395</v>
       </c>
       <c r="F13" s="55"/>
-      <c r="G13" s="56"/>
+      <c r="G13" s="56" t="s">
+        <v>474</v>
+      </c>
       <c r="H13" s="56"/>
       <c r="I13" s="56"/>
       <c r="J13" s="56"/>
@@ -3106,7 +3227,9 @@
         <v>395</v>
       </c>
       <c r="F14" s="55"/>
-      <c r="G14" s="56"/>
+      <c r="G14" s="56" t="s">
+        <v>475</v>
+      </c>
       <c r="H14" s="56"/>
       <c r="I14" s="56"/>
       <c r="J14" s="56"/>
@@ -3146,7 +3269,9 @@
         <v>395</v>
       </c>
       <c r="F15" s="55"/>
-      <c r="G15" s="56"/>
+      <c r="G15" s="56" t="s">
+        <v>476</v>
+      </c>
       <c r="H15" s="56"/>
       <c r="I15" s="56"/>
       <c r="J15" s="56"/>
@@ -3180,7 +3305,9 @@
         <v>395</v>
       </c>
       <c r="F16" s="55"/>
-      <c r="G16" s="56"/>
+      <c r="G16" s="56" t="s">
+        <v>477</v>
+      </c>
       <c r="H16" s="56"/>
       <c r="I16" s="56"/>
       <c r="J16" s="56"/>
@@ -3214,7 +3341,9 @@
         <v>395</v>
       </c>
       <c r="F17" s="55"/>
-      <c r="G17" s="56"/>
+      <c r="G17" s="56" t="s">
+        <v>478</v>
+      </c>
       <c r="H17" s="56"/>
       <c r="I17" s="56"/>
       <c r="J17" s="56"/>
@@ -3254,7 +3383,9 @@
         <v>395</v>
       </c>
       <c r="F18" s="55"/>
-      <c r="G18" s="56"/>
+      <c r="G18" s="56" t="s">
+        <v>389</v>
+      </c>
       <c r="H18" s="56"/>
       <c r="I18" s="56"/>
       <c r="J18" s="56"/>
@@ -3294,7 +3425,9 @@
         <v>395</v>
       </c>
       <c r="F19" s="55"/>
-      <c r="G19" s="56"/>
+      <c r="G19" s="56" t="s">
+        <v>381</v>
+      </c>
       <c r="H19" s="56"/>
       <c r="I19" s="56"/>
       <c r="J19" s="56"/>
@@ -3332,7 +3465,9 @@
       </c>
       <c r="E20" s="72"/>
       <c r="F20" s="55"/>
-      <c r="G20" s="56"/>
+      <c r="G20" s="56" t="s">
+        <v>479</v>
+      </c>
       <c r="H20" s="56"/>
       <c r="I20" s="56"/>
       <c r="J20" s="56"/>
@@ -3364,7 +3499,9 @@
       </c>
       <c r="E21" s="72"/>
       <c r="F21" s="55"/>
-      <c r="G21" s="56"/>
+      <c r="G21" s="56" t="s">
+        <v>373</v>
+      </c>
       <c r="H21" s="56"/>
       <c r="I21" s="56"/>
       <c r="J21" s="56"/>
@@ -3396,7 +3533,9 @@
       </c>
       <c r="E22" s="72"/>
       <c r="F22" s="55"/>
-      <c r="G22" s="56"/>
+      <c r="G22" s="56" t="s">
+        <v>372</v>
+      </c>
       <c r="H22" s="56"/>
       <c r="I22" s="56"/>
       <c r="J22" s="56"/>
@@ -3434,7 +3573,9 @@
       </c>
       <c r="E23" s="72"/>
       <c r="F23" s="55"/>
-      <c r="G23" s="56"/>
+      <c r="G23" s="56" t="s">
+        <v>480</v>
+      </c>
       <c r="H23" s="56"/>
       <c r="I23" s="56"/>
       <c r="J23" s="56"/>
@@ -3472,7 +3613,9 @@
       </c>
       <c r="E24" s="72"/>
       <c r="F24" s="55"/>
-      <c r="G24" s="56"/>
+      <c r="G24" s="56" t="s">
+        <v>481</v>
+      </c>
       <c r="H24" s="56"/>
       <c r="I24" s="56"/>
       <c r="J24" s="56"/>
@@ -3510,7 +3653,9 @@
       </c>
       <c r="E25" s="72"/>
       <c r="F25" s="55"/>
-      <c r="G25" s="56"/>
+      <c r="G25" s="56" t="s">
+        <v>482</v>
+      </c>
       <c r="H25" s="56"/>
       <c r="I25" s="56"/>
       <c r="J25" s="56"/>
@@ -3542,7 +3687,9 @@
       </c>
       <c r="E26" s="72"/>
       <c r="F26" s="55"/>
-      <c r="G26" s="56"/>
+      <c r="G26" s="56" t="s">
+        <v>483</v>
+      </c>
       <c r="H26" s="56"/>
       <c r="I26" s="56"/>
       <c r="J26" s="56"/>
@@ -3574,7 +3721,9 @@
       </c>
       <c r="E27" s="72"/>
       <c r="F27" s="55"/>
-      <c r="G27" s="56"/>
+      <c r="G27" s="56" t="s">
+        <v>484</v>
+      </c>
       <c r="H27" s="56"/>
       <c r="I27" s="56"/>
       <c r="J27" s="56"/>
@@ -3612,7 +3761,9 @@
       </c>
       <c r="E28" s="72"/>
       <c r="F28" s="55"/>
-      <c r="G28" s="56"/>
+      <c r="G28" s="56" t="s">
+        <v>485</v>
+      </c>
       <c r="H28" s="56"/>
       <c r="I28" s="56"/>
       <c r="J28" s="56"/>
@@ -3650,7 +3801,9 @@
       </c>
       <c r="E29" s="72"/>
       <c r="F29" s="55"/>
-      <c r="G29" s="56"/>
+      <c r="G29" s="56" t="s">
+        <v>486</v>
+      </c>
       <c r="H29" s="56"/>
       <c r="I29" s="56"/>
       <c r="J29" s="56"/>
@@ -3688,7 +3841,9 @@
       </c>
       <c r="E30" s="72"/>
       <c r="F30" s="55"/>
-      <c r="G30" s="56"/>
+      <c r="G30" s="56" t="s">
+        <v>487</v>
+      </c>
       <c r="H30" s="56"/>
       <c r="I30" s="56"/>
       <c r="J30" s="56"/>
@@ -3726,7 +3881,9 @@
       </c>
       <c r="E31" s="72"/>
       <c r="F31" s="55"/>
-      <c r="G31" s="56"/>
+      <c r="G31" s="56" t="s">
+        <v>488</v>
+      </c>
       <c r="H31" s="56"/>
       <c r="I31" s="56"/>
       <c r="J31" s="56"/>
@@ -3764,7 +3921,9 @@
       </c>
       <c r="E32" s="72"/>
       <c r="F32" s="55"/>
-      <c r="G32" s="56"/>
+      <c r="G32" s="56" t="s">
+        <v>489</v>
+      </c>
       <c r="H32" s="56"/>
       <c r="I32" s="56"/>
       <c r="J32" s="56"/>
@@ -3796,7 +3955,9 @@
       </c>
       <c r="E33" s="72"/>
       <c r="F33" s="55"/>
-      <c r="G33" s="56"/>
+      <c r="G33" s="56" t="s">
+        <v>490</v>
+      </c>
       <c r="H33" s="56"/>
       <c r="I33" s="56"/>
       <c r="J33" s="56"/>
@@ -3828,7 +3989,9 @@
       </c>
       <c r="E34" s="72"/>
       <c r="F34" s="55"/>
-      <c r="G34" s="56"/>
+      <c r="G34" s="56" t="s">
+        <v>491</v>
+      </c>
       <c r="H34" s="56"/>
       <c r="I34" s="56"/>
       <c r="J34" s="56"/>
@@ -3866,7 +4029,9 @@
       </c>
       <c r="E35" s="72"/>
       <c r="F35" s="55"/>
-      <c r="G35" s="56"/>
+      <c r="G35" s="56" t="s">
+        <v>492</v>
+      </c>
       <c r="H35" s="56"/>
       <c r="I35" s="56"/>
       <c r="J35" s="56"/>
@@ -3904,7 +4069,9 @@
       </c>
       <c r="E36" s="72"/>
       <c r="F36" s="55"/>
-      <c r="G36" s="56"/>
+      <c r="G36" s="56" t="s">
+        <v>493</v>
+      </c>
       <c r="H36" s="56"/>
       <c r="I36" s="56"/>
       <c r="J36" s="56"/>
@@ -3942,7 +4109,9 @@
       </c>
       <c r="E37" s="72"/>
       <c r="F37" s="55"/>
-      <c r="G37" s="56"/>
+      <c r="G37" s="56" t="s">
+        <v>494</v>
+      </c>
       <c r="H37" s="56"/>
       <c r="I37" s="56"/>
       <c r="J37" s="56"/>
@@ -3974,7 +4143,9 @@
       </c>
       <c r="E38" s="72"/>
       <c r="F38" s="55"/>
-      <c r="G38" s="56"/>
+      <c r="G38" s="56" t="s">
+        <v>495</v>
+      </c>
       <c r="H38" s="56"/>
       <c r="I38" s="56"/>
       <c r="J38" s="56"/>
@@ -4006,7 +4177,9 @@
       </c>
       <c r="E39" s="72"/>
       <c r="F39" s="55"/>
-      <c r="G39" s="56"/>
+      <c r="G39" s="56" t="s">
+        <v>496</v>
+      </c>
       <c r="H39" s="56"/>
       <c r="I39" s="56"/>
       <c r="J39" s="56"/>
@@ -4044,7 +4217,9 @@
       </c>
       <c r="E40" s="72"/>
       <c r="F40" s="55"/>
-      <c r="G40" s="56"/>
+      <c r="G40" s="56" t="s">
+        <v>497</v>
+      </c>
       <c r="H40" s="56"/>
       <c r="I40" s="56"/>
       <c r="J40" s="56"/>
@@ -4082,7 +4257,9 @@
       </c>
       <c r="E41" s="72"/>
       <c r="F41" s="55"/>
-      <c r="G41" s="56"/>
+      <c r="G41" s="56" t="s">
+        <v>498</v>
+      </c>
       <c r="H41" s="56"/>
       <c r="I41" s="56"/>
       <c r="J41" s="56"/>
@@ -4120,7 +4297,9 @@
       </c>
       <c r="E42" s="72"/>
       <c r="F42" s="55"/>
-      <c r="G42" s="56"/>
+      <c r="G42" s="56" t="s">
+        <v>499</v>
+      </c>
       <c r="H42" s="56"/>
       <c r="I42" s="56"/>
       <c r="J42" s="56"/>
@@ -4152,7 +4331,9 @@
       </c>
       <c r="E43" s="72"/>
       <c r="F43" s="55"/>
-      <c r="G43" s="56"/>
+      <c r="G43" s="56" t="s">
+        <v>500</v>
+      </c>
       <c r="H43" s="56"/>
       <c r="I43" s="56"/>
       <c r="J43" s="56"/>
@@ -31310,6 +31491,420 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D67830A5-61CE-4324-A223-E0E1F9224A73}">
+  <sheetPr codeName="Sheet3"/>
+  <dimension ref="A1:G26"/>
+  <sheetViews>
+    <sheetView topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="7"/>
+    <col min="2" max="2" width="65.85546875" style="7" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" style="7" customWidth="1"/>
+    <col min="4" max="4" width="38.85546875" style="7" customWidth="1"/>
+    <col min="5" max="5" width="41.7109375" style="7" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="7"/>
+    <col min="7" max="7" width="29.7109375" style="7" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="25.5">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="30">
+      <c r="A2" s="8">
+        <v>1</v>
+      </c>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="15" t="s">
+        <v>307</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="8">
+        <v>2</v>
+      </c>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="16" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="8">
+        <v>3</v>
+      </c>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="16"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="8">
+        <v>4</v>
+      </c>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="16"/>
+    </row>
+    <row r="6" spans="1:7" ht="90">
+      <c r="A6" s="8">
+        <v>5</v>
+      </c>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8" t="s">
+        <v>335</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>306</v>
+      </c>
+      <c r="F6" s="16"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="8">
+        <v>6</v>
+      </c>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="F7" s="16"/>
+    </row>
+    <row r="8" spans="1:7" ht="45">
+      <c r="A8" s="8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="15" t="s">
+        <v>305</v>
+      </c>
+      <c r="F8" s="16"/>
+    </row>
+    <row r="9" spans="1:7" ht="105">
+      <c r="A9" s="8">
+        <v>8</v>
+      </c>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="F9" s="16"/>
+    </row>
+    <row r="10" spans="1:7" ht="30">
+      <c r="A10" s="8">
+        <v>9</v>
+      </c>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>336</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>303</v>
+      </c>
+      <c r="F10" s="16"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="8">
+        <v>10</v>
+      </c>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="15" t="s">
+        <v>302</v>
+      </c>
+      <c r="F11" s="16"/>
+    </row>
+    <row r="12" spans="1:7" ht="30">
+      <c r="A12" s="8">
+        <v>11</v>
+      </c>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8" t="s">
+        <v>337</v>
+      </c>
+      <c r="E12" s="15"/>
+      <c r="F12" s="16"/>
+    </row>
+    <row r="13" spans="1:7" ht="30">
+      <c r="A13" s="8">
+        <v>12</v>
+      </c>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>338</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>301</v>
+      </c>
+      <c r="F13" s="16"/>
+    </row>
+    <row r="14" spans="1:7" ht="30">
+      <c r="A14" s="8">
+        <v>13</v>
+      </c>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="E14" s="8" t="s">
+        <v>339</v>
+      </c>
+      <c r="F14" s="16"/>
+    </row>
+    <row r="15" spans="1:7" ht="183" customHeight="1">
+      <c r="A15" s="8">
+        <v>14</v>
+      </c>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>341</v>
+      </c>
+      <c r="F15" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="45">
+      <c r="A16" s="8">
+        <v>15</v>
+      </c>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>298</v>
+      </c>
+      <c r="F16" s="16"/>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="8">
+        <v>16</v>
+      </c>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="15" t="s">
+        <v>296</v>
+      </c>
+      <c r="F17" s="16"/>
+    </row>
+    <row r="18" spans="1:6" ht="60">
+      <c r="A18" s="8">
+        <v>17</v>
+      </c>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="E18" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="F18" s="16"/>
+    </row>
+    <row r="19" spans="1:6" ht="75">
+      <c r="A19" s="8">
+        <v>18</v>
+      </c>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="15" t="s">
+        <v>293</v>
+      </c>
+      <c r="F19" s="16"/>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="8">
+        <v>19</v>
+      </c>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="16"/>
+    </row>
+    <row r="21" spans="1:6" ht="45">
+      <c r="A21" s="8">
+        <v>20</v>
+      </c>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="15" t="s">
+        <v>292</v>
+      </c>
+      <c r="F21" s="16"/>
+    </row>
+    <row r="22" spans="1:6" ht="90">
+      <c r="A22" s="8">
+        <v>21</v>
+      </c>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="15" t="s">
+        <v>291</v>
+      </c>
+      <c r="F22" s="16"/>
+    </row>
+    <row r="23" spans="1:6" ht="45">
+      <c r="A23" s="8">
+        <v>22</v>
+      </c>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>289</v>
+      </c>
+      <c r="E23" s="15" t="s">
+        <v>290</v>
+      </c>
+      <c r="F23" s="16"/>
+    </row>
+    <row r="24" spans="1:6" ht="60">
+      <c r="A24" s="8">
+        <v>23</v>
+      </c>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="54" t="s">
+        <v>342</v>
+      </c>
+      <c r="E24" s="15" t="s">
+        <v>288</v>
+      </c>
+      <c r="F24" s="16"/>
+    </row>
+    <row r="25" spans="1:6" ht="45">
+      <c r="A25" s="8">
+        <v>24</v>
+      </c>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>343</v>
+      </c>
+      <c r="E25" s="15" t="s">
+        <v>287</v>
+      </c>
+      <c r="F25" s="16"/>
+    </row>
+    <row r="26" spans="1:6" ht="30">
+      <c r="A26" s="8">
+        <v>25</v>
+      </c>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>344</v>
+      </c>
+      <c r="E26" s="15" t="s">
+        <v>286</v>
+      </c>
+      <c r="F26" s="16" t="s">
+        <v>136</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C26" xr:uid="{BA14E364-48D9-4A07-A118-7CEA555DD255}">
+      <formula1>"English,Knowledge Gaps,Emotion,Techniques"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F26" xr:uid="{050BE225-178B-409F-8A12-8704C43FC1BF}">
+      <formula1>"Task1, Task 2, Task3, Task 4, Task 5, Task 6, Task 7, Task 8"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="F1" location="'Domain-Initiating'!A1" display="Domain" xr:uid="{C1A74F62-E9E5-41A8-A34C-DC92C164B9FB}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14F5D74C-E5D9-45C3-98E4-07977C9F0161}">
+  <sheetPr codeName="Sheet4"/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C982353-CA8A-4388-8859-7413C89A9E50}">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:E26"/>
@@ -31652,7 +32247,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB3E4B6E-32AB-4F9F-9656-4C5398F92691}">
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:L52"/>
@@ -32631,7 +33226,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAAC2793-45B1-4029-830E-35CE2386D9D1}">
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:J51"/>
@@ -33670,7 +34265,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0762741B-203C-43CC-95E6-55D0B96E24E3}">
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:F51"/>
@@ -34374,7 +34969,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66FFD739-AF93-4AA7-A2F1-3E80882A8922}">
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:F51"/>
@@ -35073,7 +35668,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{475F131D-CBCC-4B8F-BDF4-B1E2E34C7098}">
   <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:K9"/>
@@ -35251,7 +35846,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69E6B415-86AF-44A1-9A0F-E640C770D3EB}">
   <sheetPr codeName="Sheet11"/>
   <dimension ref="A1:K13"/>
@@ -35503,7 +36098,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98E3A676-4755-49BB-A0B9-3FC0BA4B80B3}">
   <sheetPr codeName="Sheet12"/>
   <dimension ref="A1:K7"/>
@@ -35646,317 +36241,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B4D9506-FE81-4C50-86CB-42DFDE5F4697}">
-  <sheetPr codeName="Sheet13"/>
-  <dimension ref="A1:K7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N12" sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:11" ht="45" customHeight="1" thickBot="1">
-      <c r="A1" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="B1" s="99" t="s">
-        <v>159</v>
-      </c>
-      <c r="C1" s="100"/>
-      <c r="D1" s="100"/>
-      <c r="E1" s="100"/>
-      <c r="F1" s="100"/>
-      <c r="G1" s="100"/>
-      <c r="H1" s="100"/>
-      <c r="I1" s="100"/>
-      <c r="J1" s="100"/>
-      <c r="K1" s="101"/>
-    </row>
-    <row r="2" spans="1:11" ht="45" customHeight="1" thickBot="1">
-      <c r="A2" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="B2" s="99" t="s">
-        <v>160</v>
-      </c>
-      <c r="C2" s="100"/>
-      <c r="D2" s="100"/>
-      <c r="E2" s="100"/>
-      <c r="F2" s="100"/>
-      <c r="G2" s="100"/>
-      <c r="H2" s="100"/>
-      <c r="I2" s="100"/>
-      <c r="J2" s="100"/>
-      <c r="K2" s="101"/>
-    </row>
-    <row r="3" spans="1:11" ht="45" customHeight="1" thickBot="1">
-      <c r="A3" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="B3" s="99" t="s">
-        <v>161</v>
-      </c>
-      <c r="C3" s="100"/>
-      <c r="D3" s="100"/>
-      <c r="E3" s="100"/>
-      <c r="F3" s="100"/>
-      <c r="G3" s="100"/>
-      <c r="H3" s="100"/>
-      <c r="I3" s="100"/>
-      <c r="J3" s="100"/>
-      <c r="K3" s="101"/>
-    </row>
-    <row r="4" spans="1:11" ht="45" customHeight="1" thickBot="1">
-      <c r="A4" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="B4" s="99" t="s">
-        <v>162</v>
-      </c>
-      <c r="C4" s="100"/>
-      <c r="D4" s="100"/>
-      <c r="E4" s="100"/>
-      <c r="F4" s="100"/>
-      <c r="G4" s="100"/>
-      <c r="H4" s="100"/>
-      <c r="I4" s="100"/>
-      <c r="J4" s="100"/>
-      <c r="K4" s="101"/>
-    </row>
-    <row r="5" spans="1:11" ht="45" customHeight="1" thickBot="1">
-      <c r="A5" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="B5" s="99" t="s">
-        <v>163</v>
-      </c>
-      <c r="C5" s="100"/>
-      <c r="D5" s="100"/>
-      <c r="E5" s="100"/>
-      <c r="F5" s="100"/>
-      <c r="G5" s="100"/>
-      <c r="H5" s="100"/>
-      <c r="I5" s="100"/>
-      <c r="J5" s="100"/>
-      <c r="K5" s="101"/>
-    </row>
-    <row r="6" spans="1:11" ht="45" customHeight="1" thickBot="1">
-      <c r="A6" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="B6" s="99" t="s">
-        <v>164</v>
-      </c>
-      <c r="C6" s="100"/>
-      <c r="D6" s="100"/>
-      <c r="E6" s="100"/>
-      <c r="F6" s="100"/>
-      <c r="G6" s="100"/>
-      <c r="H6" s="100"/>
-      <c r="I6" s="100"/>
-      <c r="J6" s="100"/>
-      <c r="K6" s="101"/>
-    </row>
-    <row r="7" spans="1:11" ht="30" customHeight="1" thickBot="1">
-      <c r="A7" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="B7" s="99" t="s">
-        <v>165</v>
-      </c>
-      <c r="C7" s="100"/>
-      <c r="D7" s="100"/>
-      <c r="E7" s="100"/>
-      <c r="F7" s="100"/>
-      <c r="G7" s="100"/>
-      <c r="H7" s="100"/>
-      <c r="I7" s="100"/>
-      <c r="J7" s="100"/>
-      <c r="K7" s="101"/>
-    </row>
-  </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="B7:K7"/>
-    <mergeCell ref="B1:K1"/>
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="B3:K3"/>
-    <mergeCell ref="B4:K4"/>
-    <mergeCell ref="B5:K5"/>
-    <mergeCell ref="B6:K6"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DFC2900-1516-4D11-BB5E-CB91221B0668}">
-  <sheetPr codeName="Sheet14"/>
-  <dimension ref="A1:K8"/>
-  <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:11" ht="45" customHeight="1" thickBot="1">
-      <c r="A1" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="B1" s="99" t="s">
-        <v>224</v>
-      </c>
-      <c r="C1" s="100"/>
-      <c r="D1" s="100"/>
-      <c r="E1" s="100"/>
-      <c r="F1" s="100"/>
-      <c r="G1" s="100"/>
-      <c r="H1" s="100"/>
-      <c r="I1" s="100"/>
-      <c r="J1" s="100"/>
-      <c r="K1" s="101"/>
-    </row>
-    <row r="2" spans="1:11" ht="45" customHeight="1" thickBot="1">
-      <c r="A2" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="B2" s="99" t="s">
-        <v>225</v>
-      </c>
-      <c r="C2" s="100"/>
-      <c r="D2" s="100"/>
-      <c r="E2" s="100"/>
-      <c r="F2" s="100"/>
-      <c r="G2" s="100"/>
-      <c r="H2" s="100"/>
-      <c r="I2" s="100"/>
-      <c r="J2" s="100"/>
-      <c r="K2" s="101"/>
-    </row>
-    <row r="3" spans="1:11" ht="45" customHeight="1" thickBot="1">
-      <c r="A3" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="B3" s="99" t="s">
-        <v>226</v>
-      </c>
-      <c r="C3" s="100"/>
-      <c r="D3" s="100"/>
-      <c r="E3" s="100"/>
-      <c r="F3" s="100"/>
-      <c r="G3" s="100"/>
-      <c r="H3" s="100"/>
-      <c r="I3" s="100"/>
-      <c r="J3" s="100"/>
-      <c r="K3" s="101"/>
-    </row>
-    <row r="4" spans="1:11" ht="45" customHeight="1" thickBot="1">
-      <c r="A4" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="B4" s="99" t="s">
-        <v>227</v>
-      </c>
-      <c r="C4" s="100"/>
-      <c r="D4" s="100"/>
-      <c r="E4" s="100"/>
-      <c r="F4" s="100"/>
-      <c r="G4" s="100"/>
-      <c r="H4" s="100"/>
-      <c r="I4" s="100"/>
-      <c r="J4" s="100"/>
-      <c r="K4" s="101"/>
-    </row>
-    <row r="5" spans="1:11" ht="45" customHeight="1" thickBot="1">
-      <c r="A5" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="B5" s="99" t="s">
-        <v>228</v>
-      </c>
-      <c r="C5" s="100"/>
-      <c r="D5" s="100"/>
-      <c r="E5" s="100"/>
-      <c r="F5" s="100"/>
-      <c r="G5" s="100"/>
-      <c r="H5" s="100"/>
-      <c r="I5" s="100"/>
-      <c r="J5" s="100"/>
-      <c r="K5" s="101"/>
-    </row>
-    <row r="6" spans="1:11" ht="45" customHeight="1" thickBot="1">
-      <c r="A6" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="B6" s="99" t="s">
-        <v>229</v>
-      </c>
-      <c r="C6" s="100"/>
-      <c r="D6" s="100"/>
-      <c r="E6" s="100"/>
-      <c r="F6" s="100"/>
-      <c r="G6" s="100"/>
-      <c r="H6" s="100"/>
-      <c r="I6" s="100"/>
-      <c r="J6" s="100"/>
-      <c r="K6" s="101"/>
-    </row>
-    <row r="7" spans="1:11" ht="30" customHeight="1" thickBot="1">
-      <c r="A7" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="B7" s="99" t="s">
-        <v>230</v>
-      </c>
-      <c r="C7" s="100"/>
-      <c r="D7" s="100"/>
-      <c r="E7" s="100"/>
-      <c r="F7" s="100"/>
-      <c r="G7" s="100"/>
-      <c r="H7" s="100"/>
-      <c r="I7" s="100"/>
-      <c r="J7" s="100"/>
-      <c r="K7" s="101"/>
-    </row>
-    <row r="8" spans="1:11" ht="150.75" customHeight="1" thickBot="1">
-      <c r="A8" s="10"/>
-      <c r="B8" s="102" t="s">
-        <v>231</v>
-      </c>
-      <c r="C8" s="103"/>
-      <c r="D8" s="103"/>
-      <c r="E8" s="103"/>
-      <c r="F8" s="103"/>
-      <c r="G8" s="103"/>
-      <c r="H8" s="103"/>
-      <c r="I8" s="103"/>
-      <c r="J8" s="103"/>
-      <c r="K8" s="104"/>
-    </row>
-  </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="B7:K7"/>
-    <mergeCell ref="B8:K8"/>
-    <mergeCell ref="B1:K1"/>
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="B3:K3"/>
-    <mergeCell ref="B4:K4"/>
-    <mergeCell ref="B5:K5"/>
-    <mergeCell ref="B6:K6"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50057963-75E5-4253-A7F5-E58A81C4C7B8}">
   <dimension ref="A1:G51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33:E51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -36316,7 +36606,7 @@
       </c>
       <c r="D33" s="83"/>
       <c r="E33" s="86" t="s">
-        <v>472</v>
+        <v>502</v>
       </c>
       <c r="F33" s="87"/>
     </row>
@@ -36330,7 +36620,7 @@
       </c>
       <c r="D34" s="83"/>
       <c r="E34" s="86" t="s">
-        <v>471</v>
+        <v>503</v>
       </c>
       <c r="F34" s="87"/>
     </row>
@@ -36364,7 +36654,7 @@
       </c>
       <c r="D37" s="83"/>
       <c r="E37" s="86" t="s">
-        <v>470</v>
+        <v>504</v>
       </c>
       <c r="F37" s="87"/>
     </row>
@@ -36378,7 +36668,7 @@
       </c>
       <c r="D38" s="83"/>
       <c r="E38" s="86" t="s">
-        <v>469</v>
+        <v>505</v>
       </c>
       <c r="F38" s="87"/>
     </row>
@@ -36422,7 +36712,7 @@
       </c>
       <c r="D42" s="83"/>
       <c r="E42" s="86" t="s">
-        <v>468</v>
+        <v>506</v>
       </c>
       <c r="F42" s="87"/>
     </row>
@@ -36540,21 +36830,327 @@
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C51" xr:uid="{BEF94545-53BB-4A25-884A-FB46C0F726AF}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C51" xr:uid="{E0408574-49AF-4401-A975-B08ADA5743DD}">
       <formula1>"English,Knowledge Gaps,Emotion,Techniques"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F51" xr:uid="{E0EA92E9-7698-4F99-B782-D75988C37ED4}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F51" xr:uid="{6FF77AB7-AA25-41CA-91C7-3F988A01A840}">
       <formula1>"Task1, Task 2, Task3, Task 4, Task 5, Task 6, Task 7"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="F1" location="'Domain-Planning'!A1" display="Domain" xr:uid="{F97348EE-9E21-4DDD-9C55-4ED9181CEDA3}"/>
+    <hyperlink ref="F1" location="'Domain-Planning'!A1" display="Domain" xr:uid="{B4589F69-0D15-4EF8-8809-D974453C4DC4}"/>
   </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B4D9506-FE81-4C50-86CB-42DFDE5F4697}">
+  <sheetPr codeName="Sheet13"/>
+  <dimension ref="A1:K7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N12" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:11" ht="45" customHeight="1" thickBot="1">
+      <c r="A1" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="B1" s="99" t="s">
+        <v>159</v>
+      </c>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="100"/>
+      <c r="H1" s="100"/>
+      <c r="I1" s="100"/>
+      <c r="J1" s="100"/>
+      <c r="K1" s="101"/>
+    </row>
+    <row r="2" spans="1:11" ht="45" customHeight="1" thickBot="1">
+      <c r="A2" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="B2" s="99" t="s">
+        <v>160</v>
+      </c>
+      <c r="C2" s="100"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="100"/>
+      <c r="G2" s="100"/>
+      <c r="H2" s="100"/>
+      <c r="I2" s="100"/>
+      <c r="J2" s="100"/>
+      <c r="K2" s="101"/>
+    </row>
+    <row r="3" spans="1:11" ht="45" customHeight="1" thickBot="1">
+      <c r="A3" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="B3" s="99" t="s">
+        <v>161</v>
+      </c>
+      <c r="C3" s="100"/>
+      <c r="D3" s="100"/>
+      <c r="E3" s="100"/>
+      <c r="F3" s="100"/>
+      <c r="G3" s="100"/>
+      <c r="H3" s="100"/>
+      <c r="I3" s="100"/>
+      <c r="J3" s="100"/>
+      <c r="K3" s="101"/>
+    </row>
+    <row r="4" spans="1:11" ht="45" customHeight="1" thickBot="1">
+      <c r="A4" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="B4" s="99" t="s">
+        <v>162</v>
+      </c>
+      <c r="C4" s="100"/>
+      <c r="D4" s="100"/>
+      <c r="E4" s="100"/>
+      <c r="F4" s="100"/>
+      <c r="G4" s="100"/>
+      <c r="H4" s="100"/>
+      <c r="I4" s="100"/>
+      <c r="J4" s="100"/>
+      <c r="K4" s="101"/>
+    </row>
+    <row r="5" spans="1:11" ht="45" customHeight="1" thickBot="1">
+      <c r="A5" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="B5" s="99" t="s">
+        <v>163</v>
+      </c>
+      <c r="C5" s="100"/>
+      <c r="D5" s="100"/>
+      <c r="E5" s="100"/>
+      <c r="F5" s="100"/>
+      <c r="G5" s="100"/>
+      <c r="H5" s="100"/>
+      <c r="I5" s="100"/>
+      <c r="J5" s="100"/>
+      <c r="K5" s="101"/>
+    </row>
+    <row r="6" spans="1:11" ht="45" customHeight="1" thickBot="1">
+      <c r="A6" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="B6" s="99" t="s">
+        <v>164</v>
+      </c>
+      <c r="C6" s="100"/>
+      <c r="D6" s="100"/>
+      <c r="E6" s="100"/>
+      <c r="F6" s="100"/>
+      <c r="G6" s="100"/>
+      <c r="H6" s="100"/>
+      <c r="I6" s="100"/>
+      <c r="J6" s="100"/>
+      <c r="K6" s="101"/>
+    </row>
+    <row r="7" spans="1:11" ht="30" customHeight="1" thickBot="1">
+      <c r="A7" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="B7" s="99" t="s">
+        <v>165</v>
+      </c>
+      <c r="C7" s="100"/>
+      <c r="D7" s="100"/>
+      <c r="E7" s="100"/>
+      <c r="F7" s="100"/>
+      <c r="G7" s="100"/>
+      <c r="H7" s="100"/>
+      <c r="I7" s="100"/>
+      <c r="J7" s="100"/>
+      <c r="K7" s="101"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="B7:K7"/>
+    <mergeCell ref="B1:K1"/>
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="B3:K3"/>
+    <mergeCell ref="B4:K4"/>
+    <mergeCell ref="B5:K5"/>
+    <mergeCell ref="B6:K6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DFC2900-1516-4D11-BB5E-CB91221B0668}">
+  <sheetPr codeName="Sheet14"/>
+  <dimension ref="A1:K8"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:11" ht="45" customHeight="1" thickBot="1">
+      <c r="A1" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="B1" s="99" t="s">
+        <v>224</v>
+      </c>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="100"/>
+      <c r="H1" s="100"/>
+      <c r="I1" s="100"/>
+      <c r="J1" s="100"/>
+      <c r="K1" s="101"/>
+    </row>
+    <row r="2" spans="1:11" ht="45" customHeight="1" thickBot="1">
+      <c r="A2" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="B2" s="99" t="s">
+        <v>225</v>
+      </c>
+      <c r="C2" s="100"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="100"/>
+      <c r="G2" s="100"/>
+      <c r="H2" s="100"/>
+      <c r="I2" s="100"/>
+      <c r="J2" s="100"/>
+      <c r="K2" s="101"/>
+    </row>
+    <row r="3" spans="1:11" ht="45" customHeight="1" thickBot="1">
+      <c r="A3" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="B3" s="99" t="s">
+        <v>226</v>
+      </c>
+      <c r="C3" s="100"/>
+      <c r="D3" s="100"/>
+      <c r="E3" s="100"/>
+      <c r="F3" s="100"/>
+      <c r="G3" s="100"/>
+      <c r="H3" s="100"/>
+      <c r="I3" s="100"/>
+      <c r="J3" s="100"/>
+      <c r="K3" s="101"/>
+    </row>
+    <row r="4" spans="1:11" ht="45" customHeight="1" thickBot="1">
+      <c r="A4" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="B4" s="99" t="s">
+        <v>227</v>
+      </c>
+      <c r="C4" s="100"/>
+      <c r="D4" s="100"/>
+      <c r="E4" s="100"/>
+      <c r="F4" s="100"/>
+      <c r="G4" s="100"/>
+      <c r="H4" s="100"/>
+      <c r="I4" s="100"/>
+      <c r="J4" s="100"/>
+      <c r="K4" s="101"/>
+    </row>
+    <row r="5" spans="1:11" ht="45" customHeight="1" thickBot="1">
+      <c r="A5" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="B5" s="99" t="s">
+        <v>228</v>
+      </c>
+      <c r="C5" s="100"/>
+      <c r="D5" s="100"/>
+      <c r="E5" s="100"/>
+      <c r="F5" s="100"/>
+      <c r="G5" s="100"/>
+      <c r="H5" s="100"/>
+      <c r="I5" s="100"/>
+      <c r="J5" s="100"/>
+      <c r="K5" s="101"/>
+    </row>
+    <row r="6" spans="1:11" ht="45" customHeight="1" thickBot="1">
+      <c r="A6" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="B6" s="99" t="s">
+        <v>229</v>
+      </c>
+      <c r="C6" s="100"/>
+      <c r="D6" s="100"/>
+      <c r="E6" s="100"/>
+      <c r="F6" s="100"/>
+      <c r="G6" s="100"/>
+      <c r="H6" s="100"/>
+      <c r="I6" s="100"/>
+      <c r="J6" s="100"/>
+      <c r="K6" s="101"/>
+    </row>
+    <row r="7" spans="1:11" ht="30" customHeight="1" thickBot="1">
+      <c r="A7" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="B7" s="99" t="s">
+        <v>230</v>
+      </c>
+      <c r="C7" s="100"/>
+      <c r="D7" s="100"/>
+      <c r="E7" s="100"/>
+      <c r="F7" s="100"/>
+      <c r="G7" s="100"/>
+      <c r="H7" s="100"/>
+      <c r="I7" s="100"/>
+      <c r="J7" s="100"/>
+      <c r="K7" s="101"/>
+    </row>
+    <row r="8" spans="1:11" ht="150.75" customHeight="1" thickBot="1">
+      <c r="A8" s="10"/>
+      <c r="B8" s="102" t="s">
+        <v>231</v>
+      </c>
+      <c r="C8" s="103"/>
+      <c r="D8" s="103"/>
+      <c r="E8" s="103"/>
+      <c r="F8" s="103"/>
+      <c r="G8" s="103"/>
+      <c r="H8" s="103"/>
+      <c r="I8" s="103"/>
+      <c r="J8" s="103"/>
+      <c r="K8" s="104"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="B7:K7"/>
+    <mergeCell ref="B8:K8"/>
+    <mergeCell ref="B1:K1"/>
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="B3:K3"/>
+    <mergeCell ref="B4:K4"/>
+    <mergeCell ref="B5:K5"/>
+    <mergeCell ref="B6:K6"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8370EABC-5FB0-46E3-AC0D-18A12C9132DD}">
   <sheetPr codeName="Sheet15"/>
   <dimension ref="A1:E26"/>
@@ -36841,7 +37437,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B150C828-5E38-4F9B-89F5-DE7664E9E60A}">
   <sheetPr codeName="Sheet16"/>
   <dimension ref="A1"/>
@@ -36856,7 +37452,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F20858FF-860F-4DDB-90C1-5CC740EF8BB8}">
   <sheetPr codeName="Sheet17"/>
   <dimension ref="A1"/>
@@ -36871,7 +37467,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13E5ACBF-E712-4A9D-9910-ED74A62FE5AE}">
   <sheetPr codeName="Sheet18"/>
   <dimension ref="A1"/>
@@ -36884,7 +37480,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C417280C-3257-4FCE-BFBC-576DD1B4382F}">
   <sheetPr codeName="Sheet19"/>
   <dimension ref="A1"/>
@@ -37513,8 +38109,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{453BF44A-91AF-4F6D-AE5E-E58F57961686}">
   <dimension ref="A1:G51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -38132,7 +38728,7 @@
   <dimension ref="A1:H52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -38510,12 +39106,286 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9B567D7-4235-4BF6-8486-7BD591ECD0EB}">
+  <dimension ref="A1:E11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="79"/>
+    <col min="2" max="2" width="21.42578125" style="79" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" style="79" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" style="79" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="79" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="79"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="26.25">
+      <c r="A1" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="26" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="27">
+        <v>1</v>
+      </c>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="27">
+        <v>2</v>
+      </c>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="27">
+        <v>3</v>
+      </c>
+      <c r="B4" s="27"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="27">
+        <v>4</v>
+      </c>
+      <c r="B5" s="27"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="27">
+        <v>5</v>
+      </c>
+      <c r="B6" s="27"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="4"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="27">
+        <v>6</v>
+      </c>
+      <c r="B7" s="27"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="27">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="27">
+        <v>8</v>
+      </c>
+      <c r="B9" s="27"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="27">
+        <v>9</v>
+      </c>
+      <c r="B10" s="27"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="27">
+        <v>10</v>
+      </c>
+      <c r="B11" s="27"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C11" xr:uid="{36A8C5C4-0BD5-4D29-B56B-F872AD593D13}">
+      <formula1>"English,Knowledge Gaps,Emotion,Techniques"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{967F5E40-1BAA-4435-B68D-2D1BF76C2735}">
+  <dimension ref="A1:E11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="79"/>
+    <col min="2" max="2" width="21.42578125" style="79" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" style="79" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" style="79" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="79" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="79"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="26.25">
+      <c r="A1" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="26" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="27">
+        <v>1</v>
+      </c>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="27">
+        <v>2</v>
+      </c>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="27">
+        <v>3</v>
+      </c>
+      <c r="B4" s="27"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="27">
+        <v>4</v>
+      </c>
+      <c r="B5" s="27"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="27">
+        <v>5</v>
+      </c>
+      <c r="B6" s="27"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="4"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="27">
+        <v>6</v>
+      </c>
+      <c r="B7" s="27"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="27">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="27">
+        <v>8</v>
+      </c>
+      <c r="B9" s="27"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="27">
+        <v>9</v>
+      </c>
+      <c r="B10" s="27"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="27">
+        <v>10</v>
+      </c>
+      <c r="B11" s="27"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C11" xr:uid="{DBD32C44-2D5F-43A4-9F6E-1E46D3BF1820}">
+      <formula1>"English,Knowledge Gaps,Emotion,Techniques"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3370A11-AD88-47EC-B564-C7B459D1B3C6}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -38566,16 +39436,22 @@
         <v>3</v>
       </c>
       <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
+      <c r="C4" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
+      <c r="E4" s="3" t="s">
+        <v>501</v>
+      </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="3">
         <v>4</v>
       </c>
       <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
+      <c r="C5" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
     </row>
@@ -38657,7 +39533,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B3E9025-2166-405B-928B-811F653123F3}">
   <sheetPr codeName="Sheet20"/>
   <dimension ref="A1:F26"/>
@@ -38996,418 +39872,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D67830A5-61CE-4324-A223-E0E1F9224A73}">
-  <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:G26"/>
-  <sheetViews>
-    <sheetView topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="9.140625" style="7"/>
-    <col min="2" max="2" width="65.85546875" style="7" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" style="7" customWidth="1"/>
-    <col min="4" max="4" width="38.85546875" style="7" customWidth="1"/>
-    <col min="5" max="5" width="41.7109375" style="7" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="7"/>
-    <col min="7" max="7" width="29.7109375" style="7" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="7"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" ht="25.5">
-      <c r="A1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="14" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="30">
-      <c r="A2" s="8">
-        <v>1</v>
-      </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="15" t="s">
-        <v>307</v>
-      </c>
-      <c r="F2" s="16" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="8">
-        <v>2</v>
-      </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="16" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="8">
-        <v>3</v>
-      </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="16"/>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="8">
-        <v>4</v>
-      </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="16"/>
-    </row>
-    <row r="6" spans="1:7" ht="90">
-      <c r="A6" s="8">
-        <v>5</v>
-      </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8" t="s">
-        <v>335</v>
-      </c>
-      <c r="E6" s="15" t="s">
-        <v>306</v>
-      </c>
-      <c r="F6" s="16"/>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="8">
-        <v>6</v>
-      </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="F7" s="16"/>
-    </row>
-    <row r="8" spans="1:7" ht="45">
-      <c r="A8" s="8">
-        <v>7</v>
-      </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="15" t="s">
-        <v>305</v>
-      </c>
-      <c r="F8" s="16"/>
-    </row>
-    <row r="9" spans="1:7" ht="105">
-      <c r="A9" s="8">
-        <v>8</v>
-      </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="15" t="s">
-        <v>304</v>
-      </c>
-      <c r="F9" s="16"/>
-    </row>
-    <row r="10" spans="1:7" ht="30">
-      <c r="A10" s="8">
-        <v>9</v>
-      </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>336</v>
-      </c>
-      <c r="E10" s="15" t="s">
-        <v>303</v>
-      </c>
-      <c r="F10" s="16"/>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="8">
-        <v>10</v>
-      </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="15" t="s">
-        <v>302</v>
-      </c>
-      <c r="F11" s="16"/>
-    </row>
-    <row r="12" spans="1:7" ht="30">
-      <c r="A12" s="8">
-        <v>11</v>
-      </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8" t="s">
-        <v>337</v>
-      </c>
-      <c r="E12" s="15"/>
-      <c r="F12" s="16"/>
-    </row>
-    <row r="13" spans="1:7" ht="30">
-      <c r="A13" s="8">
-        <v>12</v>
-      </c>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>338</v>
-      </c>
-      <c r="E13" s="15" t="s">
-        <v>301</v>
-      </c>
-      <c r="F13" s="16"/>
-    </row>
-    <row r="14" spans="1:7" ht="30">
-      <c r="A14" s="8">
-        <v>13</v>
-      </c>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="E14" s="8" t="s">
-        <v>339</v>
-      </c>
-      <c r="F14" s="16"/>
-    </row>
-    <row r="15" spans="1:7" ht="183" customHeight="1">
-      <c r="A15" s="8">
-        <v>14</v>
-      </c>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>300</v>
-      </c>
-      <c r="E15" s="15" t="s">
-        <v>341</v>
-      </c>
-      <c r="F15" s="16" t="s">
-        <v>140</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="45">
-      <c r="A16" s="8">
-        <v>15</v>
-      </c>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>297</v>
-      </c>
-      <c r="E16" s="15" t="s">
-        <v>298</v>
-      </c>
-      <c r="F16" s="16"/>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="8">
-        <v>16</v>
-      </c>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="15" t="s">
-        <v>296</v>
-      </c>
-      <c r="F17" s="16"/>
-    </row>
-    <row r="18" spans="1:6" ht="60">
-      <c r="A18" s="8">
-        <v>17</v>
-      </c>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>294</v>
-      </c>
-      <c r="E18" s="15" t="s">
-        <v>295</v>
-      </c>
-      <c r="F18" s="16"/>
-    </row>
-    <row r="19" spans="1:6" ht="75">
-      <c r="A19" s="8">
-        <v>18</v>
-      </c>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="15" t="s">
-        <v>293</v>
-      </c>
-      <c r="F19" s="16"/>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="8">
-        <v>19</v>
-      </c>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="16"/>
-    </row>
-    <row r="21" spans="1:6" ht="45">
-      <c r="A21" s="8">
-        <v>20</v>
-      </c>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="15" t="s">
-        <v>292</v>
-      </c>
-      <c r="F21" s="16"/>
-    </row>
-    <row r="22" spans="1:6" ht="90">
-      <c r="A22" s="8">
-        <v>21</v>
-      </c>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="15" t="s">
-        <v>291</v>
-      </c>
-      <c r="F22" s="16"/>
-    </row>
-    <row r="23" spans="1:6" ht="45">
-      <c r="A23" s="8">
-        <v>22</v>
-      </c>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>289</v>
-      </c>
-      <c r="E23" s="15" t="s">
-        <v>290</v>
-      </c>
-      <c r="F23" s="16"/>
-    </row>
-    <row r="24" spans="1:6" ht="60">
-      <c r="A24" s="8">
-        <v>23</v>
-      </c>
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="54" t="s">
-        <v>342</v>
-      </c>
-      <c r="E24" s="15" t="s">
-        <v>288</v>
-      </c>
-      <c r="F24" s="16"/>
-    </row>
-    <row r="25" spans="1:6" ht="45">
-      <c r="A25" s="8">
-        <v>24</v>
-      </c>
-      <c r="B25" s="8"/>
-      <c r="C25" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>343</v>
-      </c>
-      <c r="E25" s="15" t="s">
-        <v>287</v>
-      </c>
-      <c r="F25" s="16"/>
-    </row>
-    <row r="26" spans="1:6" ht="30">
-      <c r="A26" s="8">
-        <v>25</v>
-      </c>
-      <c r="B26" s="8"/>
-      <c r="C26" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>344</v>
-      </c>
-      <c r="E26" s="15" t="s">
-        <v>286</v>
-      </c>
-      <c r="F26" s="16" t="s">
-        <v>136</v>
-      </c>
-    </row>
-  </sheetData>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C26" xr:uid="{BA14E364-48D9-4A07-A118-7CEA555DD255}">
-      <formula1>"English,Knowledge Gaps,Emotion,Techniques"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F26" xr:uid="{050BE225-178B-409F-8A12-8704C43FC1BF}">
-      <formula1>"Task1, Task 2, Task3, Task 4, Task 5, Task 6, Task 7, Task 8"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <hyperlinks>
-    <hyperlink ref="F1" location="'Domain-Initiating'!A1" display="Domain" xr:uid="{C1A74F62-E9E5-41A8-A34C-DC92C164B9FB}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14F5D74C-E5D9-45C3-98E4-07977C9F0161}">
-  <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>